--- a/static/STEP Grade Boundaries.xlsx
+++ b/static/STEP Grade Boundaries.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712938a43efdd28f/Education/University Applications/STEP/step-resources/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F89564E6E12BAB9AB313689281AA013E84A773B9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE62297C-82EE-4FA7-8978-465B16CB6354}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381A5AC-53A9-4F7A-92B4-8E2C9602B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -60,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +90,28 @@
       <sz val="16"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -146,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +221,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -295,10 +317,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$G$2:$G$21</c:f>
+              <c:f>STEP!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -358,16 +380,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$H$2:$H$21</c:f>
+              <c:f>STEP!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>91</c:v>
                 </c:pt>
@@ -427,6 +452,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,10 +493,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$G$2:$G$21</c:f>
+              <c:f>STEP!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -528,16 +556,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$I$2:$I$21</c:f>
+              <c:f>STEP!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -597,6 +628,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,10 +668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$G$2:$G$21</c:f>
+              <c:f>STEP!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -697,16 +731,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$J$2:$J$21</c:f>
+              <c:f>STEP!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
@@ -766,6 +803,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,10 +844,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$G$2:$G$21</c:f>
+              <c:f>STEP!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -867,16 +907,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$K$2:$K$21</c:f>
+              <c:f>STEP!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -936,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,10 +1167,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$M$2:$M$21</c:f>
+              <c:f>STEP!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1184,16 +1230,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$N$2:$N$21</c:f>
+              <c:f>STEP!$N$2:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>88</c:v>
                 </c:pt>
@@ -1253,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,10 +1343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$M$2:$M$21</c:f>
+              <c:f>STEP!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1354,16 +1406,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$O$2:$O$21</c:f>
+              <c:f>STEP!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -1423,6 +1478,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,10 +1518,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$M$2:$M$21</c:f>
+              <c:f>STEP!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1523,16 +1581,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$P$2:$P$21</c:f>
+              <c:f>STEP!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1592,6 +1653,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,10 +1694,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>STEP!$M$2:$M$21</c:f>
+              <c:f>STEP!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1693,16 +1757,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>STEP!$Q$2:$Q$21</c:f>
+              <c:f>STEP!$Q$2:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -1762,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2783,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7134225" cy="5457825"/>
@@ -2744,7 +2814,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7105650" cy="5400675"/>
@@ -2775,7 +2845,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7115175" cy="5438775"/>
@@ -3102,24 +3172,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE1007"/>
+  <dimension ref="A1:AE1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.08984375" customWidth="1"/>
-    <col min="7" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="5.08984375" customWidth="1"/>
-    <col min="13" max="17" width="9.7265625" customWidth="1"/>
+    <col min="1" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="17" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
     <col min="19" max="31" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2000</v>
       </c>
@@ -3249,7 +3319,7 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2001</v>
       </c>
@@ -3312,7 +3382,7 @@
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2002</v>
       </c>
@@ -3375,7 +3445,7 @@
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
     </row>
-    <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2003</v>
       </c>
@@ -3438,7 +3508,7 @@
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
     </row>
-    <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2004</v>
       </c>
@@ -3501,7 +3571,7 @@
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
     </row>
-    <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2005</v>
       </c>
@@ -3564,7 +3634,7 @@
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
     </row>
-    <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -3627,7 +3697,7 @@
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
     </row>
-    <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -3690,7 +3760,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
     </row>
-    <row r="10" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -3753,7 +3823,7 @@
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
     </row>
-    <row r="11" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2009</v>
       </c>
@@ -3816,7 +3886,7 @@
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
     </row>
-    <row r="12" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
@@ -3879,7 +3949,7 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2011</v>
       </c>
@@ -3942,7 +4012,7 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
     </row>
-    <row r="14" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -4005,7 +4075,7 @@
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
     </row>
-    <row r="15" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2013</v>
       </c>
@@ -4068,7 +4138,7 @@
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
     </row>
-    <row r="16" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2014</v>
       </c>
@@ -4131,7 +4201,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
     </row>
-    <row r="17" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
@@ -4194,7 +4264,7 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
     </row>
-    <row r="18" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2016</v>
       </c>
@@ -4257,7 +4327,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
     </row>
-    <row r="19" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>2017</v>
       </c>
@@ -4320,7 +4390,7 @@
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
     </row>
-    <row r="20" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2018</v>
       </c>
@@ -4383,7 +4453,7 @@
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
     </row>
-    <row r="21" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>2019</v>
       </c>
@@ -4446,18 +4516,44 @@
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
     </row>
-    <row r="22" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="6"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="G22" s="16">
+        <v>2020</v>
+      </c>
+      <c r="H22" s="17">
+        <v>77</v>
+      </c>
+      <c r="I22" s="18">
+        <v>54</v>
+      </c>
+      <c r="J22" s="19">
+        <v>42</v>
+      </c>
+      <c r="K22" s="20">
+        <v>25</v>
+      </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="6"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="M22" s="16">
+        <v>2020</v>
+      </c>
+      <c r="N22" s="17">
+        <v>88</v>
+      </c>
+      <c r="O22" s="18">
+        <v>67</v>
+      </c>
+      <c r="P22" s="19">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>30</v>
+      </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -4473,140 +4569,92 @@
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
     </row>
-    <row r="23" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:31" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="22"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+    </row>
+    <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B24" s="17">
         <f>ROUNDUP(AVERAGE(B2:B21),0)</f>
         <v>93</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C24" s="18">
         <f>ROUNDUP(AVERAGE(C2:C21),0)</f>
         <v>72</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <f>ROUNDUP(AVERAGE(D2:D21),0)</f>
         <v>54</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E24" s="20">
         <f>ROUNDUP(AVERAGE(E2:E21),0)</f>
         <v>37</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="21" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <f>ROUNDUP(AVERAGE(H2:H21),0)</f>
         <v>93</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <f>ROUNDUP(AVERAGE(I2:I21),0)</f>
         <v>70</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <f>ROUNDUP(AVERAGE(J2:J21),0)</f>
         <v>57</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K24" s="20">
         <f>ROUNDUP(AVERAGE(K2:K21),0)</f>
         <v>34</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="21" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N24" s="17">
         <f>ROUNDUP(AVERAGE(N2:N21),0)</f>
         <v>84</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O24" s="18">
         <f>ROUNDUP(AVERAGE(O2:O21),0)</f>
         <v>62</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P24" s="19">
         <f>ROUNDUP(AVERAGE(P2:P21),0)</f>
         <v>50</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q24" s="20">
         <f>ROUNDUP(AVERAGE(Q2:Q21),0)</f>
         <v>32</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-    </row>
-    <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="17">
-        <f>MAX(B2:B21)</f>
-        <v>105</v>
-      </c>
-      <c r="C24" s="18">
-        <f>MAX(C2:C21)</f>
-        <v>84</v>
-      </c>
-      <c r="D24" s="19">
-        <f>MAX(D2:D21)</f>
-        <v>70</v>
-      </c>
-      <c r="E24" s="20">
-        <f>MAX(E2:E21)</f>
-        <v>47</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="17">
-        <f>MAX(H2:H21)</f>
-        <v>105</v>
-      </c>
-      <c r="I24" s="18">
-        <f>MAX(I2:I21)</f>
-        <v>80</v>
-      </c>
-      <c r="J24" s="19">
-        <f>MAX(J2:J21)</f>
-        <v>69</v>
-      </c>
-      <c r="K24" s="20">
-        <f>MAX(K2:K21)</f>
-        <v>40</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="17">
-        <f>MAX(N2:N21)</f>
-        <v>95</v>
-      </c>
-      <c r="O24" s="18">
-        <f>MAX(O2:O21)</f>
-        <v>69</v>
-      </c>
-      <c r="P24" s="19">
-        <f>MAX(P2:P21)</f>
-        <v>57</v>
-      </c>
-      <c r="Q24" s="20">
-        <f>MAX(Q2:Q21)</f>
-        <v>39</v>
       </c>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -4623,65 +4671,65 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
     </row>
-    <row r="25" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="17">
-        <f>MIN(B2:B21)</f>
-        <v>80</v>
+        <f>MAX(B2:B21)</f>
+        <v>105</v>
       </c>
       <c r="C25" s="18">
-        <f>MIN(C2:C21)</f>
-        <v>61</v>
+        <f>MAX(C2:C21)</f>
+        <v>84</v>
       </c>
       <c r="D25" s="19">
-        <f>MIN(D2:D21)</f>
-        <v>43</v>
+        <f>MAX(D2:D21)</f>
+        <v>70</v>
       </c>
       <c r="E25" s="20">
-        <f>MIN(E2:E21)</f>
-        <v>28</v>
+        <f>MAX(E2:E21)</f>
+        <v>47</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="17">
-        <f>MIN(H2:H21)</f>
-        <v>82</v>
+        <f>MAX(H2:H21)</f>
+        <v>105</v>
       </c>
       <c r="I25" s="18">
-        <f>MIN(I2:I21)</f>
-        <v>60</v>
+        <f>MAX(I2:I21)</f>
+        <v>80</v>
       </c>
       <c r="J25" s="19">
-        <f>MIN(J2:J21)</f>
+        <f>MAX(J2:J21)</f>
+        <v>69</v>
+      </c>
+      <c r="K25" s="20">
+        <f>MAX(K2:K21)</f>
         <v>40</v>
-      </c>
-      <c r="K25" s="20">
-        <f>MIN(K2:K21)</f>
-        <v>29</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25" s="17">
-        <f>MIN(N2:N21)</f>
-        <v>75</v>
+        <f>MAX(N2:N21)</f>
+        <v>95</v>
       </c>
       <c r="O25" s="18">
-        <f>MIN(O2:O21)</f>
-        <v>56</v>
+        <f>MAX(O2:O21)</f>
+        <v>69</v>
       </c>
       <c r="P25" s="19">
-        <f>MIN(P2:P21)</f>
-        <v>43</v>
+        <f>MAX(P2:P21)</f>
+        <v>57</v>
       </c>
       <c r="Q25" s="20">
-        <f>MIN(Q2:Q21)</f>
-        <v>27</v>
+        <f>MAX(Q2:Q21)</f>
+        <v>39</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
@@ -4698,11 +4746,66 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
     </row>
-    <row r="26" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="6"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+    <row r="26" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="17">
+        <f>MIN(B2:B21)</f>
+        <v>80</v>
+      </c>
+      <c r="C26" s="18">
+        <f>MIN(C2:C21)</f>
+        <v>61</v>
+      </c>
+      <c r="D26" s="19">
+        <f>MIN(D2:D21)</f>
+        <v>43</v>
+      </c>
+      <c r="E26" s="20">
+        <f>MIN(E2:E21)</f>
+        <v>28</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="17">
+        <f>MIN(H2:H21)</f>
+        <v>82</v>
+      </c>
+      <c r="I26" s="18">
+        <f>MIN(I2:I21)</f>
+        <v>60</v>
+      </c>
+      <c r="J26" s="19">
+        <f>MIN(J2:J21)</f>
+        <v>40</v>
+      </c>
+      <c r="K26" s="20">
+        <f>MIN(K2:K21)</f>
+        <v>29</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="17">
+        <f>MIN(N2:N21)</f>
+        <v>75</v>
+      </c>
+      <c r="O26" s="18">
+        <f>MIN(O2:O21)</f>
+        <v>56</v>
+      </c>
+      <c r="P26" s="19">
+        <f>MIN(P2:P21)</f>
+        <v>43</v>
+      </c>
+      <c r="Q26" s="20">
+        <f>MIN(Q2:Q21)</f>
+        <v>27</v>
+      </c>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -4718,7 +4821,7 @@
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
     </row>
-    <row r="27" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -4738,7 +4841,7 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
     </row>
-    <row r="28" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -4758,7 +4861,7 @@
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
     </row>
-    <row r="29" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -4778,7 +4881,7 @@
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
     </row>
-    <row r="30" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -4798,7 +4901,7 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
     </row>
-    <row r="31" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -4818,7 +4921,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
     </row>
-    <row r="32" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -4838,7 +4941,7 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
     </row>
-    <row r="33" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -4858,7 +4961,7 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
     </row>
-    <row r="34" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -4878,7 +4981,7 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
     </row>
-    <row r="35" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -4898,7 +5001,7 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
     </row>
-    <row r="36" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -4918,7 +5021,7 @@
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
     </row>
-    <row r="37" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
@@ -4938,7 +5041,7 @@
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
     </row>
-    <row r="38" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
@@ -4958,7 +5061,7 @@
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
     </row>
-    <row r="39" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
@@ -4978,7 +5081,7 @@
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
     </row>
-    <row r="40" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -4998,7 +5101,7 @@
       <c r="AD40" s="14"/>
       <c r="AE40" s="14"/>
     </row>
-    <row r="41" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
@@ -5018,7 +5121,7 @@
       <c r="AD41" s="14"/>
       <c r="AE41" s="14"/>
     </row>
-    <row r="42" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -5038,7 +5141,7 @@
       <c r="AD42" s="14"/>
       <c r="AE42" s="14"/>
     </row>
-    <row r="43" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
@@ -5058,7 +5161,7 @@
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
     </row>
-    <row r="44" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -5078,7 +5181,7 @@
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
     </row>
-    <row r="45" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -5098,7 +5201,7 @@
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
     </row>
-    <row r="46" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -5118,7 +5221,7 @@
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
     </row>
-    <row r="47" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
@@ -5138,8 +5241,9 @@
       <c r="AD47" s="14"/>
       <c r="AE47" s="14"/>
     </row>
-    <row r="48" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
+      <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
@@ -5157,9 +5261,8 @@
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
     </row>
-    <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
-      <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
@@ -5177,7 +5280,7 @@
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
     </row>
-    <row r="50" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
@@ -5197,7 +5300,7 @@
       <c r="AD50" s="14"/>
       <c r="AE50" s="14"/>
     </row>
-    <row r="51" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
@@ -5217,7 +5320,7 @@
       <c r="AD51" s="14"/>
       <c r="AE51" s="14"/>
     </row>
-    <row r="52" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
@@ -5237,7 +5340,7 @@
       <c r="AD52" s="14"/>
       <c r="AE52" s="14"/>
     </row>
-    <row r="53" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
@@ -5257,7 +5360,7 @@
       <c r="AD53" s="14"/>
       <c r="AE53" s="14"/>
     </row>
-    <row r="54" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -5277,7 +5380,7 @@
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
     </row>
-    <row r="55" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -5297,7 +5400,7 @@
       <c r="AD55" s="14"/>
       <c r="AE55" s="14"/>
     </row>
-    <row r="56" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -5317,7 +5420,7 @@
       <c r="AD56" s="14"/>
       <c r="AE56" s="14"/>
     </row>
-    <row r="57" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -5337,7 +5440,7 @@
       <c r="AD57" s="14"/>
       <c r="AE57" s="14"/>
     </row>
-    <row r="58" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -5357,7 +5460,7 @@
       <c r="AD58" s="14"/>
       <c r="AE58" s="14"/>
     </row>
-    <row r="59" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -5377,7 +5480,7 @@
       <c r="AD59" s="14"/>
       <c r="AE59" s="14"/>
     </row>
-    <row r="60" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
@@ -5397,7 +5500,7 @@
       <c r="AD60" s="14"/>
       <c r="AE60" s="14"/>
     </row>
-    <row r="61" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
@@ -5417,7 +5520,7 @@
       <c r="AD61" s="14"/>
       <c r="AE61" s="14"/>
     </row>
-    <row r="62" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -5437,7 +5540,7 @@
       <c r="AD62" s="14"/>
       <c r="AE62" s="14"/>
     </row>
-    <row r="63" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
@@ -5457,7 +5560,7 @@
       <c r="AD63" s="14"/>
       <c r="AE63" s="14"/>
     </row>
-    <row r="64" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
@@ -5477,7 +5580,7 @@
       <c r="AD64" s="14"/>
       <c r="AE64" s="14"/>
     </row>
-    <row r="65" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -5497,7 +5600,7 @@
       <c r="AD65" s="14"/>
       <c r="AE65" s="14"/>
     </row>
-    <row r="66" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
@@ -5517,7 +5620,7 @@
       <c r="AD66" s="14"/>
       <c r="AE66" s="14"/>
     </row>
-    <row r="67" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
@@ -5537,7 +5640,7 @@
       <c r="AD67" s="14"/>
       <c r="AE67" s="14"/>
     </row>
-    <row r="68" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
@@ -5557,7 +5660,7 @@
       <c r="AD68" s="14"/>
       <c r="AE68" s="14"/>
     </row>
-    <row r="69" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
@@ -5577,7 +5680,7 @@
       <c r="AD69" s="14"/>
       <c r="AE69" s="14"/>
     </row>
-    <row r="70" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
@@ -5597,7 +5700,7 @@
       <c r="AD70" s="14"/>
       <c r="AE70" s="14"/>
     </row>
-    <row r="71" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
@@ -5617,7 +5720,7 @@
       <c r="AD71" s="14"/>
       <c r="AE71" s="14"/>
     </row>
-    <row r="72" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
@@ -5637,7 +5740,7 @@
       <c r="AD72" s="14"/>
       <c r="AE72" s="14"/>
     </row>
-    <row r="73" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
@@ -5657,7 +5760,7 @@
       <c r="AD73" s="14"/>
       <c r="AE73" s="14"/>
     </row>
-    <row r="74" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
@@ -5677,7 +5780,7 @@
       <c r="AD74" s="14"/>
       <c r="AE74" s="14"/>
     </row>
-    <row r="75" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
@@ -5697,7 +5800,7 @@
       <c r="AD75" s="14"/>
       <c r="AE75" s="14"/>
     </row>
-    <row r="76" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
@@ -5717,7 +5820,7 @@
       <c r="AD76" s="14"/>
       <c r="AE76" s="14"/>
     </row>
-    <row r="77" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
@@ -5737,7 +5840,7 @@
       <c r="AD77" s="14"/>
       <c r="AE77" s="14"/>
     </row>
-    <row r="78" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
@@ -5757,7 +5860,7 @@
       <c r="AD78" s="14"/>
       <c r="AE78" s="14"/>
     </row>
-    <row r="79" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
@@ -5777,7 +5880,7 @@
       <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
     </row>
-    <row r="80" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="O80" s="14"/>
       <c r="P80" s="14"/>
@@ -5797,7 +5900,7 @@
       <c r="AD80" s="14"/>
       <c r="AE80" s="14"/>
     </row>
-    <row r="81" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
@@ -5817,7 +5920,7 @@
       <c r="AD81" s="14"/>
       <c r="AE81" s="14"/>
     </row>
-    <row r="82" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
@@ -5837,7 +5940,7 @@
       <c r="AD82" s="14"/>
       <c r="AE82" s="14"/>
     </row>
-    <row r="83" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -5857,7 +5960,7 @@
       <c r="AD83" s="14"/>
       <c r="AE83" s="14"/>
     </row>
-    <row r="84" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -5877,7 +5980,7 @@
       <c r="AD84" s="14"/>
       <c r="AE84" s="14"/>
     </row>
-    <row r="85" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -5897,7 +6000,7 @@
       <c r="AD85" s="14"/>
       <c r="AE85" s="14"/>
     </row>
-    <row r="86" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
@@ -5917,7 +6020,7 @@
       <c r="AD86" s="14"/>
       <c r="AE86" s="14"/>
     </row>
-    <row r="87" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -5937,7 +6040,7 @@
       <c r="AD87" s="14"/>
       <c r="AE87" s="14"/>
     </row>
-    <row r="88" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
@@ -5957,7 +6060,7 @@
       <c r="AD88" s="14"/>
       <c r="AE88" s="14"/>
     </row>
-    <row r="89" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
@@ -5977,7 +6080,7 @@
       <c r="AD89" s="14"/>
       <c r="AE89" s="14"/>
     </row>
-    <row r="90" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
@@ -5997,7 +6100,7 @@
       <c r="AD90" s="14"/>
       <c r="AE90" s="14"/>
     </row>
-    <row r="91" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
@@ -6017,7 +6120,7 @@
       <c r="AD91" s="14"/>
       <c r="AE91" s="14"/>
     </row>
-    <row r="92" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
@@ -6037,7 +6140,7 @@
       <c r="AD92" s="14"/>
       <c r="AE92" s="14"/>
     </row>
-    <row r="93" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
@@ -6057,7 +6160,7 @@
       <c r="AD93" s="14"/>
       <c r="AE93" s="14"/>
     </row>
-    <row r="94" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
@@ -6077,7 +6180,7 @@
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
     </row>
-    <row r="95" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
@@ -6097,7 +6200,7 @@
       <c r="AD95" s="14"/>
       <c r="AE95" s="14"/>
     </row>
-    <row r="96" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
@@ -6117,7 +6220,7 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
     </row>
-    <row r="97" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
@@ -6137,7 +6240,7 @@
       <c r="AD97" s="14"/>
       <c r="AE97" s="14"/>
     </row>
-    <row r="98" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
@@ -6157,7 +6260,7 @@
       <c r="AD98" s="14"/>
       <c r="AE98" s="14"/>
     </row>
-    <row r="99" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
@@ -6177,7 +6280,7 @@
       <c r="AD99" s="14"/>
       <c r="AE99" s="14"/>
     </row>
-    <row r="100" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
@@ -6197,7 +6300,7 @@
       <c r="AD100" s="14"/>
       <c r="AE100" s="14"/>
     </row>
-    <row r="101" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
@@ -6217,7 +6320,7 @@
       <c r="AD101" s="14"/>
       <c r="AE101" s="14"/>
     </row>
-    <row r="102" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
@@ -6237,7 +6340,7 @@
       <c r="AD102" s="14"/>
       <c r="AE102" s="14"/>
     </row>
-    <row r="103" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
@@ -6257,7 +6360,7 @@
       <c r="AD103" s="14"/>
       <c r="AE103" s="14"/>
     </row>
-    <row r="104" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="O104" s="14"/>
       <c r="P104" s="14"/>
@@ -6277,7 +6380,7 @@
       <c r="AD104" s="14"/>
       <c r="AE104" s="14"/>
     </row>
-    <row r="105" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
@@ -6297,7 +6400,7 @@
       <c r="AD105" s="14"/>
       <c r="AE105" s="14"/>
     </row>
-    <row r="106" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
@@ -6317,7 +6420,7 @@
       <c r="AD106" s="14"/>
       <c r="AE106" s="14"/>
     </row>
-    <row r="107" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
@@ -6337,7 +6440,7 @@
       <c r="AD107" s="14"/>
       <c r="AE107" s="14"/>
     </row>
-    <row r="108" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="O108" s="14"/>
       <c r="P108" s="14"/>
@@ -6357,7 +6460,7 @@
       <c r="AD108" s="14"/>
       <c r="AE108" s="14"/>
     </row>
-    <row r="109" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
@@ -6377,7 +6480,7 @@
       <c r="AD109" s="14"/>
       <c r="AE109" s="14"/>
     </row>
-    <row r="110" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14"/>
@@ -6397,7 +6500,7 @@
       <c r="AD110" s="14"/>
       <c r="AE110" s="14"/>
     </row>
-    <row r="111" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
@@ -6417,7 +6520,7 @@
       <c r="AD111" s="14"/>
       <c r="AE111" s="14"/>
     </row>
-    <row r="112" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="O112" s="14"/>
       <c r="P112" s="14"/>
@@ -6437,7 +6540,7 @@
       <c r="AD112" s="14"/>
       <c r="AE112" s="14"/>
     </row>
-    <row r="113" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
@@ -6457,7 +6560,7 @@
       <c r="AD113" s="14"/>
       <c r="AE113" s="14"/>
     </row>
-    <row r="114" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
@@ -6477,7 +6580,7 @@
       <c r="AD114" s="14"/>
       <c r="AE114" s="14"/>
     </row>
-    <row r="115" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
@@ -6497,7 +6600,7 @@
       <c r="AD115" s="14"/>
       <c r="AE115" s="14"/>
     </row>
-    <row r="116" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
@@ -6517,7 +6620,7 @@
       <c r="AD116" s="14"/>
       <c r="AE116" s="14"/>
     </row>
-    <row r="117" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="O117" s="14"/>
       <c r="P117" s="14"/>
@@ -6537,7 +6640,7 @@
       <c r="AD117" s="14"/>
       <c r="AE117" s="14"/>
     </row>
-    <row r="118" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="O118" s="14"/>
       <c r="P118" s="14"/>
@@ -6557,7 +6660,7 @@
       <c r="AD118" s="14"/>
       <c r="AE118" s="14"/>
     </row>
-    <row r="119" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="O119" s="14"/>
       <c r="P119" s="14"/>
@@ -6577,7 +6680,7 @@
       <c r="AD119" s="14"/>
       <c r="AE119" s="14"/>
     </row>
-    <row r="120" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="O120" s="14"/>
       <c r="P120" s="14"/>
@@ -6597,7 +6700,7 @@
       <c r="AD120" s="14"/>
       <c r="AE120" s="14"/>
     </row>
-    <row r="121" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="O121" s="14"/>
       <c r="P121" s="14"/>
@@ -6617,7 +6720,7 @@
       <c r="AD121" s="14"/>
       <c r="AE121" s="14"/>
     </row>
-    <row r="122" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="O122" s="14"/>
       <c r="P122" s="14"/>
@@ -6637,7 +6740,7 @@
       <c r="AD122" s="14"/>
       <c r="AE122" s="14"/>
     </row>
-    <row r="123" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="O123" s="14"/>
       <c r="P123" s="14"/>
@@ -6657,7 +6760,7 @@
       <c r="AD123" s="14"/>
       <c r="AE123" s="14"/>
     </row>
-    <row r="124" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
@@ -6677,7 +6780,7 @@
       <c r="AD124" s="14"/>
       <c r="AE124" s="14"/>
     </row>
-    <row r="125" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
@@ -6697,7 +6800,7 @@
       <c r="AD125" s="14"/>
       <c r="AE125" s="14"/>
     </row>
-    <row r="126" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="O126" s="14"/>
       <c r="P126" s="14"/>
@@ -6717,7 +6820,7 @@
       <c r="AD126" s="14"/>
       <c r="AE126" s="14"/>
     </row>
-    <row r="127" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="O127" s="14"/>
       <c r="P127" s="14"/>
@@ -6737,7 +6840,7 @@
       <c r="AD127" s="14"/>
       <c r="AE127" s="14"/>
     </row>
-    <row r="128" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="O128" s="14"/>
       <c r="P128" s="14"/>
@@ -6757,7 +6860,7 @@
       <c r="AD128" s="14"/>
       <c r="AE128" s="14"/>
     </row>
-    <row r="129" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="O129" s="14"/>
       <c r="P129" s="14"/>
@@ -6777,7 +6880,7 @@
       <c r="AD129" s="14"/>
       <c r="AE129" s="14"/>
     </row>
-    <row r="130" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="O130" s="14"/>
       <c r="P130" s="14"/>
@@ -6797,7 +6900,7 @@
       <c r="AD130" s="14"/>
       <c r="AE130" s="14"/>
     </row>
-    <row r="131" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="O131" s="14"/>
       <c r="P131" s="14"/>
@@ -6817,7 +6920,7 @@
       <c r="AD131" s="14"/>
       <c r="AE131" s="14"/>
     </row>
-    <row r="132" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6837,7 +6940,7 @@
       <c r="AD132" s="14"/>
       <c r="AE132" s="14"/>
     </row>
-    <row r="133" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -6857,7 +6960,7 @@
       <c r="AD133" s="14"/>
       <c r="AE133" s="14"/>
     </row>
-    <row r="134" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -6877,7 +6980,7 @@
       <c r="AD134" s="14"/>
       <c r="AE134" s="14"/>
     </row>
-    <row r="135" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -6897,7 +7000,7 @@
       <c r="AD135" s="14"/>
       <c r="AE135" s="14"/>
     </row>
-    <row r="136" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -6917,7 +7020,7 @@
       <c r="AD136" s="14"/>
       <c r="AE136" s="14"/>
     </row>
-    <row r="137" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="O137" s="14"/>
       <c r="P137" s="14"/>
@@ -6937,7 +7040,7 @@
       <c r="AD137" s="14"/>
       <c r="AE137" s="14"/>
     </row>
-    <row r="138" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
@@ -6957,7 +7060,7 @@
       <c r="AD138" s="14"/>
       <c r="AE138" s="14"/>
     </row>
-    <row r="139" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
@@ -6977,7 +7080,7 @@
       <c r="AD139" s="14"/>
       <c r="AE139" s="14"/>
     </row>
-    <row r="140" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -6997,7 +7100,7 @@
       <c r="AD140" s="14"/>
       <c r="AE140" s="14"/>
     </row>
-    <row r="141" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
@@ -7017,7 +7120,7 @@
       <c r="AD141" s="14"/>
       <c r="AE141" s="14"/>
     </row>
-    <row r="142" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -7037,7 +7140,7 @@
       <c r="AD142" s="14"/>
       <c r="AE142" s="14"/>
     </row>
-    <row r="143" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
@@ -7057,7 +7160,7 @@
       <c r="AD143" s="14"/>
       <c r="AE143" s="14"/>
     </row>
-    <row r="144" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="O144" s="14"/>
       <c r="P144" s="14"/>
@@ -7077,7 +7180,7 @@
       <c r="AD144" s="14"/>
       <c r="AE144" s="14"/>
     </row>
-    <row r="145" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
@@ -7097,7 +7200,7 @@
       <c r="AD145" s="14"/>
       <c r="AE145" s="14"/>
     </row>
-    <row r="146" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
@@ -7117,7 +7220,7 @@
       <c r="AD146" s="14"/>
       <c r="AE146" s="14"/>
     </row>
-    <row r="147" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
@@ -7137,7 +7240,7 @@
       <c r="AD147" s="14"/>
       <c r="AE147" s="14"/>
     </row>
-    <row r="148" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
@@ -7157,7 +7260,7 @@
       <c r="AD148" s="14"/>
       <c r="AE148" s="14"/>
     </row>
-    <row r="149" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="O149" s="14"/>
       <c r="P149" s="14"/>
@@ -7177,7 +7280,7 @@
       <c r="AD149" s="14"/>
       <c r="AE149" s="14"/>
     </row>
-    <row r="150" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="O150" s="14"/>
       <c r="P150" s="14"/>
@@ -7197,7 +7300,7 @@
       <c r="AD150" s="14"/>
       <c r="AE150" s="14"/>
     </row>
-    <row r="151" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="O151" s="14"/>
       <c r="P151" s="14"/>
@@ -7217,7 +7320,7 @@
       <c r="AD151" s="14"/>
       <c r="AE151" s="14"/>
     </row>
-    <row r="152" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="O152" s="14"/>
       <c r="P152" s="14"/>
@@ -7237,7 +7340,7 @@
       <c r="AD152" s="14"/>
       <c r="AE152" s="14"/>
     </row>
-    <row r="153" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="O153" s="14"/>
       <c r="P153" s="14"/>
@@ -7257,7 +7360,7 @@
       <c r="AD153" s="14"/>
       <c r="AE153" s="14"/>
     </row>
-    <row r="154" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="O154" s="14"/>
       <c r="P154" s="14"/>
@@ -7277,7 +7380,7 @@
       <c r="AD154" s="14"/>
       <c r="AE154" s="14"/>
     </row>
-    <row r="155" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="O155" s="14"/>
       <c r="P155" s="14"/>
@@ -7297,7 +7400,7 @@
       <c r="AD155" s="14"/>
       <c r="AE155" s="14"/>
     </row>
-    <row r="156" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="O156" s="14"/>
       <c r="P156" s="14"/>
@@ -7317,7 +7420,7 @@
       <c r="AD156" s="14"/>
       <c r="AE156" s="14"/>
     </row>
-    <row r="157" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="O157" s="14"/>
       <c r="P157" s="14"/>
@@ -7337,7 +7440,7 @@
       <c r="AD157" s="14"/>
       <c r="AE157" s="14"/>
     </row>
-    <row r="158" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="O158" s="14"/>
       <c r="P158" s="14"/>
@@ -7357,7 +7460,7 @@
       <c r="AD158" s="14"/>
       <c r="AE158" s="14"/>
     </row>
-    <row r="159" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="O159" s="14"/>
       <c r="P159" s="14"/>
@@ -7377,7 +7480,7 @@
       <c r="AD159" s="14"/>
       <c r="AE159" s="14"/>
     </row>
-    <row r="160" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="O160" s="14"/>
       <c r="P160" s="14"/>
@@ -7397,7 +7500,7 @@
       <c r="AD160" s="14"/>
       <c r="AE160" s="14"/>
     </row>
-    <row r="161" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="O161" s="14"/>
       <c r="P161" s="14"/>
@@ -7417,7 +7520,7 @@
       <c r="AD161" s="14"/>
       <c r="AE161" s="14"/>
     </row>
-    <row r="162" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="O162" s="14"/>
       <c r="P162" s="14"/>
@@ -7437,7 +7540,7 @@
       <c r="AD162" s="14"/>
       <c r="AE162" s="14"/>
     </row>
-    <row r="163" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="O163" s="14"/>
       <c r="P163" s="14"/>
@@ -7457,7 +7560,7 @@
       <c r="AD163" s="14"/>
       <c r="AE163" s="14"/>
     </row>
-    <row r="164" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="O164" s="14"/>
       <c r="P164" s="14"/>
@@ -7477,7 +7580,7 @@
       <c r="AD164" s="14"/>
       <c r="AE164" s="14"/>
     </row>
-    <row r="165" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="O165" s="14"/>
       <c r="P165" s="14"/>
@@ -7497,7 +7600,7 @@
       <c r="AD165" s="14"/>
       <c r="AE165" s="14"/>
     </row>
-    <row r="166" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="O166" s="14"/>
       <c r="P166" s="14"/>
@@ -7517,7 +7620,7 @@
       <c r="AD166" s="14"/>
       <c r="AE166" s="14"/>
     </row>
-    <row r="167" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="O167" s="14"/>
       <c r="P167" s="14"/>
@@ -7537,7 +7640,7 @@
       <c r="AD167" s="14"/>
       <c r="AE167" s="14"/>
     </row>
-    <row r="168" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="O168" s="14"/>
       <c r="P168" s="14"/>
@@ -7557,7 +7660,7 @@
       <c r="AD168" s="14"/>
       <c r="AE168" s="14"/>
     </row>
-    <row r="169" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="O169" s="14"/>
       <c r="P169" s="14"/>
@@ -7577,7 +7680,7 @@
       <c r="AD169" s="14"/>
       <c r="AE169" s="14"/>
     </row>
-    <row r="170" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="O170" s="14"/>
       <c r="P170" s="14"/>
@@ -7597,7 +7700,7 @@
       <c r="AD170" s="14"/>
       <c r="AE170" s="14"/>
     </row>
-    <row r="171" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="O171" s="14"/>
       <c r="P171" s="14"/>
@@ -7617,7 +7720,7 @@
       <c r="AD171" s="14"/>
       <c r="AE171" s="14"/>
     </row>
-    <row r="172" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="O172" s="14"/>
       <c r="P172" s="14"/>
@@ -7637,7 +7740,7 @@
       <c r="AD172" s="14"/>
       <c r="AE172" s="14"/>
     </row>
-    <row r="173" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="O173" s="14"/>
       <c r="P173" s="14"/>
@@ -7657,7 +7760,7 @@
       <c r="AD173" s="14"/>
       <c r="AE173" s="14"/>
     </row>
-    <row r="174" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="O174" s="14"/>
       <c r="P174" s="14"/>
@@ -7677,7 +7780,7 @@
       <c r="AD174" s="14"/>
       <c r="AE174" s="14"/>
     </row>
-    <row r="175" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="O175" s="14"/>
       <c r="P175" s="14"/>
@@ -7697,7 +7800,7 @@
       <c r="AD175" s="14"/>
       <c r="AE175" s="14"/>
     </row>
-    <row r="176" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="O176" s="14"/>
       <c r="P176" s="14"/>
@@ -7717,7 +7820,7 @@
       <c r="AD176" s="14"/>
       <c r="AE176" s="14"/>
     </row>
-    <row r="177" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="O177" s="14"/>
       <c r="P177" s="14"/>
@@ -7737,7 +7840,7 @@
       <c r="AD177" s="14"/>
       <c r="AE177" s="14"/>
     </row>
-    <row r="178" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="O178" s="14"/>
       <c r="P178" s="14"/>
@@ -7757,7 +7860,7 @@
       <c r="AD178" s="14"/>
       <c r="AE178" s="14"/>
     </row>
-    <row r="179" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="O179" s="14"/>
       <c r="P179" s="14"/>
@@ -7777,7 +7880,7 @@
       <c r="AD179" s="14"/>
       <c r="AE179" s="14"/>
     </row>
-    <row r="180" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="O180" s="14"/>
       <c r="P180" s="14"/>
@@ -7797,7 +7900,7 @@
       <c r="AD180" s="14"/>
       <c r="AE180" s="14"/>
     </row>
-    <row r="181" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="O181" s="14"/>
       <c r="P181" s="14"/>
@@ -7817,7 +7920,7 @@
       <c r="AD181" s="14"/>
       <c r="AE181" s="14"/>
     </row>
-    <row r="182" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="O182" s="14"/>
       <c r="P182" s="14"/>
@@ -7837,7 +7940,7 @@
       <c r="AD182" s="14"/>
       <c r="AE182" s="14"/>
     </row>
-    <row r="183" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="O183" s="14"/>
       <c r="P183" s="14"/>
@@ -7857,7 +7960,7 @@
       <c r="AD183" s="14"/>
       <c r="AE183" s="14"/>
     </row>
-    <row r="184" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="O184" s="14"/>
       <c r="P184" s="14"/>
@@ -7877,7 +7980,7 @@
       <c r="AD184" s="14"/>
       <c r="AE184" s="14"/>
     </row>
-    <row r="185" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="O185" s="14"/>
       <c r="P185" s="14"/>
@@ -7897,7 +8000,7 @@
       <c r="AD185" s="14"/>
       <c r="AE185" s="14"/>
     </row>
-    <row r="186" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="O186" s="14"/>
       <c r="P186" s="14"/>
@@ -7917,7 +8020,7 @@
       <c r="AD186" s="14"/>
       <c r="AE186" s="14"/>
     </row>
-    <row r="187" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="O187" s="14"/>
       <c r="P187" s="14"/>
@@ -7937,7 +8040,7 @@
       <c r="AD187" s="14"/>
       <c r="AE187" s="14"/>
     </row>
-    <row r="188" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="O188" s="14"/>
       <c r="P188" s="14"/>
@@ -7957,7 +8060,7 @@
       <c r="AD188" s="14"/>
       <c r="AE188" s="14"/>
     </row>
-    <row r="189" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="O189" s="14"/>
       <c r="P189" s="14"/>
@@ -7977,7 +8080,7 @@
       <c r="AD189" s="14"/>
       <c r="AE189" s="14"/>
     </row>
-    <row r="190" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="O190" s="14"/>
       <c r="P190" s="14"/>
@@ -7997,7 +8100,7 @@
       <c r="AD190" s="14"/>
       <c r="AE190" s="14"/>
     </row>
-    <row r="191" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="O191" s="14"/>
       <c r="P191" s="14"/>
@@ -8017,7 +8120,7 @@
       <c r="AD191" s="14"/>
       <c r="AE191" s="14"/>
     </row>
-    <row r="192" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="O192" s="14"/>
       <c r="P192" s="14"/>
@@ -8037,7 +8140,7 @@
       <c r="AD192" s="14"/>
       <c r="AE192" s="14"/>
     </row>
-    <row r="193" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="O193" s="14"/>
       <c r="P193" s="14"/>
@@ -8057,7 +8160,7 @@
       <c r="AD193" s="14"/>
       <c r="AE193" s="14"/>
     </row>
-    <row r="194" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="O194" s="14"/>
       <c r="P194" s="14"/>
@@ -8077,7 +8180,7 @@
       <c r="AD194" s="14"/>
       <c r="AE194" s="14"/>
     </row>
-    <row r="195" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="O195" s="14"/>
       <c r="P195" s="14"/>
@@ -8097,7 +8200,7 @@
       <c r="AD195" s="14"/>
       <c r="AE195" s="14"/>
     </row>
-    <row r="196" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="O196" s="14"/>
       <c r="P196" s="14"/>
@@ -8117,7 +8220,7 @@
       <c r="AD196" s="14"/>
       <c r="AE196" s="14"/>
     </row>
-    <row r="197" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="O197" s="14"/>
       <c r="P197" s="14"/>
@@ -8137,7 +8240,7 @@
       <c r="AD197" s="14"/>
       <c r="AE197" s="14"/>
     </row>
-    <row r="198" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="O198" s="14"/>
       <c r="P198" s="14"/>
@@ -8157,7 +8260,7 @@
       <c r="AD198" s="14"/>
       <c r="AE198" s="14"/>
     </row>
-    <row r="199" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="O199" s="14"/>
       <c r="P199" s="14"/>
@@ -8177,7 +8280,7 @@
       <c r="AD199" s="14"/>
       <c r="AE199" s="14"/>
     </row>
-    <row r="200" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="O200" s="14"/>
       <c r="P200" s="14"/>
@@ -8197,7 +8300,7 @@
       <c r="AD200" s="14"/>
       <c r="AE200" s="14"/>
     </row>
-    <row r="201" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="O201" s="14"/>
       <c r="P201" s="14"/>
@@ -8217,7 +8320,7 @@
       <c r="AD201" s="14"/>
       <c r="AE201" s="14"/>
     </row>
-    <row r="202" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="O202" s="14"/>
       <c r="P202" s="14"/>
@@ -8237,7 +8340,7 @@
       <c r="AD202" s="14"/>
       <c r="AE202" s="14"/>
     </row>
-    <row r="203" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="O203" s="14"/>
       <c r="P203" s="14"/>
@@ -8257,7 +8360,7 @@
       <c r="AD203" s="14"/>
       <c r="AE203" s="14"/>
     </row>
-    <row r="204" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="O204" s="14"/>
       <c r="P204" s="14"/>
@@ -8277,7 +8380,7 @@
       <c r="AD204" s="14"/>
       <c r="AE204" s="14"/>
     </row>
-    <row r="205" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="O205" s="14"/>
       <c r="P205" s="14"/>
@@ -8297,7 +8400,7 @@
       <c r="AD205" s="14"/>
       <c r="AE205" s="14"/>
     </row>
-    <row r="206" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="O206" s="14"/>
       <c r="P206" s="14"/>
@@ -8317,7 +8420,7 @@
       <c r="AD206" s="14"/>
       <c r="AE206" s="14"/>
     </row>
-    <row r="207" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="O207" s="14"/>
       <c r="P207" s="14"/>
@@ -8337,7 +8440,7 @@
       <c r="AD207" s="14"/>
       <c r="AE207" s="14"/>
     </row>
-    <row r="208" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="O208" s="14"/>
       <c r="P208" s="14"/>
@@ -8357,7 +8460,7 @@
       <c r="AD208" s="14"/>
       <c r="AE208" s="14"/>
     </row>
-    <row r="209" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="O209" s="14"/>
       <c r="P209" s="14"/>
@@ -8377,7 +8480,7 @@
       <c r="AD209" s="14"/>
       <c r="AE209" s="14"/>
     </row>
-    <row r="210" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="O210" s="14"/>
       <c r="P210" s="14"/>
@@ -8397,7 +8500,7 @@
       <c r="AD210" s="14"/>
       <c r="AE210" s="14"/>
     </row>
-    <row r="211" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="O211" s="14"/>
       <c r="P211" s="14"/>
@@ -8417,7 +8520,7 @@
       <c r="AD211" s="14"/>
       <c r="AE211" s="14"/>
     </row>
-    <row r="212" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="O212" s="14"/>
       <c r="P212" s="14"/>
@@ -8437,7 +8540,7 @@
       <c r="AD212" s="14"/>
       <c r="AE212" s="14"/>
     </row>
-    <row r="213" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="O213" s="14"/>
       <c r="P213" s="14"/>
@@ -8457,7 +8560,7 @@
       <c r="AD213" s="14"/>
       <c r="AE213" s="14"/>
     </row>
-    <row r="214" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="O214" s="14"/>
       <c r="P214" s="14"/>
@@ -8477,7 +8580,7 @@
       <c r="AD214" s="14"/>
       <c r="AE214" s="14"/>
     </row>
-    <row r="215" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="O215" s="14"/>
       <c r="P215" s="14"/>
@@ -8497,7 +8600,7 @@
       <c r="AD215" s="14"/>
       <c r="AE215" s="14"/>
     </row>
-    <row r="216" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="O216" s="14"/>
       <c r="P216" s="14"/>
@@ -8517,7 +8620,7 @@
       <c r="AD216" s="14"/>
       <c r="AE216" s="14"/>
     </row>
-    <row r="217" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="O217" s="14"/>
       <c r="P217" s="14"/>
@@ -8537,7 +8640,7 @@
       <c r="AD217" s="14"/>
       <c r="AE217" s="14"/>
     </row>
-    <row r="218" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="O218" s="14"/>
       <c r="P218" s="14"/>
@@ -8557,7 +8660,7 @@
       <c r="AD218" s="14"/>
       <c r="AE218" s="14"/>
     </row>
-    <row r="219" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="O219" s="14"/>
       <c r="P219" s="14"/>
@@ -8577,7 +8680,7 @@
       <c r="AD219" s="14"/>
       <c r="AE219" s="14"/>
     </row>
-    <row r="220" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="O220" s="14"/>
       <c r="P220" s="14"/>
@@ -8597,7 +8700,7 @@
       <c r="AD220" s="14"/>
       <c r="AE220" s="14"/>
     </row>
-    <row r="221" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="O221" s="14"/>
       <c r="P221" s="14"/>
@@ -8617,7 +8720,7 @@
       <c r="AD221" s="14"/>
       <c r="AE221" s="14"/>
     </row>
-    <row r="222" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="O222" s="14"/>
       <c r="P222" s="14"/>
@@ -8637,7 +8740,7 @@
       <c r="AD222" s="14"/>
       <c r="AE222" s="14"/>
     </row>
-    <row r="223" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="O223" s="14"/>
       <c r="P223" s="14"/>
@@ -8657,7 +8760,7 @@
       <c r="AD223" s="14"/>
       <c r="AE223" s="14"/>
     </row>
-    <row r="224" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="O224" s="14"/>
       <c r="P224" s="14"/>
@@ -8677,7 +8780,7 @@
       <c r="AD224" s="14"/>
       <c r="AE224" s="14"/>
     </row>
-    <row r="225" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="O225" s="14"/>
       <c r="P225" s="14"/>
@@ -8697,7 +8800,7 @@
       <c r="AD225" s="14"/>
       <c r="AE225" s="14"/>
     </row>
-    <row r="226" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="O226" s="14"/>
       <c r="P226" s="14"/>
@@ -8717,7 +8820,7 @@
       <c r="AD226" s="14"/>
       <c r="AE226" s="14"/>
     </row>
-    <row r="227" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="O227" s="14"/>
       <c r="P227" s="14"/>
@@ -8737,7 +8840,7 @@
       <c r="AD227" s="14"/>
       <c r="AE227" s="14"/>
     </row>
-    <row r="228" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="O228" s="14"/>
       <c r="P228" s="14"/>
@@ -8757,7 +8860,7 @@
       <c r="AD228" s="14"/>
       <c r="AE228" s="14"/>
     </row>
-    <row r="229" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="O229" s="14"/>
       <c r="P229" s="14"/>
@@ -8777,7 +8880,7 @@
       <c r="AD229" s="14"/>
       <c r="AE229" s="14"/>
     </row>
-    <row r="230" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="O230" s="14"/>
       <c r="P230" s="14"/>
@@ -8797,7 +8900,7 @@
       <c r="AD230" s="14"/>
       <c r="AE230" s="14"/>
     </row>
-    <row r="231" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="O231" s="14"/>
       <c r="P231" s="14"/>
@@ -8817,7 +8920,7 @@
       <c r="AD231" s="14"/>
       <c r="AE231" s="14"/>
     </row>
-    <row r="232" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="O232" s="14"/>
       <c r="P232" s="14"/>
@@ -8837,7 +8940,7 @@
       <c r="AD232" s="14"/>
       <c r="AE232" s="14"/>
     </row>
-    <row r="233" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="O233" s="14"/>
       <c r="P233" s="14"/>
@@ -8857,7 +8960,7 @@
       <c r="AD233" s="14"/>
       <c r="AE233" s="14"/>
     </row>
-    <row r="234" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="O234" s="14"/>
       <c r="P234" s="14"/>
@@ -8877,7 +8980,7 @@
       <c r="AD234" s="14"/>
       <c r="AE234" s="14"/>
     </row>
-    <row r="235" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="O235" s="14"/>
       <c r="P235" s="14"/>
@@ -8897,7 +9000,7 @@
       <c r="AD235" s="14"/>
       <c r="AE235" s="14"/>
     </row>
-    <row r="236" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="O236" s="14"/>
       <c r="P236" s="14"/>
@@ -8917,7 +9020,7 @@
       <c r="AD236" s="14"/>
       <c r="AE236" s="14"/>
     </row>
-    <row r="237" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="O237" s="14"/>
       <c r="P237" s="14"/>
@@ -8937,7 +9040,7 @@
       <c r="AD237" s="14"/>
       <c r="AE237" s="14"/>
     </row>
-    <row r="238" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="O238" s="14"/>
       <c r="P238" s="14"/>
@@ -8957,7 +9060,7 @@
       <c r="AD238" s="14"/>
       <c r="AE238" s="14"/>
     </row>
-    <row r="239" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="O239" s="14"/>
       <c r="P239" s="14"/>
@@ -8977,7 +9080,7 @@
       <c r="AD239" s="14"/>
       <c r="AE239" s="14"/>
     </row>
-    <row r="240" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="O240" s="14"/>
       <c r="P240" s="14"/>
@@ -8997,7 +9100,7 @@
       <c r="AD240" s="14"/>
       <c r="AE240" s="14"/>
     </row>
-    <row r="241" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="O241" s="14"/>
       <c r="P241" s="14"/>
@@ -9017,7 +9120,7 @@
       <c r="AD241" s="14"/>
       <c r="AE241" s="14"/>
     </row>
-    <row r="242" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="O242" s="14"/>
       <c r="P242" s="14"/>
@@ -9037,7 +9140,7 @@
       <c r="AD242" s="14"/>
       <c r="AE242" s="14"/>
     </row>
-    <row r="243" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="O243" s="14"/>
       <c r="P243" s="14"/>
@@ -9057,7 +9160,7 @@
       <c r="AD243" s="14"/>
       <c r="AE243" s="14"/>
     </row>
-    <row r="244" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="O244" s="14"/>
       <c r="P244" s="14"/>
@@ -9077,7 +9180,7 @@
       <c r="AD244" s="14"/>
       <c r="AE244" s="14"/>
     </row>
-    <row r="245" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="O245" s="14"/>
       <c r="P245" s="14"/>
@@ -9097,7 +9200,7 @@
       <c r="AD245" s="14"/>
       <c r="AE245" s="14"/>
     </row>
-    <row r="246" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="O246" s="14"/>
       <c r="P246" s="14"/>
@@ -9117,7 +9220,7 @@
       <c r="AD246" s="14"/>
       <c r="AE246" s="14"/>
     </row>
-    <row r="247" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="O247" s="14"/>
       <c r="P247" s="14"/>
@@ -9137,7 +9240,7 @@
       <c r="AD247" s="14"/>
       <c r="AE247" s="14"/>
     </row>
-    <row r="248" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="O248" s="14"/>
       <c r="P248" s="14"/>
@@ -9157,7 +9260,7 @@
       <c r="AD248" s="14"/>
       <c r="AE248" s="14"/>
     </row>
-    <row r="249" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="O249" s="14"/>
       <c r="P249" s="14"/>
@@ -9177,7 +9280,7 @@
       <c r="AD249" s="14"/>
       <c r="AE249" s="14"/>
     </row>
-    <row r="250" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="O250" s="14"/>
       <c r="P250" s="14"/>
@@ -9197,7 +9300,7 @@
       <c r="AD250" s="14"/>
       <c r="AE250" s="14"/>
     </row>
-    <row r="251" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="O251" s="14"/>
       <c r="P251" s="14"/>
@@ -9217,7 +9320,7 @@
       <c r="AD251" s="14"/>
       <c r="AE251" s="14"/>
     </row>
-    <row r="252" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="O252" s="14"/>
       <c r="P252" s="14"/>
@@ -9237,7 +9340,7 @@
       <c r="AD252" s="14"/>
       <c r="AE252" s="14"/>
     </row>
-    <row r="253" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
@@ -9257,7 +9360,7 @@
       <c r="AD253" s="14"/>
       <c r="AE253" s="14"/>
     </row>
-    <row r="254" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="O254" s="14"/>
       <c r="P254" s="14"/>
@@ -9277,7 +9380,7 @@
       <c r="AD254" s="14"/>
       <c r="AE254" s="14"/>
     </row>
-    <row r="255" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="O255" s="14"/>
       <c r="P255" s="14"/>
@@ -9297,7 +9400,7 @@
       <c r="AD255" s="14"/>
       <c r="AE255" s="14"/>
     </row>
-    <row r="256" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="O256" s="14"/>
       <c r="P256" s="14"/>
@@ -9317,7 +9420,7 @@
       <c r="AD256" s="14"/>
       <c r="AE256" s="14"/>
     </row>
-    <row r="257" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="O257" s="14"/>
       <c r="P257" s="14"/>
@@ -9337,7 +9440,7 @@
       <c r="AD257" s="14"/>
       <c r="AE257" s="14"/>
     </row>
-    <row r="258" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="O258" s="14"/>
       <c r="P258" s="14"/>
@@ -9357,7 +9460,7 @@
       <c r="AD258" s="14"/>
       <c r="AE258" s="14"/>
     </row>
-    <row r="259" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="O259" s="14"/>
       <c r="P259" s="14"/>
@@ -9377,7 +9480,7 @@
       <c r="AD259" s="14"/>
       <c r="AE259" s="14"/>
     </row>
-    <row r="260" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="O260" s="14"/>
       <c r="P260" s="14"/>
@@ -9397,7 +9500,7 @@
       <c r="AD260" s="14"/>
       <c r="AE260" s="14"/>
     </row>
-    <row r="261" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="O261" s="14"/>
       <c r="P261" s="14"/>
@@ -9417,7 +9520,7 @@
       <c r="AD261" s="14"/>
       <c r="AE261" s="14"/>
     </row>
-    <row r="262" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="O262" s="14"/>
       <c r="P262" s="14"/>
@@ -9437,7 +9540,7 @@
       <c r="AD262" s="14"/>
       <c r="AE262" s="14"/>
     </row>
-    <row r="263" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="O263" s="14"/>
       <c r="P263" s="14"/>
@@ -9457,7 +9560,7 @@
       <c r="AD263" s="14"/>
       <c r="AE263" s="14"/>
     </row>
-    <row r="264" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="O264" s="14"/>
       <c r="P264" s="14"/>
@@ -9477,7 +9580,7 @@
       <c r="AD264" s="14"/>
       <c r="AE264" s="14"/>
     </row>
-    <row r="265" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="O265" s="14"/>
       <c r="P265" s="14"/>
@@ -9497,7 +9600,7 @@
       <c r="AD265" s="14"/>
       <c r="AE265" s="14"/>
     </row>
-    <row r="266" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="O266" s="14"/>
       <c r="P266" s="14"/>
@@ -9517,7 +9620,7 @@
       <c r="AD266" s="14"/>
       <c r="AE266" s="14"/>
     </row>
-    <row r="267" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="O267" s="14"/>
       <c r="P267" s="14"/>
@@ -9537,7 +9640,7 @@
       <c r="AD267" s="14"/>
       <c r="AE267" s="14"/>
     </row>
-    <row r="268" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="O268" s="14"/>
       <c r="P268" s="14"/>
@@ -9557,7 +9660,7 @@
       <c r="AD268" s="14"/>
       <c r="AE268" s="14"/>
     </row>
-    <row r="269" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="O269" s="14"/>
       <c r="P269" s="14"/>
@@ -9577,7 +9680,7 @@
       <c r="AD269" s="14"/>
       <c r="AE269" s="14"/>
     </row>
-    <row r="270" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="O270" s="14"/>
       <c r="P270" s="14"/>
@@ -9597,7 +9700,7 @@
       <c r="AD270" s="14"/>
       <c r="AE270" s="14"/>
     </row>
-    <row r="271" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="O271" s="14"/>
       <c r="P271" s="14"/>
@@ -9617,7 +9720,7 @@
       <c r="AD271" s="14"/>
       <c r="AE271" s="14"/>
     </row>
-    <row r="272" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="O272" s="14"/>
       <c r="P272" s="14"/>
@@ -9637,7 +9740,7 @@
       <c r="AD272" s="14"/>
       <c r="AE272" s="14"/>
     </row>
-    <row r="273" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="O273" s="14"/>
       <c r="P273" s="14"/>
@@ -9657,7 +9760,7 @@
       <c r="AD273" s="14"/>
       <c r="AE273" s="14"/>
     </row>
-    <row r="274" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="O274" s="14"/>
       <c r="P274" s="14"/>
@@ -9677,7 +9780,7 @@
       <c r="AD274" s="14"/>
       <c r="AE274" s="14"/>
     </row>
-    <row r="275" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="O275" s="14"/>
       <c r="P275" s="14"/>
@@ -9697,7 +9800,7 @@
       <c r="AD275" s="14"/>
       <c r="AE275" s="14"/>
     </row>
-    <row r="276" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="O276" s="14"/>
       <c r="P276" s="14"/>
@@ -9717,7 +9820,7 @@
       <c r="AD276" s="14"/>
       <c r="AE276" s="14"/>
     </row>
-    <row r="277" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="O277" s="14"/>
       <c r="P277" s="14"/>
@@ -9737,7 +9840,7 @@
       <c r="AD277" s="14"/>
       <c r="AE277" s="14"/>
     </row>
-    <row r="278" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="O278" s="14"/>
       <c r="P278" s="14"/>
@@ -9757,7 +9860,7 @@
       <c r="AD278" s="14"/>
       <c r="AE278" s="14"/>
     </row>
-    <row r="279" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="O279" s="14"/>
       <c r="P279" s="14"/>
@@ -9777,7 +9880,7 @@
       <c r="AD279" s="14"/>
       <c r="AE279" s="14"/>
     </row>
-    <row r="280" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="O280" s="14"/>
       <c r="P280" s="14"/>
@@ -9797,7 +9900,7 @@
       <c r="AD280" s="14"/>
       <c r="AE280" s="14"/>
     </row>
-    <row r="281" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="O281" s="14"/>
       <c r="P281" s="14"/>
@@ -9817,7 +9920,7 @@
       <c r="AD281" s="14"/>
       <c r="AE281" s="14"/>
     </row>
-    <row r="282" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="O282" s="14"/>
       <c r="P282" s="14"/>
@@ -9837,7 +9940,7 @@
       <c r="AD282" s="14"/>
       <c r="AE282" s="14"/>
     </row>
-    <row r="283" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="O283" s="14"/>
       <c r="P283" s="14"/>
@@ -9857,7 +9960,7 @@
       <c r="AD283" s="14"/>
       <c r="AE283" s="14"/>
     </row>
-    <row r="284" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="O284" s="14"/>
       <c r="P284" s="14"/>
@@ -9877,7 +9980,7 @@
       <c r="AD284" s="14"/>
       <c r="AE284" s="14"/>
     </row>
-    <row r="285" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="O285" s="14"/>
       <c r="P285" s="14"/>
@@ -9897,7 +10000,7 @@
       <c r="AD285" s="14"/>
       <c r="AE285" s="14"/>
     </row>
-    <row r="286" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="O286" s="14"/>
       <c r="P286" s="14"/>
@@ -9917,7 +10020,7 @@
       <c r="AD286" s="14"/>
       <c r="AE286" s="14"/>
     </row>
-    <row r="287" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="O287" s="14"/>
       <c r="P287" s="14"/>
@@ -9937,7 +10040,7 @@
       <c r="AD287" s="14"/>
       <c r="AE287" s="14"/>
     </row>
-    <row r="288" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="O288" s="14"/>
       <c r="P288" s="14"/>
@@ -9957,7 +10060,7 @@
       <c r="AD288" s="14"/>
       <c r="AE288" s="14"/>
     </row>
-    <row r="289" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="O289" s="14"/>
       <c r="P289" s="14"/>
@@ -9977,7 +10080,7 @@
       <c r="AD289" s="14"/>
       <c r="AE289" s="14"/>
     </row>
-    <row r="290" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6"/>
       <c r="O290" s="14"/>
       <c r="P290" s="14"/>
@@ -9997,7 +10100,7 @@
       <c r="AD290" s="14"/>
       <c r="AE290" s="14"/>
     </row>
-    <row r="291" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6"/>
       <c r="O291" s="14"/>
       <c r="P291" s="14"/>
@@ -10017,7 +10120,7 @@
       <c r="AD291" s="14"/>
       <c r="AE291" s="14"/>
     </row>
-    <row r="292" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6"/>
       <c r="O292" s="14"/>
       <c r="P292" s="14"/>
@@ -10037,7 +10140,7 @@
       <c r="AD292" s="14"/>
       <c r="AE292" s="14"/>
     </row>
-    <row r="293" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6"/>
       <c r="O293" s="14"/>
       <c r="P293" s="14"/>
@@ -10057,7 +10160,7 @@
       <c r="AD293" s="14"/>
       <c r="AE293" s="14"/>
     </row>
-    <row r="294" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6"/>
       <c r="O294" s="14"/>
       <c r="P294" s="14"/>
@@ -10077,7 +10180,7 @@
       <c r="AD294" s="14"/>
       <c r="AE294" s="14"/>
     </row>
-    <row r="295" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6"/>
       <c r="O295" s="14"/>
       <c r="P295" s="14"/>
@@ -10097,7 +10200,7 @@
       <c r="AD295" s="14"/>
       <c r="AE295" s="14"/>
     </row>
-    <row r="296" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="O296" s="14"/>
       <c r="P296" s="14"/>
@@ -10117,7 +10220,7 @@
       <c r="AD296" s="14"/>
       <c r="AE296" s="14"/>
     </row>
-    <row r="297" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="O297" s="14"/>
       <c r="P297" s="14"/>
@@ -10137,7 +10240,7 @@
       <c r="AD297" s="14"/>
       <c r="AE297" s="14"/>
     </row>
-    <row r="298" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6"/>
       <c r="O298" s="14"/>
       <c r="P298" s="14"/>
@@ -10157,7 +10260,7 @@
       <c r="AD298" s="14"/>
       <c r="AE298" s="14"/>
     </row>
-    <row r="299" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6"/>
       <c r="O299" s="14"/>
       <c r="P299" s="14"/>
@@ -10177,7 +10280,7 @@
       <c r="AD299" s="14"/>
       <c r="AE299" s="14"/>
     </row>
-    <row r="300" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6"/>
       <c r="O300" s="14"/>
       <c r="P300" s="14"/>
@@ -10197,7 +10300,7 @@
       <c r="AD300" s="14"/>
       <c r="AE300" s="14"/>
     </row>
-    <row r="301" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6"/>
       <c r="O301" s="14"/>
       <c r="P301" s="14"/>
@@ -10217,7 +10320,7 @@
       <c r="AD301" s="14"/>
       <c r="AE301" s="14"/>
     </row>
-    <row r="302" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6"/>
       <c r="O302" s="14"/>
       <c r="P302" s="14"/>
@@ -10237,7 +10340,7 @@
       <c r="AD302" s="14"/>
       <c r="AE302" s="14"/>
     </row>
-    <row r="303" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6"/>
       <c r="O303" s="14"/>
       <c r="P303" s="14"/>
@@ -10257,7 +10360,7 @@
       <c r="AD303" s="14"/>
       <c r="AE303" s="14"/>
     </row>
-    <row r="304" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6"/>
       <c r="O304" s="14"/>
       <c r="P304" s="14"/>
@@ -10277,7 +10380,7 @@
       <c r="AD304" s="14"/>
       <c r="AE304" s="14"/>
     </row>
-    <row r="305" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6"/>
       <c r="O305" s="14"/>
       <c r="P305" s="14"/>
@@ -10297,7 +10400,7 @@
       <c r="AD305" s="14"/>
       <c r="AE305" s="14"/>
     </row>
-    <row r="306" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6"/>
       <c r="O306" s="14"/>
       <c r="P306" s="14"/>
@@ -10317,7 +10420,7 @@
       <c r="AD306" s="14"/>
       <c r="AE306" s="14"/>
     </row>
-    <row r="307" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6"/>
       <c r="O307" s="14"/>
       <c r="P307" s="14"/>
@@ -10337,7 +10440,7 @@
       <c r="AD307" s="14"/>
       <c r="AE307" s="14"/>
     </row>
-    <row r="308" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="O308" s="14"/>
       <c r="P308" s="14"/>
@@ -10357,7 +10460,7 @@
       <c r="AD308" s="14"/>
       <c r="AE308" s="14"/>
     </row>
-    <row r="309" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6"/>
       <c r="O309" s="14"/>
       <c r="P309" s="14"/>
@@ -10377,7 +10480,7 @@
       <c r="AD309" s="14"/>
       <c r="AE309" s="14"/>
     </row>
-    <row r="310" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6"/>
       <c r="O310" s="14"/>
       <c r="P310" s="14"/>
@@ -10397,7 +10500,7 @@
       <c r="AD310" s="14"/>
       <c r="AE310" s="14"/>
     </row>
-    <row r="311" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6"/>
       <c r="O311" s="14"/>
       <c r="P311" s="14"/>
@@ -10417,7 +10520,7 @@
       <c r="AD311" s="14"/>
       <c r="AE311" s="14"/>
     </row>
-    <row r="312" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6"/>
       <c r="O312" s="14"/>
       <c r="P312" s="14"/>
@@ -10437,7 +10540,7 @@
       <c r="AD312" s="14"/>
       <c r="AE312" s="14"/>
     </row>
-    <row r="313" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6"/>
       <c r="O313" s="14"/>
       <c r="P313" s="14"/>
@@ -10457,7 +10560,7 @@
       <c r="AD313" s="14"/>
       <c r="AE313" s="14"/>
     </row>
-    <row r="314" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6"/>
       <c r="O314" s="14"/>
       <c r="P314" s="14"/>
@@ -10477,7 +10580,7 @@
       <c r="AD314" s="14"/>
       <c r="AE314" s="14"/>
     </row>
-    <row r="315" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6"/>
       <c r="O315" s="14"/>
       <c r="P315" s="14"/>
@@ -10497,7 +10600,7 @@
       <c r="AD315" s="14"/>
       <c r="AE315" s="14"/>
     </row>
-    <row r="316" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6"/>
       <c r="O316" s="14"/>
       <c r="P316" s="14"/>
@@ -10517,7 +10620,7 @@
       <c r="AD316" s="14"/>
       <c r="AE316" s="14"/>
     </row>
-    <row r="317" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6"/>
       <c r="O317" s="14"/>
       <c r="P317" s="14"/>
@@ -10537,7 +10640,7 @@
       <c r="AD317" s="14"/>
       <c r="AE317" s="14"/>
     </row>
-    <row r="318" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="O318" s="14"/>
       <c r="P318" s="14"/>
@@ -10557,7 +10660,7 @@
       <c r="AD318" s="14"/>
       <c r="AE318" s="14"/>
     </row>
-    <row r="319" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="O319" s="14"/>
       <c r="P319" s="14"/>
@@ -10577,7 +10680,7 @@
       <c r="AD319" s="14"/>
       <c r="AE319" s="14"/>
     </row>
-    <row r="320" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6"/>
       <c r="O320" s="14"/>
       <c r="P320" s="14"/>
@@ -10597,7 +10700,7 @@
       <c r="AD320" s="14"/>
       <c r="AE320" s="14"/>
     </row>
-    <row r="321" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="O321" s="14"/>
       <c r="P321" s="14"/>
@@ -10617,7 +10720,7 @@
       <c r="AD321" s="14"/>
       <c r="AE321" s="14"/>
     </row>
-    <row r="322" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="O322" s="14"/>
       <c r="P322" s="14"/>
@@ -10637,7 +10740,7 @@
       <c r="AD322" s="14"/>
       <c r="AE322" s="14"/>
     </row>
-    <row r="323" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6"/>
       <c r="O323" s="14"/>
       <c r="P323" s="14"/>
@@ -10657,7 +10760,7 @@
       <c r="AD323" s="14"/>
       <c r="AE323" s="14"/>
     </row>
-    <row r="324" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="6"/>
       <c r="O324" s="14"/>
       <c r="P324" s="14"/>
@@ -10677,7 +10780,7 @@
       <c r="AD324" s="14"/>
       <c r="AE324" s="14"/>
     </row>
-    <row r="325" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6"/>
       <c r="O325" s="14"/>
       <c r="P325" s="14"/>
@@ -10697,7 +10800,7 @@
       <c r="AD325" s="14"/>
       <c r="AE325" s="14"/>
     </row>
-    <row r="326" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6"/>
       <c r="O326" s="14"/>
       <c r="P326" s="14"/>
@@ -10717,7 +10820,7 @@
       <c r="AD326" s="14"/>
       <c r="AE326" s="14"/>
     </row>
-    <row r="327" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6"/>
       <c r="O327" s="14"/>
       <c r="P327" s="14"/>
@@ -10737,7 +10840,7 @@
       <c r="AD327" s="14"/>
       <c r="AE327" s="14"/>
     </row>
-    <row r="328" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6"/>
       <c r="O328" s="14"/>
       <c r="P328" s="14"/>
@@ -10757,7 +10860,7 @@
       <c r="AD328" s="14"/>
       <c r="AE328" s="14"/>
     </row>
-    <row r="329" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="O329" s="14"/>
       <c r="P329" s="14"/>
@@ -10777,7 +10880,7 @@
       <c r="AD329" s="14"/>
       <c r="AE329" s="14"/>
     </row>
-    <row r="330" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="O330" s="14"/>
       <c r="P330" s="14"/>
@@ -10797,7 +10900,7 @@
       <c r="AD330" s="14"/>
       <c r="AE330" s="14"/>
     </row>
-    <row r="331" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
       <c r="O331" s="14"/>
       <c r="P331" s="14"/>
@@ -10817,7 +10920,7 @@
       <c r="AD331" s="14"/>
       <c r="AE331" s="14"/>
     </row>
-    <row r="332" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6"/>
       <c r="O332" s="14"/>
       <c r="P332" s="14"/>
@@ -10837,7 +10940,7 @@
       <c r="AD332" s="14"/>
       <c r="AE332" s="14"/>
     </row>
-    <row r="333" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6"/>
       <c r="O333" s="14"/>
       <c r="P333" s="14"/>
@@ -10857,7 +10960,7 @@
       <c r="AD333" s="14"/>
       <c r="AE333" s="14"/>
     </row>
-    <row r="334" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6"/>
       <c r="O334" s="14"/>
       <c r="P334" s="14"/>
@@ -10877,7 +10980,7 @@
       <c r="AD334" s="14"/>
       <c r="AE334" s="14"/>
     </row>
-    <row r="335" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6"/>
       <c r="O335" s="14"/>
       <c r="P335" s="14"/>
@@ -10897,7 +11000,7 @@
       <c r="AD335" s="14"/>
       <c r="AE335" s="14"/>
     </row>
-    <row r="336" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6"/>
       <c r="O336" s="14"/>
       <c r="P336" s="14"/>
@@ -10917,7 +11020,7 @@
       <c r="AD336" s="14"/>
       <c r="AE336" s="14"/>
     </row>
-    <row r="337" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6"/>
       <c r="O337" s="14"/>
       <c r="P337" s="14"/>
@@ -10937,7 +11040,7 @@
       <c r="AD337" s="14"/>
       <c r="AE337" s="14"/>
     </row>
-    <row r="338" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6"/>
       <c r="O338" s="14"/>
       <c r="P338" s="14"/>
@@ -10957,7 +11060,7 @@
       <c r="AD338" s="14"/>
       <c r="AE338" s="14"/>
     </row>
-    <row r="339" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6"/>
       <c r="O339" s="14"/>
       <c r="P339" s="14"/>
@@ -10977,7 +11080,7 @@
       <c r="AD339" s="14"/>
       <c r="AE339" s="14"/>
     </row>
-    <row r="340" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6"/>
       <c r="O340" s="14"/>
       <c r="P340" s="14"/>
@@ -10997,7 +11100,7 @@
       <c r="AD340" s="14"/>
       <c r="AE340" s="14"/>
     </row>
-    <row r="341" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
       <c r="O341" s="14"/>
       <c r="P341" s="14"/>
@@ -11017,7 +11120,7 @@
       <c r="AD341" s="14"/>
       <c r="AE341" s="14"/>
     </row>
-    <row r="342" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6"/>
       <c r="O342" s="14"/>
       <c r="P342" s="14"/>
@@ -11037,7 +11140,7 @@
       <c r="AD342" s="14"/>
       <c r="AE342" s="14"/>
     </row>
-    <row r="343" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6"/>
       <c r="O343" s="14"/>
       <c r="P343" s="14"/>
@@ -11057,7 +11160,7 @@
       <c r="AD343" s="14"/>
       <c r="AE343" s="14"/>
     </row>
-    <row r="344" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6"/>
       <c r="O344" s="14"/>
       <c r="P344" s="14"/>
@@ -11077,7 +11180,7 @@
       <c r="AD344" s="14"/>
       <c r="AE344" s="14"/>
     </row>
-    <row r="345" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6"/>
       <c r="O345" s="14"/>
       <c r="P345" s="14"/>
@@ -11097,7 +11200,7 @@
       <c r="AD345" s="14"/>
       <c r="AE345" s="14"/>
     </row>
-    <row r="346" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6"/>
       <c r="O346" s="14"/>
       <c r="P346" s="14"/>
@@ -11117,7 +11220,7 @@
       <c r="AD346" s="14"/>
       <c r="AE346" s="14"/>
     </row>
-    <row r="347" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6"/>
       <c r="O347" s="14"/>
       <c r="P347" s="14"/>
@@ -11137,7 +11240,7 @@
       <c r="AD347" s="14"/>
       <c r="AE347" s="14"/>
     </row>
-    <row r="348" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6"/>
       <c r="O348" s="14"/>
       <c r="P348" s="14"/>
@@ -11157,7 +11260,7 @@
       <c r="AD348" s="14"/>
       <c r="AE348" s="14"/>
     </row>
-    <row r="349" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6"/>
       <c r="O349" s="14"/>
       <c r="P349" s="14"/>
@@ -11177,7 +11280,7 @@
       <c r="AD349" s="14"/>
       <c r="AE349" s="14"/>
     </row>
-    <row r="350" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6"/>
       <c r="O350" s="14"/>
       <c r="P350" s="14"/>
@@ -11197,7 +11300,7 @@
       <c r="AD350" s="14"/>
       <c r="AE350" s="14"/>
     </row>
-    <row r="351" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6"/>
       <c r="O351" s="14"/>
       <c r="P351" s="14"/>
@@ -11217,7 +11320,7 @@
       <c r="AD351" s="14"/>
       <c r="AE351" s="14"/>
     </row>
-    <row r="352" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6"/>
       <c r="O352" s="14"/>
       <c r="P352" s="14"/>
@@ -11237,7 +11340,7 @@
       <c r="AD352" s="14"/>
       <c r="AE352" s="14"/>
     </row>
-    <row r="353" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6"/>
       <c r="O353" s="14"/>
       <c r="P353" s="14"/>
@@ -11257,7 +11360,7 @@
       <c r="AD353" s="14"/>
       <c r="AE353" s="14"/>
     </row>
-    <row r="354" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="6"/>
       <c r="O354" s="14"/>
       <c r="P354" s="14"/>
@@ -11277,7 +11380,7 @@
       <c r="AD354" s="14"/>
       <c r="AE354" s="14"/>
     </row>
-    <row r="355" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6"/>
       <c r="O355" s="14"/>
       <c r="P355" s="14"/>
@@ -11297,7 +11400,7 @@
       <c r="AD355" s="14"/>
       <c r="AE355" s="14"/>
     </row>
-    <row r="356" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6"/>
       <c r="O356" s="14"/>
       <c r="P356" s="14"/>
@@ -11317,7 +11420,7 @@
       <c r="AD356" s="14"/>
       <c r="AE356" s="14"/>
     </row>
-    <row r="357" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6"/>
       <c r="O357" s="14"/>
       <c r="P357" s="14"/>
@@ -11337,7 +11440,7 @@
       <c r="AD357" s="14"/>
       <c r="AE357" s="14"/>
     </row>
-    <row r="358" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6"/>
       <c r="O358" s="14"/>
       <c r="P358" s="14"/>
@@ -11357,7 +11460,7 @@
       <c r="AD358" s="14"/>
       <c r="AE358" s="14"/>
     </row>
-    <row r="359" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6"/>
       <c r="O359" s="14"/>
       <c r="P359" s="14"/>
@@ -11377,7 +11480,7 @@
       <c r="AD359" s="14"/>
       <c r="AE359" s="14"/>
     </row>
-    <row r="360" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6"/>
       <c r="O360" s="14"/>
       <c r="P360" s="14"/>
@@ -11397,7 +11500,7 @@
       <c r="AD360" s="14"/>
       <c r="AE360" s="14"/>
     </row>
-    <row r="361" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6"/>
       <c r="O361" s="14"/>
       <c r="P361" s="14"/>
@@ -11417,7 +11520,7 @@
       <c r="AD361" s="14"/>
       <c r="AE361" s="14"/>
     </row>
-    <row r="362" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="6"/>
       <c r="O362" s="14"/>
       <c r="P362" s="14"/>
@@ -11437,7 +11540,7 @@
       <c r="AD362" s="14"/>
       <c r="AE362" s="14"/>
     </row>
-    <row r="363" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="O363" s="14"/>
       <c r="P363" s="14"/>
@@ -11457,7 +11560,7 @@
       <c r="AD363" s="14"/>
       <c r="AE363" s="14"/>
     </row>
-    <row r="364" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="6"/>
       <c r="O364" s="14"/>
       <c r="P364" s="14"/>
@@ -11477,7 +11580,7 @@
       <c r="AD364" s="14"/>
       <c r="AE364" s="14"/>
     </row>
-    <row r="365" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="6"/>
       <c r="O365" s="14"/>
       <c r="P365" s="14"/>
@@ -11497,7 +11600,7 @@
       <c r="AD365" s="14"/>
       <c r="AE365" s="14"/>
     </row>
-    <row r="366" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="6"/>
       <c r="O366" s="14"/>
       <c r="P366" s="14"/>
@@ -11517,7 +11620,7 @@
       <c r="AD366" s="14"/>
       <c r="AE366" s="14"/>
     </row>
-    <row r="367" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6"/>
       <c r="O367" s="14"/>
       <c r="P367" s="14"/>
@@ -11537,7 +11640,7 @@
       <c r="AD367" s="14"/>
       <c r="AE367" s="14"/>
     </row>
-    <row r="368" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="6"/>
       <c r="O368" s="14"/>
       <c r="P368" s="14"/>
@@ -11557,7 +11660,7 @@
       <c r="AD368" s="14"/>
       <c r="AE368" s="14"/>
     </row>
-    <row r="369" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6"/>
       <c r="O369" s="14"/>
       <c r="P369" s="14"/>
@@ -11577,7 +11680,7 @@
       <c r="AD369" s="14"/>
       <c r="AE369" s="14"/>
     </row>
-    <row r="370" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="6"/>
       <c r="O370" s="14"/>
       <c r="P370" s="14"/>
@@ -11597,7 +11700,7 @@
       <c r="AD370" s="14"/>
       <c r="AE370" s="14"/>
     </row>
-    <row r="371" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6"/>
       <c r="O371" s="14"/>
       <c r="P371" s="14"/>
@@ -11617,7 +11720,7 @@
       <c r="AD371" s="14"/>
       <c r="AE371" s="14"/>
     </row>
-    <row r="372" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="6"/>
       <c r="O372" s="14"/>
       <c r="P372" s="14"/>
@@ -11637,7 +11740,7 @@
       <c r="AD372" s="14"/>
       <c r="AE372" s="14"/>
     </row>
-    <row r="373" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6"/>
       <c r="O373" s="14"/>
       <c r="P373" s="14"/>
@@ -11657,7 +11760,7 @@
       <c r="AD373" s="14"/>
       <c r="AE373" s="14"/>
     </row>
-    <row r="374" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6"/>
       <c r="O374" s="14"/>
       <c r="P374" s="14"/>
@@ -11677,7 +11780,7 @@
       <c r="AD374" s="14"/>
       <c r="AE374" s="14"/>
     </row>
-    <row r="375" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6"/>
       <c r="O375" s="14"/>
       <c r="P375" s="14"/>
@@ -11697,7 +11800,7 @@
       <c r="AD375" s="14"/>
       <c r="AE375" s="14"/>
     </row>
-    <row r="376" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6"/>
       <c r="O376" s="14"/>
       <c r="P376" s="14"/>
@@ -11717,7 +11820,7 @@
       <c r="AD376" s="14"/>
       <c r="AE376" s="14"/>
     </row>
-    <row r="377" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6"/>
       <c r="O377" s="14"/>
       <c r="P377" s="14"/>
@@ -11737,7 +11840,7 @@
       <c r="AD377" s="14"/>
       <c r="AE377" s="14"/>
     </row>
-    <row r="378" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6"/>
       <c r="O378" s="14"/>
       <c r="P378" s="14"/>
@@ -11757,7 +11860,7 @@
       <c r="AD378" s="14"/>
       <c r="AE378" s="14"/>
     </row>
-    <row r="379" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6"/>
       <c r="O379" s="14"/>
       <c r="P379" s="14"/>
@@ -11777,7 +11880,7 @@
       <c r="AD379" s="14"/>
       <c r="AE379" s="14"/>
     </row>
-    <row r="380" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6"/>
       <c r="O380" s="14"/>
       <c r="P380" s="14"/>
@@ -11797,7 +11900,7 @@
       <c r="AD380" s="14"/>
       <c r="AE380" s="14"/>
     </row>
-    <row r="381" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6"/>
       <c r="O381" s="14"/>
       <c r="P381" s="14"/>
@@ -11817,7 +11920,7 @@
       <c r="AD381" s="14"/>
       <c r="AE381" s="14"/>
     </row>
-    <row r="382" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6"/>
       <c r="O382" s="14"/>
       <c r="P382" s="14"/>
@@ -11837,7 +11940,7 @@
       <c r="AD382" s="14"/>
       <c r="AE382" s="14"/>
     </row>
-    <row r="383" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6"/>
       <c r="O383" s="14"/>
       <c r="P383" s="14"/>
@@ -11857,7 +11960,7 @@
       <c r="AD383" s="14"/>
       <c r="AE383" s="14"/>
     </row>
-    <row r="384" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6"/>
       <c r="O384" s="14"/>
       <c r="P384" s="14"/>
@@ -11877,7 +11980,7 @@
       <c r="AD384" s="14"/>
       <c r="AE384" s="14"/>
     </row>
-    <row r="385" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
       <c r="O385" s="14"/>
       <c r="P385" s="14"/>
@@ -11897,7 +12000,7 @@
       <c r="AD385" s="14"/>
       <c r="AE385" s="14"/>
     </row>
-    <row r="386" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6"/>
       <c r="O386" s="14"/>
       <c r="P386" s="14"/>
@@ -11917,7 +12020,7 @@
       <c r="AD386" s="14"/>
       <c r="AE386" s="14"/>
     </row>
-    <row r="387" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6"/>
       <c r="O387" s="14"/>
       <c r="P387" s="14"/>
@@ -11937,7 +12040,7 @@
       <c r="AD387" s="14"/>
       <c r="AE387" s="14"/>
     </row>
-    <row r="388" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6"/>
       <c r="O388" s="14"/>
       <c r="P388" s="14"/>
@@ -11957,7 +12060,7 @@
       <c r="AD388" s="14"/>
       <c r="AE388" s="14"/>
     </row>
-    <row r="389" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6"/>
       <c r="O389" s="14"/>
       <c r="P389" s="14"/>
@@ -11977,7 +12080,7 @@
       <c r="AD389" s="14"/>
       <c r="AE389" s="14"/>
     </row>
-    <row r="390" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6"/>
       <c r="O390" s="14"/>
       <c r="P390" s="14"/>
@@ -11997,7 +12100,7 @@
       <c r="AD390" s="14"/>
       <c r="AE390" s="14"/>
     </row>
-    <row r="391" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6"/>
       <c r="O391" s="14"/>
       <c r="P391" s="14"/>
@@ -12017,7 +12120,7 @@
       <c r="AD391" s="14"/>
       <c r="AE391" s="14"/>
     </row>
-    <row r="392" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6"/>
       <c r="O392" s="14"/>
       <c r="P392" s="14"/>
@@ -12037,7 +12140,7 @@
       <c r="AD392" s="14"/>
       <c r="AE392" s="14"/>
     </row>
-    <row r="393" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6"/>
       <c r="O393" s="14"/>
       <c r="P393" s="14"/>
@@ -12057,7 +12160,7 @@
       <c r="AD393" s="14"/>
       <c r="AE393" s="14"/>
     </row>
-    <row r="394" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6"/>
       <c r="O394" s="14"/>
       <c r="P394" s="14"/>
@@ -12077,7 +12180,7 @@
       <c r="AD394" s="14"/>
       <c r="AE394" s="14"/>
     </row>
-    <row r="395" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6"/>
       <c r="O395" s="14"/>
       <c r="P395" s="14"/>
@@ -12097,7 +12200,7 @@
       <c r="AD395" s="14"/>
       <c r="AE395" s="14"/>
     </row>
-    <row r="396" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6"/>
       <c r="O396" s="14"/>
       <c r="P396" s="14"/>
@@ -12117,7 +12220,7 @@
       <c r="AD396" s="14"/>
       <c r="AE396" s="14"/>
     </row>
-    <row r="397" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6"/>
       <c r="O397" s="14"/>
       <c r="P397" s="14"/>
@@ -12137,7 +12240,7 @@
       <c r="AD397" s="14"/>
       <c r="AE397" s="14"/>
     </row>
-    <row r="398" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6"/>
       <c r="O398" s="14"/>
       <c r="P398" s="14"/>
@@ -12157,7 +12260,7 @@
       <c r="AD398" s="14"/>
       <c r="AE398" s="14"/>
     </row>
-    <row r="399" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6"/>
       <c r="O399" s="14"/>
       <c r="P399" s="14"/>
@@ -12177,7 +12280,7 @@
       <c r="AD399" s="14"/>
       <c r="AE399" s="14"/>
     </row>
-    <row r="400" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6"/>
       <c r="O400" s="14"/>
       <c r="P400" s="14"/>
@@ -12197,7 +12300,7 @@
       <c r="AD400" s="14"/>
       <c r="AE400" s="14"/>
     </row>
-    <row r="401" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6"/>
       <c r="O401" s="14"/>
       <c r="P401" s="14"/>
@@ -12217,7 +12320,7 @@
       <c r="AD401" s="14"/>
       <c r="AE401" s="14"/>
     </row>
-    <row r="402" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6"/>
       <c r="O402" s="14"/>
       <c r="P402" s="14"/>
@@ -12237,7 +12340,7 @@
       <c r="AD402" s="14"/>
       <c r="AE402" s="14"/>
     </row>
-    <row r="403" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6"/>
       <c r="O403" s="14"/>
       <c r="P403" s="14"/>
@@ -12257,7 +12360,7 @@
       <c r="AD403" s="14"/>
       <c r="AE403" s="14"/>
     </row>
-    <row r="404" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6"/>
       <c r="O404" s="14"/>
       <c r="P404" s="14"/>
@@ -12277,7 +12380,7 @@
       <c r="AD404" s="14"/>
       <c r="AE404" s="14"/>
     </row>
-    <row r="405" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6"/>
       <c r="O405" s="14"/>
       <c r="P405" s="14"/>
@@ -12297,7 +12400,7 @@
       <c r="AD405" s="14"/>
       <c r="AE405" s="14"/>
     </row>
-    <row r="406" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6"/>
       <c r="O406" s="14"/>
       <c r="P406" s="14"/>
@@ -12317,7 +12420,7 @@
       <c r="AD406" s="14"/>
       <c r="AE406" s="14"/>
     </row>
-    <row r="407" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
       <c r="O407" s="14"/>
       <c r="P407" s="14"/>
@@ -12337,7 +12440,7 @@
       <c r="AD407" s="14"/>
       <c r="AE407" s="14"/>
     </row>
-    <row r="408" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6"/>
       <c r="O408" s="14"/>
       <c r="P408" s="14"/>
@@ -12357,7 +12460,7 @@
       <c r="AD408" s="14"/>
       <c r="AE408" s="14"/>
     </row>
-    <row r="409" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6"/>
       <c r="O409" s="14"/>
       <c r="P409" s="14"/>
@@ -12377,7 +12480,7 @@
       <c r="AD409" s="14"/>
       <c r="AE409" s="14"/>
     </row>
-    <row r="410" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="6"/>
       <c r="O410" s="14"/>
       <c r="P410" s="14"/>
@@ -12397,7 +12500,7 @@
       <c r="AD410" s="14"/>
       <c r="AE410" s="14"/>
     </row>
-    <row r="411" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6"/>
       <c r="O411" s="14"/>
       <c r="P411" s="14"/>
@@ -12417,7 +12520,7 @@
       <c r="AD411" s="14"/>
       <c r="AE411" s="14"/>
     </row>
-    <row r="412" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6"/>
       <c r="O412" s="14"/>
       <c r="P412" s="14"/>
@@ -12437,7 +12540,7 @@
       <c r="AD412" s="14"/>
       <c r="AE412" s="14"/>
     </row>
-    <row r="413" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6"/>
       <c r="O413" s="14"/>
       <c r="P413" s="14"/>
@@ -12457,7 +12560,7 @@
       <c r="AD413" s="14"/>
       <c r="AE413" s="14"/>
     </row>
-    <row r="414" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6"/>
       <c r="O414" s="14"/>
       <c r="P414" s="14"/>
@@ -12477,7 +12580,7 @@
       <c r="AD414" s="14"/>
       <c r="AE414" s="14"/>
     </row>
-    <row r="415" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6"/>
       <c r="O415" s="14"/>
       <c r="P415" s="14"/>
@@ -12497,7 +12600,7 @@
       <c r="AD415" s="14"/>
       <c r="AE415" s="14"/>
     </row>
-    <row r="416" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6"/>
       <c r="O416" s="14"/>
       <c r="P416" s="14"/>
@@ -12517,7 +12620,7 @@
       <c r="AD416" s="14"/>
       <c r="AE416" s="14"/>
     </row>
-    <row r="417" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6"/>
       <c r="O417" s="14"/>
       <c r="P417" s="14"/>
@@ -12537,7 +12640,7 @@
       <c r="AD417" s="14"/>
       <c r="AE417" s="14"/>
     </row>
-    <row r="418" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6"/>
       <c r="O418" s="14"/>
       <c r="P418" s="14"/>
@@ -12557,7 +12660,7 @@
       <c r="AD418" s="14"/>
       <c r="AE418" s="14"/>
     </row>
-    <row r="419" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6"/>
       <c r="O419" s="14"/>
       <c r="P419" s="14"/>
@@ -12577,7 +12680,7 @@
       <c r="AD419" s="14"/>
       <c r="AE419" s="14"/>
     </row>
-    <row r="420" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="6"/>
       <c r="O420" s="14"/>
       <c r="P420" s="14"/>
@@ -12597,7 +12700,7 @@
       <c r="AD420" s="14"/>
       <c r="AE420" s="14"/>
     </row>
-    <row r="421" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6"/>
       <c r="O421" s="14"/>
       <c r="P421" s="14"/>
@@ -12617,7 +12720,7 @@
       <c r="AD421" s="14"/>
       <c r="AE421" s="14"/>
     </row>
-    <row r="422" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="6"/>
       <c r="O422" s="14"/>
       <c r="P422" s="14"/>
@@ -12637,7 +12740,7 @@
       <c r="AD422" s="14"/>
       <c r="AE422" s="14"/>
     </row>
-    <row r="423" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="6"/>
       <c r="O423" s="14"/>
       <c r="P423" s="14"/>
@@ -12657,7 +12760,7 @@
       <c r="AD423" s="14"/>
       <c r="AE423" s="14"/>
     </row>
-    <row r="424" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="6"/>
       <c r="O424" s="14"/>
       <c r="P424" s="14"/>
@@ -12677,7 +12780,7 @@
       <c r="AD424" s="14"/>
       <c r="AE424" s="14"/>
     </row>
-    <row r="425" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="6"/>
       <c r="O425" s="14"/>
       <c r="P425" s="14"/>
@@ -12697,7 +12800,7 @@
       <c r="AD425" s="14"/>
       <c r="AE425" s="14"/>
     </row>
-    <row r="426" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="6"/>
       <c r="O426" s="14"/>
       <c r="P426" s="14"/>
@@ -12717,7 +12820,7 @@
       <c r="AD426" s="14"/>
       <c r="AE426" s="14"/>
     </row>
-    <row r="427" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="6"/>
       <c r="O427" s="14"/>
       <c r="P427" s="14"/>
@@ -12737,7 +12840,7 @@
       <c r="AD427" s="14"/>
       <c r="AE427" s="14"/>
     </row>
-    <row r="428" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="6"/>
       <c r="O428" s="14"/>
       <c r="P428" s="14"/>
@@ -12757,7 +12860,7 @@
       <c r="AD428" s="14"/>
       <c r="AE428" s="14"/>
     </row>
-    <row r="429" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
       <c r="O429" s="14"/>
       <c r="P429" s="14"/>
@@ -12777,7 +12880,7 @@
       <c r="AD429" s="14"/>
       <c r="AE429" s="14"/>
     </row>
-    <row r="430" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="6"/>
       <c r="O430" s="14"/>
       <c r="P430" s="14"/>
@@ -12797,7 +12900,7 @@
       <c r="AD430" s="14"/>
       <c r="AE430" s="14"/>
     </row>
-    <row r="431" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="6"/>
       <c r="O431" s="14"/>
       <c r="P431" s="14"/>
@@ -12817,7 +12920,7 @@
       <c r="AD431" s="14"/>
       <c r="AE431" s="14"/>
     </row>
-    <row r="432" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="6"/>
       <c r="O432" s="14"/>
       <c r="P432" s="14"/>
@@ -12837,7 +12940,7 @@
       <c r="AD432" s="14"/>
       <c r="AE432" s="14"/>
     </row>
-    <row r="433" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="6"/>
       <c r="O433" s="14"/>
       <c r="P433" s="14"/>
@@ -12857,7 +12960,7 @@
       <c r="AD433" s="14"/>
       <c r="AE433" s="14"/>
     </row>
-    <row r="434" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="6"/>
       <c r="O434" s="14"/>
       <c r="P434" s="14"/>
@@ -12877,7 +12980,7 @@
       <c r="AD434" s="14"/>
       <c r="AE434" s="14"/>
     </row>
-    <row r="435" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="6"/>
       <c r="O435" s="14"/>
       <c r="P435" s="14"/>
@@ -12897,7 +13000,7 @@
       <c r="AD435" s="14"/>
       <c r="AE435" s="14"/>
     </row>
-    <row r="436" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="6"/>
       <c r="O436" s="14"/>
       <c r="P436" s="14"/>
@@ -12917,7 +13020,7 @@
       <c r="AD436" s="14"/>
       <c r="AE436" s="14"/>
     </row>
-    <row r="437" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="6"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
@@ -12937,7 +13040,7 @@
       <c r="AD437" s="14"/>
       <c r="AE437" s="14"/>
     </row>
-    <row r="438" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="6"/>
       <c r="O438" s="14"/>
       <c r="P438" s="14"/>
@@ -12957,7 +13060,7 @@
       <c r="AD438" s="14"/>
       <c r="AE438" s="14"/>
     </row>
-    <row r="439" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="6"/>
       <c r="O439" s="14"/>
       <c r="P439" s="14"/>
@@ -12977,7 +13080,7 @@
       <c r="AD439" s="14"/>
       <c r="AE439" s="14"/>
     </row>
-    <row r="440" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="6"/>
       <c r="O440" s="14"/>
       <c r="P440" s="14"/>
@@ -12997,7 +13100,7 @@
       <c r="AD440" s="14"/>
       <c r="AE440" s="14"/>
     </row>
-    <row r="441" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="6"/>
       <c r="O441" s="14"/>
       <c r="P441" s="14"/>
@@ -13017,7 +13120,7 @@
       <c r="AD441" s="14"/>
       <c r="AE441" s="14"/>
     </row>
-    <row r="442" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="6"/>
       <c r="O442" s="14"/>
       <c r="P442" s="14"/>
@@ -13037,7 +13140,7 @@
       <c r="AD442" s="14"/>
       <c r="AE442" s="14"/>
     </row>
-    <row r="443" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6"/>
       <c r="O443" s="14"/>
       <c r="P443" s="14"/>
@@ -13057,7 +13160,7 @@
       <c r="AD443" s="14"/>
       <c r="AE443" s="14"/>
     </row>
-    <row r="444" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="6"/>
       <c r="O444" s="14"/>
       <c r="P444" s="14"/>
@@ -13077,7 +13180,7 @@
       <c r="AD444" s="14"/>
       <c r="AE444" s="14"/>
     </row>
-    <row r="445" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="6"/>
       <c r="O445" s="14"/>
       <c r="P445" s="14"/>
@@ -13097,7 +13200,7 @@
       <c r="AD445" s="14"/>
       <c r="AE445" s="14"/>
     </row>
-    <row r="446" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="6"/>
       <c r="O446" s="14"/>
       <c r="P446" s="14"/>
@@ -13117,7 +13220,7 @@
       <c r="AD446" s="14"/>
       <c r="AE446" s="14"/>
     </row>
-    <row r="447" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="6"/>
       <c r="O447" s="14"/>
       <c r="P447" s="14"/>
@@ -13137,7 +13240,7 @@
       <c r="AD447" s="14"/>
       <c r="AE447" s="14"/>
     </row>
-    <row r="448" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="6"/>
       <c r="O448" s="14"/>
       <c r="P448" s="14"/>
@@ -13157,7 +13260,7 @@
       <c r="AD448" s="14"/>
       <c r="AE448" s="14"/>
     </row>
-    <row r="449" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="6"/>
       <c r="O449" s="14"/>
       <c r="P449" s="14"/>
@@ -13177,7 +13280,7 @@
       <c r="AD449" s="14"/>
       <c r="AE449" s="14"/>
     </row>
-    <row r="450" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="6"/>
       <c r="O450" s="14"/>
       <c r="P450" s="14"/>
@@ -13197,7 +13300,7 @@
       <c r="AD450" s="14"/>
       <c r="AE450" s="14"/>
     </row>
-    <row r="451" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
       <c r="O451" s="14"/>
       <c r="P451" s="14"/>
@@ -13217,7 +13320,7 @@
       <c r="AD451" s="14"/>
       <c r="AE451" s="14"/>
     </row>
-    <row r="452" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="6"/>
       <c r="O452" s="14"/>
       <c r="P452" s="14"/>
@@ -13237,7 +13340,7 @@
       <c r="AD452" s="14"/>
       <c r="AE452" s="14"/>
     </row>
-    <row r="453" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="6"/>
       <c r="O453" s="14"/>
       <c r="P453" s="14"/>
@@ -13257,7 +13360,7 @@
       <c r="AD453" s="14"/>
       <c r="AE453" s="14"/>
     </row>
-    <row r="454" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="6"/>
       <c r="O454" s="14"/>
       <c r="P454" s="14"/>
@@ -13277,7 +13380,7 @@
       <c r="AD454" s="14"/>
       <c r="AE454" s="14"/>
     </row>
-    <row r="455" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="6"/>
       <c r="O455" s="14"/>
       <c r="P455" s="14"/>
@@ -13297,7 +13400,7 @@
       <c r="AD455" s="14"/>
       <c r="AE455" s="14"/>
     </row>
-    <row r="456" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="6"/>
       <c r="O456" s="14"/>
       <c r="P456" s="14"/>
@@ -13317,7 +13420,7 @@
       <c r="AD456" s="14"/>
       <c r="AE456" s="14"/>
     </row>
-    <row r="457" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6"/>
       <c r="O457" s="14"/>
       <c r="P457" s="14"/>
@@ -13337,7 +13440,7 @@
       <c r="AD457" s="14"/>
       <c r="AE457" s="14"/>
     </row>
-    <row r="458" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6"/>
       <c r="O458" s="14"/>
       <c r="P458" s="14"/>
@@ -13357,7 +13460,7 @@
       <c r="AD458" s="14"/>
       <c r="AE458" s="14"/>
     </row>
-    <row r="459" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6"/>
       <c r="O459" s="14"/>
       <c r="P459" s="14"/>
@@ -13377,7 +13480,7 @@
       <c r="AD459" s="14"/>
       <c r="AE459" s="14"/>
     </row>
-    <row r="460" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6"/>
       <c r="O460" s="14"/>
       <c r="P460" s="14"/>
@@ -13397,7 +13500,7 @@
       <c r="AD460" s="14"/>
       <c r="AE460" s="14"/>
     </row>
-    <row r="461" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6"/>
       <c r="O461" s="14"/>
       <c r="P461" s="14"/>
@@ -13417,7 +13520,7 @@
       <c r="AD461" s="14"/>
       <c r="AE461" s="14"/>
     </row>
-    <row r="462" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6"/>
       <c r="O462" s="14"/>
       <c r="P462" s="14"/>
@@ -13437,7 +13540,7 @@
       <c r="AD462" s="14"/>
       <c r="AE462" s="14"/>
     </row>
-    <row r="463" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="6"/>
       <c r="O463" s="14"/>
       <c r="P463" s="14"/>
@@ -13457,7 +13560,7 @@
       <c r="AD463" s="14"/>
       <c r="AE463" s="14"/>
     </row>
-    <row r="464" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="6"/>
       <c r="O464" s="14"/>
       <c r="P464" s="14"/>
@@ -13477,7 +13580,7 @@
       <c r="AD464" s="14"/>
       <c r="AE464" s="14"/>
     </row>
-    <row r="465" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="6"/>
       <c r="O465" s="14"/>
       <c r="P465" s="14"/>
@@ -13497,7 +13600,7 @@
       <c r="AD465" s="14"/>
       <c r="AE465" s="14"/>
     </row>
-    <row r="466" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="6"/>
       <c r="O466" s="14"/>
       <c r="P466" s="14"/>
@@ -13517,7 +13620,7 @@
       <c r="AD466" s="14"/>
       <c r="AE466" s="14"/>
     </row>
-    <row r="467" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="6"/>
       <c r="O467" s="14"/>
       <c r="P467" s="14"/>
@@ -13537,7 +13640,7 @@
       <c r="AD467" s="14"/>
       <c r="AE467" s="14"/>
     </row>
-    <row r="468" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="6"/>
       <c r="O468" s="14"/>
       <c r="P468" s="14"/>
@@ -13557,7 +13660,7 @@
       <c r="AD468" s="14"/>
       <c r="AE468" s="14"/>
     </row>
-    <row r="469" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="6"/>
       <c r="O469" s="14"/>
       <c r="P469" s="14"/>
@@ -13577,7 +13680,7 @@
       <c r="AD469" s="14"/>
       <c r="AE469" s="14"/>
     </row>
-    <row r="470" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="6"/>
       <c r="O470" s="14"/>
       <c r="P470" s="14"/>
@@ -13597,7 +13700,7 @@
       <c r="AD470" s="14"/>
       <c r="AE470" s="14"/>
     </row>
-    <row r="471" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="6"/>
       <c r="O471" s="14"/>
       <c r="P471" s="14"/>
@@ -13617,7 +13720,7 @@
       <c r="AD471" s="14"/>
       <c r="AE471" s="14"/>
     </row>
-    <row r="472" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="6"/>
       <c r="O472" s="14"/>
       <c r="P472" s="14"/>
@@ -13637,7 +13740,7 @@
       <c r="AD472" s="14"/>
       <c r="AE472" s="14"/>
     </row>
-    <row r="473" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
       <c r="O473" s="14"/>
       <c r="P473" s="14"/>
@@ -13657,7 +13760,7 @@
       <c r="AD473" s="14"/>
       <c r="AE473" s="14"/>
     </row>
-    <row r="474" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="6"/>
       <c r="O474" s="14"/>
       <c r="P474" s="14"/>
@@ -13677,7 +13780,7 @@
       <c r="AD474" s="14"/>
       <c r="AE474" s="14"/>
     </row>
-    <row r="475" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="6"/>
       <c r="O475" s="14"/>
       <c r="P475" s="14"/>
@@ -13697,7 +13800,7 @@
       <c r="AD475" s="14"/>
       <c r="AE475" s="14"/>
     </row>
-    <row r="476" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6"/>
       <c r="O476" s="14"/>
       <c r="P476" s="14"/>
@@ -13717,7 +13820,7 @@
       <c r="AD476" s="14"/>
       <c r="AE476" s="14"/>
     </row>
-    <row r="477" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="6"/>
       <c r="O477" s="14"/>
       <c r="P477" s="14"/>
@@ -13737,7 +13840,7 @@
       <c r="AD477" s="14"/>
       <c r="AE477" s="14"/>
     </row>
-    <row r="478" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="6"/>
       <c r="O478" s="14"/>
       <c r="P478" s="14"/>
@@ -13757,7 +13860,7 @@
       <c r="AD478" s="14"/>
       <c r="AE478" s="14"/>
     </row>
-    <row r="479" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="6"/>
       <c r="O479" s="14"/>
       <c r="P479" s="14"/>
@@ -13777,7 +13880,7 @@
       <c r="AD479" s="14"/>
       <c r="AE479" s="14"/>
     </row>
-    <row r="480" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="6"/>
       <c r="O480" s="14"/>
       <c r="P480" s="14"/>
@@ -13797,7 +13900,7 @@
       <c r="AD480" s="14"/>
       <c r="AE480" s="14"/>
     </row>
-    <row r="481" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="6"/>
       <c r="O481" s="14"/>
       <c r="P481" s="14"/>
@@ -13817,7 +13920,7 @@
       <c r="AD481" s="14"/>
       <c r="AE481" s="14"/>
     </row>
-    <row r="482" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="6"/>
       <c r="O482" s="14"/>
       <c r="P482" s="14"/>
@@ -13837,7 +13940,7 @@
       <c r="AD482" s="14"/>
       <c r="AE482" s="14"/>
     </row>
-    <row r="483" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="6"/>
       <c r="O483" s="14"/>
       <c r="P483" s="14"/>
@@ -13857,7 +13960,7 @@
       <c r="AD483" s="14"/>
       <c r="AE483" s="14"/>
     </row>
-    <row r="484" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6"/>
       <c r="O484" s="14"/>
       <c r="P484" s="14"/>
@@ -13877,7 +13980,7 @@
       <c r="AD484" s="14"/>
       <c r="AE484" s="14"/>
     </row>
-    <row r="485" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6"/>
       <c r="O485" s="14"/>
       <c r="P485" s="14"/>
@@ -13897,7 +14000,7 @@
       <c r="AD485" s="14"/>
       <c r="AE485" s="14"/>
     </row>
-    <row r="486" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="6"/>
       <c r="O486" s="14"/>
       <c r="P486" s="14"/>
@@ -13917,7 +14020,7 @@
       <c r="AD486" s="14"/>
       <c r="AE486" s="14"/>
     </row>
-    <row r="487" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="6"/>
       <c r="O487" s="14"/>
       <c r="P487" s="14"/>
@@ -13937,7 +14040,7 @@
       <c r="AD487" s="14"/>
       <c r="AE487" s="14"/>
     </row>
-    <row r="488" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="6"/>
       <c r="O488" s="14"/>
       <c r="P488" s="14"/>
@@ -13957,7 +14060,7 @@
       <c r="AD488" s="14"/>
       <c r="AE488" s="14"/>
     </row>
-    <row r="489" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="6"/>
       <c r="O489" s="14"/>
       <c r="P489" s="14"/>
@@ -13977,7 +14080,7 @@
       <c r="AD489" s="14"/>
       <c r="AE489" s="14"/>
     </row>
-    <row r="490" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="6"/>
       <c r="O490" s="14"/>
       <c r="P490" s="14"/>
@@ -13997,7 +14100,7 @@
       <c r="AD490" s="14"/>
       <c r="AE490" s="14"/>
     </row>
-    <row r="491" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="6"/>
       <c r="O491" s="14"/>
       <c r="P491" s="14"/>
@@ -14017,7 +14120,7 @@
       <c r="AD491" s="14"/>
       <c r="AE491" s="14"/>
     </row>
-    <row r="492" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="6"/>
       <c r="O492" s="14"/>
       <c r="P492" s="14"/>
@@ -14037,7 +14140,7 @@
       <c r="AD492" s="14"/>
       <c r="AE492" s="14"/>
     </row>
-    <row r="493" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="6"/>
       <c r="O493" s="14"/>
       <c r="P493" s="14"/>
@@ -14057,7 +14160,7 @@
       <c r="AD493" s="14"/>
       <c r="AE493" s="14"/>
     </row>
-    <row r="494" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="6"/>
       <c r="O494" s="14"/>
       <c r="P494" s="14"/>
@@ -14077,7 +14180,7 @@
       <c r="AD494" s="14"/>
       <c r="AE494" s="14"/>
     </row>
-    <row r="495" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
       <c r="O495" s="14"/>
       <c r="P495" s="14"/>
@@ -14097,7 +14200,7 @@
       <c r="AD495" s="14"/>
       <c r="AE495" s="14"/>
     </row>
-    <row r="496" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="6"/>
       <c r="O496" s="14"/>
       <c r="P496" s="14"/>
@@ -14117,7 +14220,7 @@
       <c r="AD496" s="14"/>
       <c r="AE496" s="14"/>
     </row>
-    <row r="497" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="6"/>
       <c r="O497" s="14"/>
       <c r="P497" s="14"/>
@@ -14137,7 +14240,7 @@
       <c r="AD497" s="14"/>
       <c r="AE497" s="14"/>
     </row>
-    <row r="498" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="6"/>
       <c r="O498" s="14"/>
       <c r="P498" s="14"/>
@@ -14157,7 +14260,7 @@
       <c r="AD498" s="14"/>
       <c r="AE498" s="14"/>
     </row>
-    <row r="499" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="6"/>
       <c r="O499" s="14"/>
       <c r="P499" s="14"/>
@@ -14177,7 +14280,7 @@
       <c r="AD499" s="14"/>
       <c r="AE499" s="14"/>
     </row>
-    <row r="500" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="6"/>
       <c r="O500" s="14"/>
       <c r="P500" s="14"/>
@@ -14197,7 +14300,7 @@
       <c r="AD500" s="14"/>
       <c r="AE500" s="14"/>
     </row>
-    <row r="501" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="6"/>
       <c r="O501" s="14"/>
       <c r="P501" s="14"/>
@@ -14217,7 +14320,7 @@
       <c r="AD501" s="14"/>
       <c r="AE501" s="14"/>
     </row>
-    <row r="502" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="6"/>
       <c r="O502" s="14"/>
       <c r="P502" s="14"/>
@@ -14237,7 +14340,7 @@
       <c r="AD502" s="14"/>
       <c r="AE502" s="14"/>
     </row>
-    <row r="503" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="6"/>
       <c r="O503" s="14"/>
       <c r="P503" s="14"/>
@@ -14257,7 +14360,7 @@
       <c r="AD503" s="14"/>
       <c r="AE503" s="14"/>
     </row>
-    <row r="504" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="6"/>
       <c r="O504" s="14"/>
       <c r="P504" s="14"/>
@@ -14277,7 +14380,7 @@
       <c r="AD504" s="14"/>
       <c r="AE504" s="14"/>
     </row>
-    <row r="505" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="6"/>
       <c r="O505" s="14"/>
       <c r="P505" s="14"/>
@@ -14297,7 +14400,7 @@
       <c r="AD505" s="14"/>
       <c r="AE505" s="14"/>
     </row>
-    <row r="506" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="6"/>
       <c r="O506" s="14"/>
       <c r="P506" s="14"/>
@@ -14317,7 +14420,7 @@
       <c r="AD506" s="14"/>
       <c r="AE506" s="14"/>
     </row>
-    <row r="507" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="6"/>
       <c r="O507" s="14"/>
       <c r="P507" s="14"/>
@@ -14337,7 +14440,7 @@
       <c r="AD507" s="14"/>
       <c r="AE507" s="14"/>
     </row>
-    <row r="508" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="6"/>
       <c r="O508" s="14"/>
       <c r="P508" s="14"/>
@@ -14357,7 +14460,7 @@
       <c r="AD508" s="14"/>
       <c r="AE508" s="14"/>
     </row>
-    <row r="509" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="6"/>
       <c r="O509" s="14"/>
       <c r="P509" s="14"/>
@@ -14377,7 +14480,7 @@
       <c r="AD509" s="14"/>
       <c r="AE509" s="14"/>
     </row>
-    <row r="510" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="6"/>
       <c r="O510" s="14"/>
       <c r="P510" s="14"/>
@@ -14397,7 +14500,7 @@
       <c r="AD510" s="14"/>
       <c r="AE510" s="14"/>
     </row>
-    <row r="511" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="6"/>
       <c r="O511" s="14"/>
       <c r="P511" s="14"/>
@@ -14417,7 +14520,7 @@
       <c r="AD511" s="14"/>
       <c r="AE511" s="14"/>
     </row>
-    <row r="512" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="6"/>
       <c r="O512" s="14"/>
       <c r="P512" s="14"/>
@@ -14437,7 +14540,7 @@
       <c r="AD512" s="14"/>
       <c r="AE512" s="14"/>
     </row>
-    <row r="513" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="6"/>
       <c r="O513" s="14"/>
       <c r="P513" s="14"/>
@@ -14457,7 +14560,7 @@
       <c r="AD513" s="14"/>
       <c r="AE513" s="14"/>
     </row>
-    <row r="514" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="6"/>
       <c r="O514" s="14"/>
       <c r="P514" s="14"/>
@@ -14477,7 +14580,7 @@
       <c r="AD514" s="14"/>
       <c r="AE514" s="14"/>
     </row>
-    <row r="515" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="6"/>
       <c r="O515" s="14"/>
       <c r="P515" s="14"/>
@@ -14497,7 +14600,7 @@
       <c r="AD515" s="14"/>
       <c r="AE515" s="14"/>
     </row>
-    <row r="516" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="6"/>
       <c r="O516" s="14"/>
       <c r="P516" s="14"/>
@@ -14517,7 +14620,7 @@
       <c r="AD516" s="14"/>
       <c r="AE516" s="14"/>
     </row>
-    <row r="517" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
       <c r="O517" s="14"/>
       <c r="P517" s="14"/>
@@ -14537,7 +14640,7 @@
       <c r="AD517" s="14"/>
       <c r="AE517" s="14"/>
     </row>
-    <row r="518" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6"/>
       <c r="O518" s="14"/>
       <c r="P518" s="14"/>
@@ -14557,7 +14660,7 @@
       <c r="AD518" s="14"/>
       <c r="AE518" s="14"/>
     </row>
-    <row r="519" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="6"/>
       <c r="O519" s="14"/>
       <c r="P519" s="14"/>
@@ -14577,7 +14680,7 @@
       <c r="AD519" s="14"/>
       <c r="AE519" s="14"/>
     </row>
-    <row r="520" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="6"/>
       <c r="O520" s="14"/>
       <c r="P520" s="14"/>
@@ -14597,7 +14700,7 @@
       <c r="AD520" s="14"/>
       <c r="AE520" s="14"/>
     </row>
-    <row r="521" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="6"/>
       <c r="O521" s="14"/>
       <c r="P521" s="14"/>
@@ -14617,7 +14720,7 @@
       <c r="AD521" s="14"/>
       <c r="AE521" s="14"/>
     </row>
-    <row r="522" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="6"/>
       <c r="O522" s="14"/>
       <c r="P522" s="14"/>
@@ -14637,7 +14740,7 @@
       <c r="AD522" s="14"/>
       <c r="AE522" s="14"/>
     </row>
-    <row r="523" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="6"/>
       <c r="O523" s="14"/>
       <c r="P523" s="14"/>
@@ -14657,7 +14760,7 @@
       <c r="AD523" s="14"/>
       <c r="AE523" s="14"/>
     </row>
-    <row r="524" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="6"/>
       <c r="O524" s="14"/>
       <c r="P524" s="14"/>
@@ -14677,7 +14780,7 @@
       <c r="AD524" s="14"/>
       <c r="AE524" s="14"/>
     </row>
-    <row r="525" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="6"/>
       <c r="O525" s="14"/>
       <c r="P525" s="14"/>
@@ -14697,7 +14800,7 @@
       <c r="AD525" s="14"/>
       <c r="AE525" s="14"/>
     </row>
-    <row r="526" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="6"/>
       <c r="O526" s="14"/>
       <c r="P526" s="14"/>
@@ -14717,7 +14820,7 @@
       <c r="AD526" s="14"/>
       <c r="AE526" s="14"/>
     </row>
-    <row r="527" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="6"/>
       <c r="O527" s="14"/>
       <c r="P527" s="14"/>
@@ -14737,7 +14840,7 @@
       <c r="AD527" s="14"/>
       <c r="AE527" s="14"/>
     </row>
-    <row r="528" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="6"/>
       <c r="O528" s="14"/>
       <c r="P528" s="14"/>
@@ -14757,7 +14860,7 @@
       <c r="AD528" s="14"/>
       <c r="AE528" s="14"/>
     </row>
-    <row r="529" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="6"/>
       <c r="O529" s="14"/>
       <c r="P529" s="14"/>
@@ -14777,7 +14880,7 @@
       <c r="AD529" s="14"/>
       <c r="AE529" s="14"/>
     </row>
-    <row r="530" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="6"/>
       <c r="O530" s="14"/>
       <c r="P530" s="14"/>
@@ -14797,7 +14900,7 @@
       <c r="AD530" s="14"/>
       <c r="AE530" s="14"/>
     </row>
-    <row r="531" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="6"/>
       <c r="O531" s="14"/>
       <c r="P531" s="14"/>
@@ -14817,7 +14920,7 @@
       <c r="AD531" s="14"/>
       <c r="AE531" s="14"/>
     </row>
-    <row r="532" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="6"/>
       <c r="O532" s="14"/>
       <c r="P532" s="14"/>
@@ -14837,7 +14940,7 @@
       <c r="AD532" s="14"/>
       <c r="AE532" s="14"/>
     </row>
-    <row r="533" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="6"/>
       <c r="O533" s="14"/>
       <c r="P533" s="14"/>
@@ -14857,7 +14960,7 @@
       <c r="AD533" s="14"/>
       <c r="AE533" s="14"/>
     </row>
-    <row r="534" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="6"/>
       <c r="O534" s="14"/>
       <c r="P534" s="14"/>
@@ -14877,7 +14980,7 @@
       <c r="AD534" s="14"/>
       <c r="AE534" s="14"/>
     </row>
-    <row r="535" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="6"/>
       <c r="O535" s="14"/>
       <c r="P535" s="14"/>
@@ -14897,7 +15000,7 @@
       <c r="AD535" s="14"/>
       <c r="AE535" s="14"/>
     </row>
-    <row r="536" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="6"/>
       <c r="O536" s="14"/>
       <c r="P536" s="14"/>
@@ -14917,7 +15020,7 @@
       <c r="AD536" s="14"/>
       <c r="AE536" s="14"/>
     </row>
-    <row r="537" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="6"/>
       <c r="O537" s="14"/>
       <c r="P537" s="14"/>
@@ -14937,7 +15040,7 @@
       <c r="AD537" s="14"/>
       <c r="AE537" s="14"/>
     </row>
-    <row r="538" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="6"/>
       <c r="O538" s="14"/>
       <c r="P538" s="14"/>
@@ -14957,7 +15060,7 @@
       <c r="AD538" s="14"/>
       <c r="AE538" s="14"/>
     </row>
-    <row r="539" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
       <c r="O539" s="14"/>
       <c r="P539" s="14"/>
@@ -14977,7 +15080,7 @@
       <c r="AD539" s="14"/>
       <c r="AE539" s="14"/>
     </row>
-    <row r="540" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="6"/>
       <c r="O540" s="14"/>
       <c r="P540" s="14"/>
@@ -14997,7 +15100,7 @@
       <c r="AD540" s="14"/>
       <c r="AE540" s="14"/>
     </row>
-    <row r="541" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="6"/>
       <c r="O541" s="14"/>
       <c r="P541" s="14"/>
@@ -15017,7 +15120,7 @@
       <c r="AD541" s="14"/>
       <c r="AE541" s="14"/>
     </row>
-    <row r="542" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="6"/>
       <c r="O542" s="14"/>
       <c r="P542" s="14"/>
@@ -15037,7 +15140,7 @@
       <c r="AD542" s="14"/>
       <c r="AE542" s="14"/>
     </row>
-    <row r="543" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="6"/>
       <c r="O543" s="14"/>
       <c r="P543" s="14"/>
@@ -15057,7 +15160,7 @@
       <c r="AD543" s="14"/>
       <c r="AE543" s="14"/>
     </row>
-    <row r="544" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="6"/>
       <c r="O544" s="14"/>
       <c r="P544" s="14"/>
@@ -15077,7 +15180,7 @@
       <c r="AD544" s="14"/>
       <c r="AE544" s="14"/>
     </row>
-    <row r="545" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="6"/>
       <c r="O545" s="14"/>
       <c r="P545" s="14"/>
@@ -15097,7 +15200,7 @@
       <c r="AD545" s="14"/>
       <c r="AE545" s="14"/>
     </row>
-    <row r="546" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="6"/>
       <c r="O546" s="14"/>
       <c r="P546" s="14"/>
@@ -15117,7 +15220,7 @@
       <c r="AD546" s="14"/>
       <c r="AE546" s="14"/>
     </row>
-    <row r="547" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="6"/>
       <c r="O547" s="14"/>
       <c r="P547" s="14"/>
@@ -15137,7 +15240,7 @@
       <c r="AD547" s="14"/>
       <c r="AE547" s="14"/>
     </row>
-    <row r="548" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="6"/>
       <c r="O548" s="14"/>
       <c r="P548" s="14"/>
@@ -15157,7 +15260,7 @@
       <c r="AD548" s="14"/>
       <c r="AE548" s="14"/>
     </row>
-    <row r="549" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="6"/>
       <c r="O549" s="14"/>
       <c r="P549" s="14"/>
@@ -15177,7 +15280,7 @@
       <c r="AD549" s="14"/>
       <c r="AE549" s="14"/>
     </row>
-    <row r="550" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="6"/>
       <c r="O550" s="14"/>
       <c r="P550" s="14"/>
@@ -15197,7 +15300,7 @@
       <c r="AD550" s="14"/>
       <c r="AE550" s="14"/>
     </row>
-    <row r="551" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="6"/>
       <c r="O551" s="14"/>
       <c r="P551" s="14"/>
@@ -15217,7 +15320,7 @@
       <c r="AD551" s="14"/>
       <c r="AE551" s="14"/>
     </row>
-    <row r="552" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="6"/>
       <c r="O552" s="14"/>
       <c r="P552" s="14"/>
@@ -15237,7 +15340,7 @@
       <c r="AD552" s="14"/>
       <c r="AE552" s="14"/>
     </row>
-    <row r="553" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="6"/>
       <c r="O553" s="14"/>
       <c r="P553" s="14"/>
@@ -15257,7 +15360,7 @@
       <c r="AD553" s="14"/>
       <c r="AE553" s="14"/>
     </row>
-    <row r="554" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="6"/>
       <c r="O554" s="14"/>
       <c r="P554" s="14"/>
@@ -15277,7 +15380,7 @@
       <c r="AD554" s="14"/>
       <c r="AE554" s="14"/>
     </row>
-    <row r="555" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="6"/>
       <c r="O555" s="14"/>
       <c r="P555" s="14"/>
@@ -15297,7 +15400,7 @@
       <c r="AD555" s="14"/>
       <c r="AE555" s="14"/>
     </row>
-    <row r="556" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="6"/>
       <c r="O556" s="14"/>
       <c r="P556" s="14"/>
@@ -15317,7 +15420,7 @@
       <c r="AD556" s="14"/>
       <c r="AE556" s="14"/>
     </row>
-    <row r="557" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="6"/>
       <c r="O557" s="14"/>
       <c r="P557" s="14"/>
@@ -15337,7 +15440,7 @@
       <c r="AD557" s="14"/>
       <c r="AE557" s="14"/>
     </row>
-    <row r="558" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="6"/>
       <c r="O558" s="14"/>
       <c r="P558" s="14"/>
@@ -15357,7 +15460,7 @@
       <c r="AD558" s="14"/>
       <c r="AE558" s="14"/>
     </row>
-    <row r="559" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="6"/>
       <c r="O559" s="14"/>
       <c r="P559" s="14"/>
@@ -15377,7 +15480,7 @@
       <c r="AD559" s="14"/>
       <c r="AE559" s="14"/>
     </row>
-    <row r="560" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="6"/>
       <c r="O560" s="14"/>
       <c r="P560" s="14"/>
@@ -15397,7 +15500,7 @@
       <c r="AD560" s="14"/>
       <c r="AE560" s="14"/>
     </row>
-    <row r="561" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
       <c r="O561" s="14"/>
       <c r="P561" s="14"/>
@@ -15417,7 +15520,7 @@
       <c r="AD561" s="14"/>
       <c r="AE561" s="14"/>
     </row>
-    <row r="562" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="6"/>
       <c r="O562" s="14"/>
       <c r="P562" s="14"/>
@@ -15437,7 +15540,7 @@
       <c r="AD562" s="14"/>
       <c r="AE562" s="14"/>
     </row>
-    <row r="563" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="6"/>
       <c r="O563" s="14"/>
       <c r="P563" s="14"/>
@@ -15457,7 +15560,7 @@
       <c r="AD563" s="14"/>
       <c r="AE563" s="14"/>
     </row>
-    <row r="564" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="6"/>
       <c r="O564" s="14"/>
       <c r="P564" s="14"/>
@@ -15477,7 +15580,7 @@
       <c r="AD564" s="14"/>
       <c r="AE564" s="14"/>
     </row>
-    <row r="565" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="6"/>
       <c r="O565" s="14"/>
       <c r="P565" s="14"/>
@@ -15497,7 +15600,7 @@
       <c r="AD565" s="14"/>
       <c r="AE565" s="14"/>
     </row>
-    <row r="566" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="6"/>
       <c r="O566" s="14"/>
       <c r="P566" s="14"/>
@@ -15517,7 +15620,7 @@
       <c r="AD566" s="14"/>
       <c r="AE566" s="14"/>
     </row>
-    <row r="567" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="6"/>
       <c r="O567" s="14"/>
       <c r="P567" s="14"/>
@@ -15537,7 +15640,7 @@
       <c r="AD567" s="14"/>
       <c r="AE567" s="14"/>
     </row>
-    <row r="568" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="6"/>
       <c r="O568" s="14"/>
       <c r="P568" s="14"/>
@@ -15557,7 +15660,7 @@
       <c r="AD568" s="14"/>
       <c r="AE568" s="14"/>
     </row>
-    <row r="569" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="6"/>
       <c r="O569" s="14"/>
       <c r="P569" s="14"/>
@@ -15577,7 +15680,7 @@
       <c r="AD569" s="14"/>
       <c r="AE569" s="14"/>
     </row>
-    <row r="570" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="6"/>
       <c r="O570" s="14"/>
       <c r="P570" s="14"/>
@@ -15597,7 +15700,7 @@
       <c r="AD570" s="14"/>
       <c r="AE570" s="14"/>
     </row>
-    <row r="571" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="6"/>
       <c r="O571" s="14"/>
       <c r="P571" s="14"/>
@@ -15617,7 +15720,7 @@
       <c r="AD571" s="14"/>
       <c r="AE571" s="14"/>
     </row>
-    <row r="572" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="6"/>
       <c r="O572" s="14"/>
       <c r="P572" s="14"/>
@@ -15637,7 +15740,7 @@
       <c r="AD572" s="14"/>
       <c r="AE572" s="14"/>
     </row>
-    <row r="573" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="6"/>
       <c r="O573" s="14"/>
       <c r="P573" s="14"/>
@@ -15657,7 +15760,7 @@
       <c r="AD573" s="14"/>
       <c r="AE573" s="14"/>
     </row>
-    <row r="574" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="6"/>
       <c r="O574" s="14"/>
       <c r="P574" s="14"/>
@@ -15677,7 +15780,7 @@
       <c r="AD574" s="14"/>
       <c r="AE574" s="14"/>
     </row>
-    <row r="575" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="6"/>
       <c r="O575" s="14"/>
       <c r="P575" s="14"/>
@@ -15697,7 +15800,7 @@
       <c r="AD575" s="14"/>
       <c r="AE575" s="14"/>
     </row>
-    <row r="576" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="6"/>
       <c r="O576" s="14"/>
       <c r="P576" s="14"/>
@@ -15717,7 +15820,7 @@
       <c r="AD576" s="14"/>
       <c r="AE576" s="14"/>
     </row>
-    <row r="577" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="6"/>
       <c r="O577" s="14"/>
       <c r="P577" s="14"/>
@@ -15737,7 +15840,7 @@
       <c r="AD577" s="14"/>
       <c r="AE577" s="14"/>
     </row>
-    <row r="578" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="6"/>
       <c r="O578" s="14"/>
       <c r="P578" s="14"/>
@@ -15757,7 +15860,7 @@
       <c r="AD578" s="14"/>
       <c r="AE578" s="14"/>
     </row>
-    <row r="579" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="6"/>
       <c r="O579" s="14"/>
       <c r="P579" s="14"/>
@@ -15777,7 +15880,7 @@
       <c r="AD579" s="14"/>
       <c r="AE579" s="14"/>
     </row>
-    <row r="580" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="6"/>
       <c r="O580" s="14"/>
       <c r="P580" s="14"/>
@@ -15797,7 +15900,7 @@
       <c r="AD580" s="14"/>
       <c r="AE580" s="14"/>
     </row>
-    <row r="581" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="6"/>
       <c r="O581" s="14"/>
       <c r="P581" s="14"/>
@@ -15817,7 +15920,7 @@
       <c r="AD581" s="14"/>
       <c r="AE581" s="14"/>
     </row>
-    <row r="582" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="6"/>
       <c r="O582" s="14"/>
       <c r="P582" s="14"/>
@@ -15837,7 +15940,7 @@
       <c r="AD582" s="14"/>
       <c r="AE582" s="14"/>
     </row>
-    <row r="583" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
       <c r="O583" s="14"/>
       <c r="P583" s="14"/>
@@ -15857,7 +15960,7 @@
       <c r="AD583" s="14"/>
       <c r="AE583" s="14"/>
     </row>
-    <row r="584" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="6"/>
       <c r="O584" s="14"/>
       <c r="P584" s="14"/>
@@ -15877,7 +15980,7 @@
       <c r="AD584" s="14"/>
       <c r="AE584" s="14"/>
     </row>
-    <row r="585" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="6"/>
       <c r="O585" s="14"/>
       <c r="P585" s="14"/>
@@ -15897,7 +16000,7 @@
       <c r="AD585" s="14"/>
       <c r="AE585" s="14"/>
     </row>
-    <row r="586" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="6"/>
       <c r="O586" s="14"/>
       <c r="P586" s="14"/>
@@ -15917,7 +16020,7 @@
       <c r="AD586" s="14"/>
       <c r="AE586" s="14"/>
     </row>
-    <row r="587" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="6"/>
       <c r="O587" s="14"/>
       <c r="P587" s="14"/>
@@ -15937,7 +16040,7 @@
       <c r="AD587" s="14"/>
       <c r="AE587" s="14"/>
     </row>
-    <row r="588" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="6"/>
       <c r="O588" s="14"/>
       <c r="P588" s="14"/>
@@ -15957,7 +16060,7 @@
       <c r="AD588" s="14"/>
       <c r="AE588" s="14"/>
     </row>
-    <row r="589" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="6"/>
       <c r="O589" s="14"/>
       <c r="P589" s="14"/>
@@ -15977,7 +16080,7 @@
       <c r="AD589" s="14"/>
       <c r="AE589" s="14"/>
     </row>
-    <row r="590" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="6"/>
       <c r="O590" s="14"/>
       <c r="P590" s="14"/>
@@ -15997,7 +16100,7 @@
       <c r="AD590" s="14"/>
       <c r="AE590" s="14"/>
     </row>
-    <row r="591" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="6"/>
       <c r="O591" s="14"/>
       <c r="P591" s="14"/>
@@ -16017,7 +16120,7 @@
       <c r="AD591" s="14"/>
       <c r="AE591" s="14"/>
     </row>
-    <row r="592" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="6"/>
       <c r="O592" s="14"/>
       <c r="P592" s="14"/>
@@ -16037,7 +16140,7 @@
       <c r="AD592" s="14"/>
       <c r="AE592" s="14"/>
     </row>
-    <row r="593" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="6"/>
       <c r="O593" s="14"/>
       <c r="P593" s="14"/>
@@ -16057,7 +16160,7 @@
       <c r="AD593" s="14"/>
       <c r="AE593" s="14"/>
     </row>
-    <row r="594" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="6"/>
       <c r="O594" s="14"/>
       <c r="P594" s="14"/>
@@ -16077,7 +16180,7 @@
       <c r="AD594" s="14"/>
       <c r="AE594" s="14"/>
     </row>
-    <row r="595" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="6"/>
       <c r="O595" s="14"/>
       <c r="P595" s="14"/>
@@ -16097,7 +16200,7 @@
       <c r="AD595" s="14"/>
       <c r="AE595" s="14"/>
     </row>
-    <row r="596" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="6"/>
       <c r="O596" s="14"/>
       <c r="P596" s="14"/>
@@ -16117,7 +16220,7 @@
       <c r="AD596" s="14"/>
       <c r="AE596" s="14"/>
     </row>
-    <row r="597" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="6"/>
       <c r="O597" s="14"/>
       <c r="P597" s="14"/>
@@ -16137,7 +16240,7 @@
       <c r="AD597" s="14"/>
       <c r="AE597" s="14"/>
     </row>
-    <row r="598" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="6"/>
       <c r="O598" s="14"/>
       <c r="P598" s="14"/>
@@ -16157,7 +16260,7 @@
       <c r="AD598" s="14"/>
       <c r="AE598" s="14"/>
     </row>
-    <row r="599" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="6"/>
       <c r="O599" s="14"/>
       <c r="P599" s="14"/>
@@ -16177,7 +16280,7 @@
       <c r="AD599" s="14"/>
       <c r="AE599" s="14"/>
     </row>
-    <row r="600" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="6"/>
       <c r="O600" s="14"/>
       <c r="P600" s="14"/>
@@ -16197,7 +16300,7 @@
       <c r="AD600" s="14"/>
       <c r="AE600" s="14"/>
     </row>
-    <row r="601" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="6"/>
       <c r="O601" s="14"/>
       <c r="P601" s="14"/>
@@ -16217,7 +16320,7 @@
       <c r="AD601" s="14"/>
       <c r="AE601" s="14"/>
     </row>
-    <row r="602" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="6"/>
       <c r="O602" s="14"/>
       <c r="P602" s="14"/>
@@ -16237,7 +16340,7 @@
       <c r="AD602" s="14"/>
       <c r="AE602" s="14"/>
     </row>
-    <row r="603" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="603" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="6"/>
       <c r="O603" s="14"/>
       <c r="P603" s="14"/>
@@ -16257,7 +16360,7 @@
       <c r="AD603" s="14"/>
       <c r="AE603" s="14"/>
     </row>
-    <row r="604" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="604" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="6"/>
       <c r="O604" s="14"/>
       <c r="P604" s="14"/>
@@ -16277,7 +16380,7 @@
       <c r="AD604" s="14"/>
       <c r="AE604" s="14"/>
     </row>
-    <row r="605" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6"/>
       <c r="O605" s="14"/>
       <c r="P605" s="14"/>
@@ -16297,7 +16400,7 @@
       <c r="AD605" s="14"/>
       <c r="AE605" s="14"/>
     </row>
-    <row r="606" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="606" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="6"/>
       <c r="O606" s="14"/>
       <c r="P606" s="14"/>
@@ -16317,7 +16420,7 @@
       <c r="AD606" s="14"/>
       <c r="AE606" s="14"/>
     </row>
-    <row r="607" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="607" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="6"/>
       <c r="O607" s="14"/>
       <c r="P607" s="14"/>
@@ -16337,7 +16440,7 @@
       <c r="AD607" s="14"/>
       <c r="AE607" s="14"/>
     </row>
-    <row r="608" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="6"/>
       <c r="O608" s="14"/>
       <c r="P608" s="14"/>
@@ -16357,7 +16460,7 @@
       <c r="AD608" s="14"/>
       <c r="AE608" s="14"/>
     </row>
-    <row r="609" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="609" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="6"/>
       <c r="O609" s="14"/>
       <c r="P609" s="14"/>
@@ -16377,7 +16480,7 @@
       <c r="AD609" s="14"/>
       <c r="AE609" s="14"/>
     </row>
-    <row r="610" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="610" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="6"/>
       <c r="O610" s="14"/>
       <c r="P610" s="14"/>
@@ -16397,7 +16500,7 @@
       <c r="AD610" s="14"/>
       <c r="AE610" s="14"/>
     </row>
-    <row r="611" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="611" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="6"/>
       <c r="O611" s="14"/>
       <c r="P611" s="14"/>
@@ -16417,7 +16520,7 @@
       <c r="AD611" s="14"/>
       <c r="AE611" s="14"/>
     </row>
-    <row r="612" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="612" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="6"/>
       <c r="O612" s="14"/>
       <c r="P612" s="14"/>
@@ -16437,7 +16540,7 @@
       <c r="AD612" s="14"/>
       <c r="AE612" s="14"/>
     </row>
-    <row r="613" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="613" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="6"/>
       <c r="O613" s="14"/>
       <c r="P613" s="14"/>
@@ -16457,7 +16560,7 @@
       <c r="AD613" s="14"/>
       <c r="AE613" s="14"/>
     </row>
-    <row r="614" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="614" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="6"/>
       <c r="O614" s="14"/>
       <c r="P614" s="14"/>
@@ -16477,7 +16580,7 @@
       <c r="AD614" s="14"/>
       <c r="AE614" s="14"/>
     </row>
-    <row r="615" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="615" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="6"/>
       <c r="O615" s="14"/>
       <c r="P615" s="14"/>
@@ -16497,7 +16600,7 @@
       <c r="AD615" s="14"/>
       <c r="AE615" s="14"/>
     </row>
-    <row r="616" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="6"/>
       <c r="O616" s="14"/>
       <c r="P616" s="14"/>
@@ -16517,7 +16620,7 @@
       <c r="AD616" s="14"/>
       <c r="AE616" s="14"/>
     </row>
-    <row r="617" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="617" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="6"/>
       <c r="O617" s="14"/>
       <c r="P617" s="14"/>
@@ -16537,7 +16640,7 @@
       <c r="AD617" s="14"/>
       <c r="AE617" s="14"/>
     </row>
-    <row r="618" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="618" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="6"/>
       <c r="O618" s="14"/>
       <c r="P618" s="14"/>
@@ -16557,7 +16660,7 @@
       <c r="AD618" s="14"/>
       <c r="AE618" s="14"/>
     </row>
-    <row r="619" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="619" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="6"/>
       <c r="O619" s="14"/>
       <c r="P619" s="14"/>
@@ -16577,7 +16680,7 @@
       <c r="AD619" s="14"/>
       <c r="AE619" s="14"/>
     </row>
-    <row r="620" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="620" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="6"/>
       <c r="O620" s="14"/>
       <c r="P620" s="14"/>
@@ -16597,7 +16700,7 @@
       <c r="AD620" s="14"/>
       <c r="AE620" s="14"/>
     </row>
-    <row r="621" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="621" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="6"/>
       <c r="O621" s="14"/>
       <c r="P621" s="14"/>
@@ -16617,7 +16720,7 @@
       <c r="AD621" s="14"/>
       <c r="AE621" s="14"/>
     </row>
-    <row r="622" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="622" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="6"/>
       <c r="O622" s="14"/>
       <c r="P622" s="14"/>
@@ -16637,7 +16740,7 @@
       <c r="AD622" s="14"/>
       <c r="AE622" s="14"/>
     </row>
-    <row r="623" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="623" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="6"/>
       <c r="O623" s="14"/>
       <c r="P623" s="14"/>
@@ -16657,7 +16760,7 @@
       <c r="AD623" s="14"/>
       <c r="AE623" s="14"/>
     </row>
-    <row r="624" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="6"/>
       <c r="O624" s="14"/>
       <c r="P624" s="14"/>
@@ -16677,7 +16780,7 @@
       <c r="AD624" s="14"/>
       <c r="AE624" s="14"/>
     </row>
-    <row r="625" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="625" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="6"/>
       <c r="O625" s="14"/>
       <c r="P625" s="14"/>
@@ -16697,7 +16800,7 @@
       <c r="AD625" s="14"/>
       <c r="AE625" s="14"/>
     </row>
-    <row r="626" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="626" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="6"/>
       <c r="O626" s="14"/>
       <c r="P626" s="14"/>
@@ -16717,7 +16820,7 @@
       <c r="AD626" s="14"/>
       <c r="AE626" s="14"/>
     </row>
-    <row r="627" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6"/>
       <c r="O627" s="14"/>
       <c r="P627" s="14"/>
@@ -16737,7 +16840,7 @@
       <c r="AD627" s="14"/>
       <c r="AE627" s="14"/>
     </row>
-    <row r="628" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="628" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="6"/>
       <c r="O628" s="14"/>
       <c r="P628" s="14"/>
@@ -16757,7 +16860,7 @@
       <c r="AD628" s="14"/>
       <c r="AE628" s="14"/>
     </row>
-    <row r="629" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="629" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="6"/>
       <c r="O629" s="14"/>
       <c r="P629" s="14"/>
@@ -16777,7 +16880,7 @@
       <c r="AD629" s="14"/>
       <c r="AE629" s="14"/>
     </row>
-    <row r="630" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="630" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="6"/>
       <c r="O630" s="14"/>
       <c r="P630" s="14"/>
@@ -16797,7 +16900,7 @@
       <c r="AD630" s="14"/>
       <c r="AE630" s="14"/>
     </row>
-    <row r="631" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="631" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="6"/>
       <c r="O631" s="14"/>
       <c r="P631" s="14"/>
@@ -16817,7 +16920,7 @@
       <c r="AD631" s="14"/>
       <c r="AE631" s="14"/>
     </row>
-    <row r="632" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="632" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="6"/>
       <c r="O632" s="14"/>
       <c r="P632" s="14"/>
@@ -16837,7 +16940,7 @@
       <c r="AD632" s="14"/>
       <c r="AE632" s="14"/>
     </row>
-    <row r="633" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="633" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="6"/>
       <c r="O633" s="14"/>
       <c r="P633" s="14"/>
@@ -16857,7 +16960,7 @@
       <c r="AD633" s="14"/>
       <c r="AE633" s="14"/>
     </row>
-    <row r="634" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="634" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="6"/>
       <c r="O634" s="14"/>
       <c r="P634" s="14"/>
@@ -16877,7 +16980,7 @@
       <c r="AD634" s="14"/>
       <c r="AE634" s="14"/>
     </row>
-    <row r="635" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="635" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="6"/>
       <c r="O635" s="14"/>
       <c r="P635" s="14"/>
@@ -16897,7 +17000,7 @@
       <c r="AD635" s="14"/>
       <c r="AE635" s="14"/>
     </row>
-    <row r="636" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="636" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="6"/>
       <c r="O636" s="14"/>
       <c r="P636" s="14"/>
@@ -16917,7 +17020,7 @@
       <c r="AD636" s="14"/>
       <c r="AE636" s="14"/>
     </row>
-    <row r="637" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="637" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="6"/>
       <c r="O637" s="14"/>
       <c r="P637" s="14"/>
@@ -16937,7 +17040,7 @@
       <c r="AD637" s="14"/>
       <c r="AE637" s="14"/>
     </row>
-    <row r="638" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="6"/>
       <c r="O638" s="14"/>
       <c r="P638" s="14"/>
@@ -16957,7 +17060,7 @@
       <c r="AD638" s="14"/>
       <c r="AE638" s="14"/>
     </row>
-    <row r="639" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="639" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="6"/>
       <c r="O639" s="14"/>
       <c r="P639" s="14"/>
@@ -16977,7 +17080,7 @@
       <c r="AD639" s="14"/>
       <c r="AE639" s="14"/>
     </row>
-    <row r="640" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="640" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="6"/>
       <c r="O640" s="14"/>
       <c r="P640" s="14"/>
@@ -16997,7 +17100,7 @@
       <c r="AD640" s="14"/>
       <c r="AE640" s="14"/>
     </row>
-    <row r="641" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="641" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="6"/>
       <c r="O641" s="14"/>
       <c r="P641" s="14"/>
@@ -17017,7 +17120,7 @@
       <c r="AD641" s="14"/>
       <c r="AE641" s="14"/>
     </row>
-    <row r="642" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="642" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="6"/>
       <c r="O642" s="14"/>
       <c r="P642" s="14"/>
@@ -17037,7 +17140,7 @@
       <c r="AD642" s="14"/>
       <c r="AE642" s="14"/>
     </row>
-    <row r="643" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="643" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="6"/>
       <c r="O643" s="14"/>
       <c r="P643" s="14"/>
@@ -17057,7 +17160,7 @@
       <c r="AD643" s="14"/>
       <c r="AE643" s="14"/>
     </row>
-    <row r="644" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="644" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="6"/>
       <c r="O644" s="14"/>
       <c r="P644" s="14"/>
@@ -17077,7 +17180,7 @@
       <c r="AD644" s="14"/>
       <c r="AE644" s="14"/>
     </row>
-    <row r="645" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="645" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="6"/>
       <c r="O645" s="14"/>
       <c r="P645" s="14"/>
@@ -17097,7 +17200,7 @@
       <c r="AD645" s="14"/>
       <c r="AE645" s="14"/>
     </row>
-    <row r="646" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="646" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="6"/>
       <c r="O646" s="14"/>
       <c r="P646" s="14"/>
@@ -17117,7 +17220,7 @@
       <c r="AD646" s="14"/>
       <c r="AE646" s="14"/>
     </row>
-    <row r="647" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="647" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="6"/>
       <c r="O647" s="14"/>
       <c r="P647" s="14"/>
@@ -17137,7 +17240,7 @@
       <c r="AD647" s="14"/>
       <c r="AE647" s="14"/>
     </row>
-    <row r="648" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="648" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="6"/>
       <c r="O648" s="14"/>
       <c r="P648" s="14"/>
@@ -17157,7 +17260,7 @@
       <c r="AD648" s="14"/>
       <c r="AE648" s="14"/>
     </row>
-    <row r="649" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6"/>
       <c r="O649" s="14"/>
       <c r="P649" s="14"/>
@@ -17177,7 +17280,7 @@
       <c r="AD649" s="14"/>
       <c r="AE649" s="14"/>
     </row>
-    <row r="650" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="650" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="6"/>
       <c r="O650" s="14"/>
       <c r="P650" s="14"/>
@@ -17197,7 +17300,7 @@
       <c r="AD650" s="14"/>
       <c r="AE650" s="14"/>
     </row>
-    <row r="651" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="651" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="6"/>
       <c r="O651" s="14"/>
       <c r="P651" s="14"/>
@@ -17217,7 +17320,7 @@
       <c r="AD651" s="14"/>
       <c r="AE651" s="14"/>
     </row>
-    <row r="652" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="652" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="6"/>
       <c r="O652" s="14"/>
       <c r="P652" s="14"/>
@@ -17237,7 +17340,7 @@
       <c r="AD652" s="14"/>
       <c r="AE652" s="14"/>
     </row>
-    <row r="653" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="653" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="6"/>
       <c r="O653" s="14"/>
       <c r="P653" s="14"/>
@@ -17257,7 +17360,7 @@
       <c r="AD653" s="14"/>
       <c r="AE653" s="14"/>
     </row>
-    <row r="654" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="654" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="6"/>
       <c r="O654" s="14"/>
       <c r="P654" s="14"/>
@@ -17277,7 +17380,7 @@
       <c r="AD654" s="14"/>
       <c r="AE654" s="14"/>
     </row>
-    <row r="655" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="655" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="6"/>
       <c r="O655" s="14"/>
       <c r="P655" s="14"/>
@@ -17297,7 +17400,7 @@
       <c r="AD655" s="14"/>
       <c r="AE655" s="14"/>
     </row>
-    <row r="656" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="6"/>
       <c r="O656" s="14"/>
       <c r="P656" s="14"/>
@@ -17317,7 +17420,7 @@
       <c r="AD656" s="14"/>
       <c r="AE656" s="14"/>
     </row>
-    <row r="657" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="657" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="6"/>
       <c r="O657" s="14"/>
       <c r="P657" s="14"/>
@@ -17337,7 +17440,7 @@
       <c r="AD657" s="14"/>
       <c r="AE657" s="14"/>
     </row>
-    <row r="658" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="658" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="6"/>
       <c r="O658" s="14"/>
       <c r="P658" s="14"/>
@@ -17357,7 +17460,7 @@
       <c r="AD658" s="14"/>
       <c r="AE658" s="14"/>
     </row>
-    <row r="659" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="659" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="6"/>
       <c r="O659" s="14"/>
       <c r="P659" s="14"/>
@@ -17377,7 +17480,7 @@
       <c r="AD659" s="14"/>
       <c r="AE659" s="14"/>
     </row>
-    <row r="660" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="6"/>
       <c r="O660" s="14"/>
       <c r="P660" s="14"/>
@@ -17397,7 +17500,7 @@
       <c r="AD660" s="14"/>
       <c r="AE660" s="14"/>
     </row>
-    <row r="661" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="661" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="6"/>
       <c r="O661" s="14"/>
       <c r="P661" s="14"/>
@@ -17417,7 +17520,7 @@
       <c r="AD661" s="14"/>
       <c r="AE661" s="14"/>
     </row>
-    <row r="662" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="662" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="6"/>
       <c r="O662" s="14"/>
       <c r="P662" s="14"/>
@@ -17437,7 +17540,7 @@
       <c r="AD662" s="14"/>
       <c r="AE662" s="14"/>
     </row>
-    <row r="663" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="663" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="6"/>
       <c r="O663" s="14"/>
       <c r="P663" s="14"/>
@@ -17457,7 +17560,7 @@
       <c r="AD663" s="14"/>
       <c r="AE663" s="14"/>
     </row>
-    <row r="664" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="664" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="6"/>
       <c r="O664" s="14"/>
       <c r="P664" s="14"/>
@@ -17477,7 +17580,7 @@
       <c r="AD664" s="14"/>
       <c r="AE664" s="14"/>
     </row>
-    <row r="665" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="665" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="6"/>
       <c r="O665" s="14"/>
       <c r="P665" s="14"/>
@@ -17497,7 +17600,7 @@
       <c r="AD665" s="14"/>
       <c r="AE665" s="14"/>
     </row>
-    <row r="666" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="666" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="6"/>
       <c r="O666" s="14"/>
       <c r="P666" s="14"/>
@@ -17517,7 +17620,7 @@
       <c r="AD666" s="14"/>
       <c r="AE666" s="14"/>
     </row>
-    <row r="667" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="667" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="6"/>
       <c r="O667" s="14"/>
       <c r="P667" s="14"/>
@@ -17537,7 +17640,7 @@
       <c r="AD667" s="14"/>
       <c r="AE667" s="14"/>
     </row>
-    <row r="668" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="668" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="6"/>
       <c r="O668" s="14"/>
       <c r="P668" s="14"/>
@@ -17557,7 +17660,7 @@
       <c r="AD668" s="14"/>
       <c r="AE668" s="14"/>
     </row>
-    <row r="669" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="669" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="6"/>
       <c r="O669" s="14"/>
       <c r="P669" s="14"/>
@@ -17577,7 +17680,7 @@
       <c r="AD669" s="14"/>
       <c r="AE669" s="14"/>
     </row>
-    <row r="670" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="670" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="6"/>
       <c r="O670" s="14"/>
       <c r="P670" s="14"/>
@@ -17597,7 +17700,7 @@
       <c r="AD670" s="14"/>
       <c r="AE670" s="14"/>
     </row>
-    <row r="671" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="671" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6"/>
       <c r="O671" s="14"/>
       <c r="P671" s="14"/>
@@ -17617,7 +17720,7 @@
       <c r="AD671" s="14"/>
       <c r="AE671" s="14"/>
     </row>
-    <row r="672" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="672" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="6"/>
       <c r="O672" s="14"/>
       <c r="P672" s="14"/>
@@ -17637,7 +17740,7 @@
       <c r="AD672" s="14"/>
       <c r="AE672" s="14"/>
     </row>
-    <row r="673" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="673" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="6"/>
       <c r="O673" s="14"/>
       <c r="P673" s="14"/>
@@ -17657,7 +17760,7 @@
       <c r="AD673" s="14"/>
       <c r="AE673" s="14"/>
     </row>
-    <row r="674" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="674" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="6"/>
       <c r="O674" s="14"/>
       <c r="P674" s="14"/>
@@ -17677,7 +17780,7 @@
       <c r="AD674" s="14"/>
       <c r="AE674" s="14"/>
     </row>
-    <row r="675" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="675" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="6"/>
       <c r="O675" s="14"/>
       <c r="P675" s="14"/>
@@ -17697,7 +17800,7 @@
       <c r="AD675" s="14"/>
       <c r="AE675" s="14"/>
     </row>
-    <row r="676" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="676" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="6"/>
       <c r="O676" s="14"/>
       <c r="P676" s="14"/>
@@ -17717,7 +17820,7 @@
       <c r="AD676" s="14"/>
       <c r="AE676" s="14"/>
     </row>
-    <row r="677" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="677" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="6"/>
       <c r="O677" s="14"/>
       <c r="P677" s="14"/>
@@ -17737,7 +17840,7 @@
       <c r="AD677" s="14"/>
       <c r="AE677" s="14"/>
     </row>
-    <row r="678" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="678" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="6"/>
       <c r="O678" s="14"/>
       <c r="P678" s="14"/>
@@ -17757,7 +17860,7 @@
       <c r="AD678" s="14"/>
       <c r="AE678" s="14"/>
     </row>
-    <row r="679" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="679" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="6"/>
       <c r="O679" s="14"/>
       <c r="P679" s="14"/>
@@ -17777,7 +17880,7 @@
       <c r="AD679" s="14"/>
       <c r="AE679" s="14"/>
     </row>
-    <row r="680" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="680" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="6"/>
       <c r="O680" s="14"/>
       <c r="P680" s="14"/>
@@ -17797,7 +17900,7 @@
       <c r="AD680" s="14"/>
       <c r="AE680" s="14"/>
     </row>
-    <row r="681" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="681" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="6"/>
       <c r="O681" s="14"/>
       <c r="P681" s="14"/>
@@ -17817,7 +17920,7 @@
       <c r="AD681" s="14"/>
       <c r="AE681" s="14"/>
     </row>
-    <row r="682" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="682" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="6"/>
       <c r="O682" s="14"/>
       <c r="P682" s="14"/>
@@ -17837,7 +17940,7 @@
       <c r="AD682" s="14"/>
       <c r="AE682" s="14"/>
     </row>
-    <row r="683" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="683" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="6"/>
       <c r="O683" s="14"/>
       <c r="P683" s="14"/>
@@ -17857,7 +17960,7 @@
       <c r="AD683" s="14"/>
       <c r="AE683" s="14"/>
     </row>
-    <row r="684" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="684" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="6"/>
       <c r="O684" s="14"/>
       <c r="P684" s="14"/>
@@ -17877,7 +17980,7 @@
       <c r="AD684" s="14"/>
       <c r="AE684" s="14"/>
     </row>
-    <row r="685" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="685" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="6"/>
       <c r="O685" s="14"/>
       <c r="P685" s="14"/>
@@ -17897,7 +18000,7 @@
       <c r="AD685" s="14"/>
       <c r="AE685" s="14"/>
     </row>
-    <row r="686" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="686" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="6"/>
       <c r="O686" s="14"/>
       <c r="P686" s="14"/>
@@ -17917,7 +18020,7 @@
       <c r="AD686" s="14"/>
       <c r="AE686" s="14"/>
     </row>
-    <row r="687" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="687" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="6"/>
       <c r="O687" s="14"/>
       <c r="P687" s="14"/>
@@ -17937,7 +18040,7 @@
       <c r="AD687" s="14"/>
       <c r="AE687" s="14"/>
     </row>
-    <row r="688" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="6"/>
       <c r="O688" s="14"/>
       <c r="P688" s="14"/>
@@ -17957,7 +18060,7 @@
       <c r="AD688" s="14"/>
       <c r="AE688" s="14"/>
     </row>
-    <row r="689" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="689" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="6"/>
       <c r="O689" s="14"/>
       <c r="P689" s="14"/>
@@ -17977,7 +18080,7 @@
       <c r="AD689" s="14"/>
       <c r="AE689" s="14"/>
     </row>
-    <row r="690" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="690" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="6"/>
       <c r="O690" s="14"/>
       <c r="P690" s="14"/>
@@ -17997,7 +18100,7 @@
       <c r="AD690" s="14"/>
       <c r="AE690" s="14"/>
     </row>
-    <row r="691" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="691" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="6"/>
       <c r="O691" s="14"/>
       <c r="P691" s="14"/>
@@ -18017,7 +18120,7 @@
       <c r="AD691" s="14"/>
       <c r="AE691" s="14"/>
     </row>
-    <row r="692" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="692" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="6"/>
       <c r="O692" s="14"/>
       <c r="P692" s="14"/>
@@ -18037,7 +18140,7 @@
       <c r="AD692" s="14"/>
       <c r="AE692" s="14"/>
     </row>
-    <row r="693" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="693" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6"/>
       <c r="O693" s="14"/>
       <c r="P693" s="14"/>
@@ -18057,7 +18160,7 @@
       <c r="AD693" s="14"/>
       <c r="AE693" s="14"/>
     </row>
-    <row r="694" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="694" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="6"/>
       <c r="O694" s="14"/>
       <c r="P694" s="14"/>
@@ -18077,7 +18180,7 @@
       <c r="AD694" s="14"/>
       <c r="AE694" s="14"/>
     </row>
-    <row r="695" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="695" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="6"/>
       <c r="O695" s="14"/>
       <c r="P695" s="14"/>
@@ -18097,7 +18200,7 @@
       <c r="AD695" s="14"/>
       <c r="AE695" s="14"/>
     </row>
-    <row r="696" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="696" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="6"/>
       <c r="O696" s="14"/>
       <c r="P696" s="14"/>
@@ -18117,7 +18220,7 @@
       <c r="AD696" s="14"/>
       <c r="AE696" s="14"/>
     </row>
-    <row r="697" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="697" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="6"/>
       <c r="O697" s="14"/>
       <c r="P697" s="14"/>
@@ -18137,7 +18240,7 @@
       <c r="AD697" s="14"/>
       <c r="AE697" s="14"/>
     </row>
-    <row r="698" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="698" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="6"/>
       <c r="O698" s="14"/>
       <c r="P698" s="14"/>
@@ -18157,7 +18260,7 @@
       <c r="AD698" s="14"/>
       <c r="AE698" s="14"/>
     </row>
-    <row r="699" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="699" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="6"/>
       <c r="O699" s="14"/>
       <c r="P699" s="14"/>
@@ -18177,7 +18280,7 @@
       <c r="AD699" s="14"/>
       <c r="AE699" s="14"/>
     </row>
-    <row r="700" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="700" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="6"/>
       <c r="O700" s="14"/>
       <c r="P700" s="14"/>
@@ -18197,7 +18300,7 @@
       <c r="AD700" s="14"/>
       <c r="AE700" s="14"/>
     </row>
-    <row r="701" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="701" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="6"/>
       <c r="O701" s="14"/>
       <c r="P701" s="14"/>
@@ -18217,7 +18320,7 @@
       <c r="AD701" s="14"/>
       <c r="AE701" s="14"/>
     </row>
-    <row r="702" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="702" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="6"/>
       <c r="O702" s="14"/>
       <c r="P702" s="14"/>
@@ -18237,7 +18340,7 @@
       <c r="AD702" s="14"/>
       <c r="AE702" s="14"/>
     </row>
-    <row r="703" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="703" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="6"/>
       <c r="O703" s="14"/>
       <c r="P703" s="14"/>
@@ -18257,7 +18360,7 @@
       <c r="AD703" s="14"/>
       <c r="AE703" s="14"/>
     </row>
-    <row r="704" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="6"/>
       <c r="O704" s="14"/>
       <c r="P704" s="14"/>
@@ -18277,7 +18380,7 @@
       <c r="AD704" s="14"/>
       <c r="AE704" s="14"/>
     </row>
-    <row r="705" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="705" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="6"/>
       <c r="O705" s="14"/>
       <c r="P705" s="14"/>
@@ -18297,7 +18400,7 @@
       <c r="AD705" s="14"/>
       <c r="AE705" s="14"/>
     </row>
-    <row r="706" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="706" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="6"/>
       <c r="O706" s="14"/>
       <c r="P706" s="14"/>
@@ -18317,7 +18420,7 @@
       <c r="AD706" s="14"/>
       <c r="AE706" s="14"/>
     </row>
-    <row r="707" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="707" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="6"/>
       <c r="O707" s="14"/>
       <c r="P707" s="14"/>
@@ -18337,7 +18440,7 @@
       <c r="AD707" s="14"/>
       <c r="AE707" s="14"/>
     </row>
-    <row r="708" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="708" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="6"/>
       <c r="O708" s="14"/>
       <c r="P708" s="14"/>
@@ -18357,7 +18460,7 @@
       <c r="AD708" s="14"/>
       <c r="AE708" s="14"/>
     </row>
-    <row r="709" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="709" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="6"/>
       <c r="O709" s="14"/>
       <c r="P709" s="14"/>
@@ -18377,7 +18480,7 @@
       <c r="AD709" s="14"/>
       <c r="AE709" s="14"/>
     </row>
-    <row r="710" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="710" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="6"/>
       <c r="O710" s="14"/>
       <c r="P710" s="14"/>
@@ -18397,7 +18500,7 @@
       <c r="AD710" s="14"/>
       <c r="AE710" s="14"/>
     </row>
-    <row r="711" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="711" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="6"/>
       <c r="O711" s="14"/>
       <c r="P711" s="14"/>
@@ -18417,7 +18520,7 @@
       <c r="AD711" s="14"/>
       <c r="AE711" s="14"/>
     </row>
-    <row r="712" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="712" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="6"/>
       <c r="O712" s="14"/>
       <c r="P712" s="14"/>
@@ -18437,7 +18540,7 @@
       <c r="AD712" s="14"/>
       <c r="AE712" s="14"/>
     </row>
-    <row r="713" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="713" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="6"/>
       <c r="O713" s="14"/>
       <c r="P713" s="14"/>
@@ -18457,7 +18560,7 @@
       <c r="AD713" s="14"/>
       <c r="AE713" s="14"/>
     </row>
-    <row r="714" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="714" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="6"/>
       <c r="O714" s="14"/>
       <c r="P714" s="14"/>
@@ -18477,7 +18580,7 @@
       <c r="AD714" s="14"/>
       <c r="AE714" s="14"/>
     </row>
-    <row r="715" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="715" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6"/>
       <c r="O715" s="14"/>
       <c r="P715" s="14"/>
@@ -18497,7 +18600,7 @@
       <c r="AD715" s="14"/>
       <c r="AE715" s="14"/>
     </row>
-    <row r="716" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="716" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="6"/>
       <c r="O716" s="14"/>
       <c r="P716" s="14"/>
@@ -18517,7 +18620,7 @@
       <c r="AD716" s="14"/>
       <c r="AE716" s="14"/>
     </row>
-    <row r="717" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="717" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="6"/>
       <c r="O717" s="14"/>
       <c r="P717" s="14"/>
@@ -18537,7 +18640,7 @@
       <c r="AD717" s="14"/>
       <c r="AE717" s="14"/>
     </row>
-    <row r="718" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="718" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="6"/>
       <c r="O718" s="14"/>
       <c r="P718" s="14"/>
@@ -18557,7 +18660,7 @@
       <c r="AD718" s="14"/>
       <c r="AE718" s="14"/>
     </row>
-    <row r="719" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="719" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="6"/>
       <c r="O719" s="14"/>
       <c r="P719" s="14"/>
@@ -18577,7 +18680,7 @@
       <c r="AD719" s="14"/>
       <c r="AE719" s="14"/>
     </row>
-    <row r="720" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="6"/>
       <c r="O720" s="14"/>
       <c r="P720" s="14"/>
@@ -18597,7 +18700,7 @@
       <c r="AD720" s="14"/>
       <c r="AE720" s="14"/>
     </row>
-    <row r="721" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="721" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="6"/>
       <c r="O721" s="14"/>
       <c r="P721" s="14"/>
@@ -18617,7 +18720,7 @@
       <c r="AD721" s="14"/>
       <c r="AE721" s="14"/>
     </row>
-    <row r="722" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="722" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="6"/>
       <c r="O722" s="14"/>
       <c r="P722" s="14"/>
@@ -18637,7 +18740,7 @@
       <c r="AD722" s="14"/>
       <c r="AE722" s="14"/>
     </row>
-    <row r="723" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="723" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6"/>
       <c r="O723" s="14"/>
       <c r="P723" s="14"/>
@@ -18657,7 +18760,7 @@
       <c r="AD723" s="14"/>
       <c r="AE723" s="14"/>
     </row>
-    <row r="724" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="724" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="6"/>
       <c r="O724" s="14"/>
       <c r="P724" s="14"/>
@@ -18677,7 +18780,7 @@
       <c r="AD724" s="14"/>
       <c r="AE724" s="14"/>
     </row>
-    <row r="725" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="725" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="6"/>
       <c r="O725" s="14"/>
       <c r="P725" s="14"/>
@@ -18697,7 +18800,7 @@
       <c r="AD725" s="14"/>
       <c r="AE725" s="14"/>
     </row>
-    <row r="726" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="726" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="6"/>
       <c r="O726" s="14"/>
       <c r="P726" s="14"/>
@@ -18717,7 +18820,7 @@
       <c r="AD726" s="14"/>
       <c r="AE726" s="14"/>
     </row>
-    <row r="727" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="727" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="6"/>
       <c r="O727" s="14"/>
       <c r="P727" s="14"/>
@@ -18737,7 +18840,7 @@
       <c r="AD727" s="14"/>
       <c r="AE727" s="14"/>
     </row>
-    <row r="728" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="728" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="6"/>
       <c r="O728" s="14"/>
       <c r="P728" s="14"/>
@@ -18757,7 +18860,7 @@
       <c r="AD728" s="14"/>
       <c r="AE728" s="14"/>
     </row>
-    <row r="729" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="729" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="6"/>
       <c r="O729" s="14"/>
       <c r="P729" s="14"/>
@@ -18777,7 +18880,7 @@
       <c r="AD729" s="14"/>
       <c r="AE729" s="14"/>
     </row>
-    <row r="730" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="730" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="6"/>
       <c r="O730" s="14"/>
       <c r="P730" s="14"/>
@@ -18797,7 +18900,7 @@
       <c r="AD730" s="14"/>
       <c r="AE730" s="14"/>
     </row>
-    <row r="731" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="731" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="6"/>
       <c r="O731" s="14"/>
       <c r="P731" s="14"/>
@@ -18817,7 +18920,7 @@
       <c r="AD731" s="14"/>
       <c r="AE731" s="14"/>
     </row>
-    <row r="732" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="732" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="6"/>
       <c r="O732" s="14"/>
       <c r="P732" s="14"/>
@@ -18837,7 +18940,7 @@
       <c r="AD732" s="14"/>
       <c r="AE732" s="14"/>
     </row>
-    <row r="733" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="733" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="6"/>
       <c r="O733" s="14"/>
       <c r="P733" s="14"/>
@@ -18857,7 +18960,7 @@
       <c r="AD733" s="14"/>
       <c r="AE733" s="14"/>
     </row>
-    <row r="734" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="734" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="6"/>
       <c r="O734" s="14"/>
       <c r="P734" s="14"/>
@@ -18877,7 +18980,7 @@
       <c r="AD734" s="14"/>
       <c r="AE734" s="14"/>
     </row>
-    <row r="735" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="735" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="6"/>
       <c r="O735" s="14"/>
       <c r="P735" s="14"/>
@@ -18897,7 +19000,7 @@
       <c r="AD735" s="14"/>
       <c r="AE735" s="14"/>
     </row>
-    <row r="736" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="736" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="6"/>
       <c r="O736" s="14"/>
       <c r="P736" s="14"/>
@@ -18917,7 +19020,7 @@
       <c r="AD736" s="14"/>
       <c r="AE736" s="14"/>
     </row>
-    <row r="737" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="737" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6"/>
       <c r="O737" s="14"/>
       <c r="P737" s="14"/>
@@ -18937,7 +19040,7 @@
       <c r="AD737" s="14"/>
       <c r="AE737" s="14"/>
     </row>
-    <row r="738" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="738" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="6"/>
       <c r="O738" s="14"/>
       <c r="P738" s="14"/>
@@ -18957,7 +19060,7 @@
       <c r="AD738" s="14"/>
       <c r="AE738" s="14"/>
     </row>
-    <row r="739" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="739" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="6"/>
       <c r="O739" s="14"/>
       <c r="P739" s="14"/>
@@ -18977,7 +19080,7 @@
       <c r="AD739" s="14"/>
       <c r="AE739" s="14"/>
     </row>
-    <row r="740" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="740" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="6"/>
       <c r="O740" s="14"/>
       <c r="P740" s="14"/>
@@ -18997,7 +19100,7 @@
       <c r="AD740" s="14"/>
       <c r="AE740" s="14"/>
     </row>
-    <row r="741" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="741" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="6"/>
       <c r="O741" s="14"/>
       <c r="P741" s="14"/>
@@ -19017,7 +19120,7 @@
       <c r="AD741" s="14"/>
       <c r="AE741" s="14"/>
     </row>
-    <row r="742" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="742" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="6"/>
       <c r="O742" s="14"/>
       <c r="P742" s="14"/>
@@ -19037,7 +19140,7 @@
       <c r="AD742" s="14"/>
       <c r="AE742" s="14"/>
     </row>
-    <row r="743" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="743" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="6"/>
       <c r="O743" s="14"/>
       <c r="P743" s="14"/>
@@ -19057,7 +19160,7 @@
       <c r="AD743" s="14"/>
       <c r="AE743" s="14"/>
     </row>
-    <row r="744" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="744" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="6"/>
       <c r="O744" s="14"/>
       <c r="P744" s="14"/>
@@ -19077,7 +19180,7 @@
       <c r="AD744" s="14"/>
       <c r="AE744" s="14"/>
     </row>
-    <row r="745" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="745" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="6"/>
       <c r="O745" s="14"/>
       <c r="P745" s="14"/>
@@ -19097,7 +19200,7 @@
       <c r="AD745" s="14"/>
       <c r="AE745" s="14"/>
     </row>
-    <row r="746" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="746" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="6"/>
       <c r="O746" s="14"/>
       <c r="P746" s="14"/>
@@ -19117,7 +19220,7 @@
       <c r="AD746" s="14"/>
       <c r="AE746" s="14"/>
     </row>
-    <row r="747" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="747" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="6"/>
       <c r="O747" s="14"/>
       <c r="P747" s="14"/>
@@ -19137,7 +19240,7 @@
       <c r="AD747" s="14"/>
       <c r="AE747" s="14"/>
     </row>
-    <row r="748" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="748" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="6"/>
       <c r="O748" s="14"/>
       <c r="P748" s="14"/>
@@ -19157,7 +19260,7 @@
       <c r="AD748" s="14"/>
       <c r="AE748" s="14"/>
     </row>
-    <row r="749" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="749" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="6"/>
       <c r="O749" s="14"/>
       <c r="P749" s="14"/>
@@ -19177,7 +19280,7 @@
       <c r="AD749" s="14"/>
       <c r="AE749" s="14"/>
     </row>
-    <row r="750" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="750" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="6"/>
       <c r="O750" s="14"/>
       <c r="P750" s="14"/>
@@ -19197,7 +19300,7 @@
       <c r="AD750" s="14"/>
       <c r="AE750" s="14"/>
     </row>
-    <row r="751" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="751" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="6"/>
       <c r="O751" s="14"/>
       <c r="P751" s="14"/>
@@ -19217,7 +19320,7 @@
       <c r="AD751" s="14"/>
       <c r="AE751" s="14"/>
     </row>
-    <row r="752" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="752" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="6"/>
       <c r="O752" s="14"/>
       <c r="P752" s="14"/>
@@ -19237,7 +19340,7 @@
       <c r="AD752" s="14"/>
       <c r="AE752" s="14"/>
     </row>
-    <row r="753" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="753" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="6"/>
       <c r="O753" s="14"/>
       <c r="P753" s="14"/>
@@ -19257,7 +19360,7 @@
       <c r="AD753" s="14"/>
       <c r="AE753" s="14"/>
     </row>
-    <row r="754" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="754" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="6"/>
       <c r="O754" s="14"/>
       <c r="P754" s="14"/>
@@ -19277,7 +19380,7 @@
       <c r="AD754" s="14"/>
       <c r="AE754" s="14"/>
     </row>
-    <row r="755" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="755" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="6"/>
       <c r="O755" s="14"/>
       <c r="P755" s="14"/>
@@ -19297,7 +19400,7 @@
       <c r="AD755" s="14"/>
       <c r="AE755" s="14"/>
     </row>
-    <row r="756" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="756" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="6"/>
       <c r="O756" s="14"/>
       <c r="P756" s="14"/>
@@ -19317,7 +19420,7 @@
       <c r="AD756" s="14"/>
       <c r="AE756" s="14"/>
     </row>
-    <row r="757" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="757" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="6"/>
       <c r="O757" s="14"/>
       <c r="P757" s="14"/>
@@ -19337,7 +19440,7 @@
       <c r="AD757" s="14"/>
       <c r="AE757" s="14"/>
     </row>
-    <row r="758" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="758" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="6"/>
       <c r="O758" s="14"/>
       <c r="P758" s="14"/>
@@ -19357,7 +19460,7 @@
       <c r="AD758" s="14"/>
       <c r="AE758" s="14"/>
     </row>
-    <row r="759" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="759" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6"/>
       <c r="O759" s="14"/>
       <c r="P759" s="14"/>
@@ -19377,7 +19480,7 @@
       <c r="AD759" s="14"/>
       <c r="AE759" s="14"/>
     </row>
-    <row r="760" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="760" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="6"/>
       <c r="O760" s="14"/>
       <c r="P760" s="14"/>
@@ -19397,7 +19500,7 @@
       <c r="AD760" s="14"/>
       <c r="AE760" s="14"/>
     </row>
-    <row r="761" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="761" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="6"/>
       <c r="O761" s="14"/>
       <c r="P761" s="14"/>
@@ -19417,7 +19520,7 @@
       <c r="AD761" s="14"/>
       <c r="AE761" s="14"/>
     </row>
-    <row r="762" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="762" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="6"/>
       <c r="O762" s="14"/>
       <c r="P762" s="14"/>
@@ -19437,7 +19540,7 @@
       <c r="AD762" s="14"/>
       <c r="AE762" s="14"/>
     </row>
-    <row r="763" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="763" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="6"/>
       <c r="O763" s="14"/>
       <c r="P763" s="14"/>
@@ -19457,7 +19560,7 @@
       <c r="AD763" s="14"/>
       <c r="AE763" s="14"/>
     </row>
-    <row r="764" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="764" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="6"/>
       <c r="O764" s="14"/>
       <c r="P764" s="14"/>
@@ -19477,7 +19580,7 @@
       <c r="AD764" s="14"/>
       <c r="AE764" s="14"/>
     </row>
-    <row r="765" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="765" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="6"/>
       <c r="O765" s="14"/>
       <c r="P765" s="14"/>
@@ -19497,7 +19600,7 @@
       <c r="AD765" s="14"/>
       <c r="AE765" s="14"/>
     </row>
-    <row r="766" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="766" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="6"/>
       <c r="O766" s="14"/>
       <c r="P766" s="14"/>
@@ -19517,7 +19620,7 @@
       <c r="AD766" s="14"/>
       <c r="AE766" s="14"/>
     </row>
-    <row r="767" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="767" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="6"/>
       <c r="O767" s="14"/>
       <c r="P767" s="14"/>
@@ -19537,7 +19640,7 @@
       <c r="AD767" s="14"/>
       <c r="AE767" s="14"/>
     </row>
-    <row r="768" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="6"/>
       <c r="O768" s="14"/>
       <c r="P768" s="14"/>
@@ -19557,7 +19660,7 @@
       <c r="AD768" s="14"/>
       <c r="AE768" s="14"/>
     </row>
-    <row r="769" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="769" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="6"/>
       <c r="O769" s="14"/>
       <c r="P769" s="14"/>
@@ -19577,7 +19680,7 @@
       <c r="AD769" s="14"/>
       <c r="AE769" s="14"/>
     </row>
-    <row r="770" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="770" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="6"/>
       <c r="O770" s="14"/>
       <c r="P770" s="14"/>
@@ -19597,7 +19700,7 @@
       <c r="AD770" s="14"/>
       <c r="AE770" s="14"/>
     </row>
-    <row r="771" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="771" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="6"/>
       <c r="O771" s="14"/>
       <c r="P771" s="14"/>
@@ -19617,7 +19720,7 @@
       <c r="AD771" s="14"/>
       <c r="AE771" s="14"/>
     </row>
-    <row r="772" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="772" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="6"/>
       <c r="O772" s="14"/>
       <c r="P772" s="14"/>
@@ -19637,7 +19740,7 @@
       <c r="AD772" s="14"/>
       <c r="AE772" s="14"/>
     </row>
-    <row r="773" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="773" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="6"/>
       <c r="O773" s="14"/>
       <c r="P773" s="14"/>
@@ -19657,7 +19760,7 @@
       <c r="AD773" s="14"/>
       <c r="AE773" s="14"/>
     </row>
-    <row r="774" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="774" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="6"/>
       <c r="O774" s="14"/>
       <c r="P774" s="14"/>
@@ -19677,7 +19780,7 @@
       <c r="AD774" s="14"/>
       <c r="AE774" s="14"/>
     </row>
-    <row r="775" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="775" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="6"/>
       <c r="O775" s="14"/>
       <c r="P775" s="14"/>
@@ -19697,7 +19800,7 @@
       <c r="AD775" s="14"/>
       <c r="AE775" s="14"/>
     </row>
-    <row r="776" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="776" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="6"/>
       <c r="O776" s="14"/>
       <c r="P776" s="14"/>
@@ -19717,7 +19820,7 @@
       <c r="AD776" s="14"/>
       <c r="AE776" s="14"/>
     </row>
-    <row r="777" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="777" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="6"/>
       <c r="O777" s="14"/>
       <c r="P777" s="14"/>
@@ -19737,7 +19840,7 @@
       <c r="AD777" s="14"/>
       <c r="AE777" s="14"/>
     </row>
-    <row r="778" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="778" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="6"/>
       <c r="O778" s="14"/>
       <c r="P778" s="14"/>
@@ -19757,7 +19860,7 @@
       <c r="AD778" s="14"/>
       <c r="AE778" s="14"/>
     </row>
-    <row r="779" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="779" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="6"/>
       <c r="O779" s="14"/>
       <c r="P779" s="14"/>
@@ -19777,7 +19880,7 @@
       <c r="AD779" s="14"/>
       <c r="AE779" s="14"/>
     </row>
-    <row r="780" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="780" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="6"/>
       <c r="O780" s="14"/>
       <c r="P780" s="14"/>
@@ -19797,7 +19900,7 @@
       <c r="AD780" s="14"/>
       <c r="AE780" s="14"/>
     </row>
-    <row r="781" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="781" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6"/>
       <c r="O781" s="14"/>
       <c r="P781" s="14"/>
@@ -19817,7 +19920,7 @@
       <c r="AD781" s="14"/>
       <c r="AE781" s="14"/>
     </row>
-    <row r="782" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="782" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="6"/>
       <c r="O782" s="14"/>
       <c r="P782" s="14"/>
@@ -19837,7 +19940,7 @@
       <c r="AD782" s="14"/>
       <c r="AE782" s="14"/>
     </row>
-    <row r="783" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="783" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="6"/>
       <c r="O783" s="14"/>
       <c r="P783" s="14"/>
@@ -19857,7 +19960,7 @@
       <c r="AD783" s="14"/>
       <c r="AE783" s="14"/>
     </row>
-    <row r="784" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="6"/>
       <c r="O784" s="14"/>
       <c r="P784" s="14"/>
@@ -19877,7 +19980,7 @@
       <c r="AD784" s="14"/>
       <c r="AE784" s="14"/>
     </row>
-    <row r="785" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="785" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="6"/>
       <c r="O785" s="14"/>
       <c r="P785" s="14"/>
@@ -19897,7 +20000,7 @@
       <c r="AD785" s="14"/>
       <c r="AE785" s="14"/>
     </row>
-    <row r="786" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="786" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="6"/>
       <c r="O786" s="14"/>
       <c r="P786" s="14"/>
@@ -19917,7 +20020,7 @@
       <c r="AD786" s="14"/>
       <c r="AE786" s="14"/>
     </row>
-    <row r="787" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="787" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="6"/>
       <c r="O787" s="14"/>
       <c r="P787" s="14"/>
@@ -19937,7 +20040,7 @@
       <c r="AD787" s="14"/>
       <c r="AE787" s="14"/>
     </row>
-    <row r="788" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="788" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="6"/>
       <c r="O788" s="14"/>
       <c r="P788" s="14"/>
@@ -19957,7 +20060,7 @@
       <c r="AD788" s="14"/>
       <c r="AE788" s="14"/>
     </row>
-    <row r="789" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="789" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="6"/>
       <c r="O789" s="14"/>
       <c r="P789" s="14"/>
@@ -19977,7 +20080,7 @@
       <c r="AD789" s="14"/>
       <c r="AE789" s="14"/>
     </row>
-    <row r="790" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="790" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="6"/>
       <c r="O790" s="14"/>
       <c r="P790" s="14"/>
@@ -19997,7 +20100,7 @@
       <c r="AD790" s="14"/>
       <c r="AE790" s="14"/>
     </row>
-    <row r="791" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="791" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="6"/>
       <c r="O791" s="14"/>
       <c r="P791" s="14"/>
@@ -20017,7 +20120,7 @@
       <c r="AD791" s="14"/>
       <c r="AE791" s="14"/>
     </row>
-    <row r="792" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="792" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="6"/>
       <c r="O792" s="14"/>
       <c r="P792" s="14"/>
@@ -20037,7 +20140,7 @@
       <c r="AD792" s="14"/>
       <c r="AE792" s="14"/>
     </row>
-    <row r="793" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="793" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="6"/>
       <c r="O793" s="14"/>
       <c r="P793" s="14"/>
@@ -20057,7 +20160,7 @@
       <c r="AD793" s="14"/>
       <c r="AE793" s="14"/>
     </row>
-    <row r="794" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="794" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="6"/>
       <c r="O794" s="14"/>
       <c r="P794" s="14"/>
@@ -20077,7 +20180,7 @@
       <c r="AD794" s="14"/>
       <c r="AE794" s="14"/>
     </row>
-    <row r="795" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="795" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="6"/>
       <c r="O795" s="14"/>
       <c r="P795" s="14"/>
@@ -20097,7 +20200,7 @@
       <c r="AD795" s="14"/>
       <c r="AE795" s="14"/>
     </row>
-    <row r="796" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="796" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="6"/>
       <c r="O796" s="14"/>
       <c r="P796" s="14"/>
@@ -20117,7 +20220,7 @@
       <c r="AD796" s="14"/>
       <c r="AE796" s="14"/>
     </row>
-    <row r="797" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="797" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="6"/>
       <c r="O797" s="14"/>
       <c r="P797" s="14"/>
@@ -20137,7 +20240,7 @@
       <c r="AD797" s="14"/>
       <c r="AE797" s="14"/>
     </row>
-    <row r="798" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="798" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="6"/>
       <c r="O798" s="14"/>
       <c r="P798" s="14"/>
@@ -20157,7 +20260,7 @@
       <c r="AD798" s="14"/>
       <c r="AE798" s="14"/>
     </row>
-    <row r="799" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="799" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="6"/>
       <c r="O799" s="14"/>
       <c r="P799" s="14"/>
@@ -20177,7 +20280,7 @@
       <c r="AD799" s="14"/>
       <c r="AE799" s="14"/>
     </row>
-    <row r="800" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="800" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="6"/>
       <c r="O800" s="14"/>
       <c r="P800" s="14"/>
@@ -20197,7 +20300,7 @@
       <c r="AD800" s="14"/>
       <c r="AE800" s="14"/>
     </row>
-    <row r="801" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="801" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="6"/>
       <c r="O801" s="14"/>
       <c r="P801" s="14"/>
@@ -20217,7 +20320,7 @@
       <c r="AD801" s="14"/>
       <c r="AE801" s="14"/>
     </row>
-    <row r="802" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="802" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="6"/>
       <c r="O802" s="14"/>
       <c r="P802" s="14"/>
@@ -20237,7 +20340,7 @@
       <c r="AD802" s="14"/>
       <c r="AE802" s="14"/>
     </row>
-    <row r="803" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="803" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6"/>
       <c r="O803" s="14"/>
       <c r="P803" s="14"/>
@@ -20257,7 +20360,7 @@
       <c r="AD803" s="14"/>
       <c r="AE803" s="14"/>
     </row>
-    <row r="804" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="804" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="6"/>
       <c r="O804" s="14"/>
       <c r="P804" s="14"/>
@@ -20277,7 +20380,7 @@
       <c r="AD804" s="14"/>
       <c r="AE804" s="14"/>
     </row>
-    <row r="805" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="805" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="6"/>
       <c r="O805" s="14"/>
       <c r="P805" s="14"/>
@@ -20297,7 +20400,7 @@
       <c r="AD805" s="14"/>
       <c r="AE805" s="14"/>
     </row>
-    <row r="806" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="806" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="6"/>
       <c r="O806" s="14"/>
       <c r="P806" s="14"/>
@@ -20317,7 +20420,7 @@
       <c r="AD806" s="14"/>
       <c r="AE806" s="14"/>
     </row>
-    <row r="807" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="807" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="6"/>
       <c r="O807" s="14"/>
       <c r="P807" s="14"/>
@@ -20337,7 +20440,7 @@
       <c r="AD807" s="14"/>
       <c r="AE807" s="14"/>
     </row>
-    <row r="808" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="808" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="6"/>
       <c r="O808" s="14"/>
       <c r="P808" s="14"/>
@@ -20357,7 +20460,7 @@
       <c r="AD808" s="14"/>
       <c r="AE808" s="14"/>
     </row>
-    <row r="809" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="809" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="6"/>
       <c r="O809" s="14"/>
       <c r="P809" s="14"/>
@@ -20377,7 +20480,7 @@
       <c r="AD809" s="14"/>
       <c r="AE809" s="14"/>
     </row>
-    <row r="810" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="810" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="6"/>
       <c r="O810" s="14"/>
       <c r="P810" s="14"/>
@@ -20397,7 +20500,7 @@
       <c r="AD810" s="14"/>
       <c r="AE810" s="14"/>
     </row>
-    <row r="811" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="811" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="6"/>
       <c r="O811" s="14"/>
       <c r="P811" s="14"/>
@@ -20417,7 +20520,7 @@
       <c r="AD811" s="14"/>
       <c r="AE811" s="14"/>
     </row>
-    <row r="812" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="812" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="6"/>
       <c r="O812" s="14"/>
       <c r="P812" s="14"/>
@@ -20437,7 +20540,7 @@
       <c r="AD812" s="14"/>
       <c r="AE812" s="14"/>
     </row>
-    <row r="813" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="813" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="6"/>
       <c r="O813" s="14"/>
       <c r="P813" s="14"/>
@@ -20457,7 +20560,7 @@
       <c r="AD813" s="14"/>
       <c r="AE813" s="14"/>
     </row>
-    <row r="814" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="814" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="6"/>
       <c r="O814" s="14"/>
       <c r="P814" s="14"/>
@@ -20477,7 +20580,7 @@
       <c r="AD814" s="14"/>
       <c r="AE814" s="14"/>
     </row>
-    <row r="815" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="815" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="6"/>
       <c r="O815" s="14"/>
       <c r="P815" s="14"/>
@@ -20497,7 +20600,7 @@
       <c r="AD815" s="14"/>
       <c r="AE815" s="14"/>
     </row>
-    <row r="816" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="816" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="6"/>
       <c r="O816" s="14"/>
       <c r="P816" s="14"/>
@@ -20517,7 +20620,7 @@
       <c r="AD816" s="14"/>
       <c r="AE816" s="14"/>
     </row>
-    <row r="817" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="817" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="6"/>
       <c r="O817" s="14"/>
       <c r="P817" s="14"/>
@@ -20537,7 +20640,7 @@
       <c r="AD817" s="14"/>
       <c r="AE817" s="14"/>
     </row>
-    <row r="818" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="818" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="6"/>
       <c r="O818" s="14"/>
       <c r="P818" s="14"/>
@@ -20557,7 +20660,7 @@
       <c r="AD818" s="14"/>
       <c r="AE818" s="14"/>
     </row>
-    <row r="819" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="819" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="6"/>
       <c r="O819" s="14"/>
       <c r="P819" s="14"/>
@@ -20577,7 +20680,7 @@
       <c r="AD819" s="14"/>
       <c r="AE819" s="14"/>
     </row>
-    <row r="820" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="820" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="6"/>
       <c r="O820" s="14"/>
       <c r="P820" s="14"/>
@@ -20597,7 +20700,7 @@
       <c r="AD820" s="14"/>
       <c r="AE820" s="14"/>
     </row>
-    <row r="821" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="821" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="6"/>
       <c r="O821" s="14"/>
       <c r="P821" s="14"/>
@@ -20617,7 +20720,7 @@
       <c r="AD821" s="14"/>
       <c r="AE821" s="14"/>
     </row>
-    <row r="822" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="822" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="6"/>
       <c r="O822" s="14"/>
       <c r="P822" s="14"/>
@@ -20637,7 +20740,7 @@
       <c r="AD822" s="14"/>
       <c r="AE822" s="14"/>
     </row>
-    <row r="823" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="823" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="6"/>
       <c r="O823" s="14"/>
       <c r="P823" s="14"/>
@@ -20657,7 +20760,7 @@
       <c r="AD823" s="14"/>
       <c r="AE823" s="14"/>
     </row>
-    <row r="824" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="824" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="6"/>
       <c r="O824" s="14"/>
       <c r="P824" s="14"/>
@@ -20677,7 +20780,7 @@
       <c r="AD824" s="14"/>
       <c r="AE824" s="14"/>
     </row>
-    <row r="825" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="825" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="6"/>
       <c r="O825" s="14"/>
       <c r="P825" s="14"/>
@@ -20697,7 +20800,7 @@
       <c r="AD825" s="14"/>
       <c r="AE825" s="14"/>
     </row>
-    <row r="826" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="826" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="6"/>
       <c r="O826" s="14"/>
       <c r="P826" s="14"/>
@@ -20717,7 +20820,7 @@
       <c r="AD826" s="14"/>
       <c r="AE826" s="14"/>
     </row>
-    <row r="827" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="827" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="6"/>
       <c r="O827" s="14"/>
       <c r="P827" s="14"/>
@@ -20737,7 +20840,7 @@
       <c r="AD827" s="14"/>
       <c r="AE827" s="14"/>
     </row>
-    <row r="828" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="828" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="6"/>
       <c r="O828" s="14"/>
       <c r="P828" s="14"/>
@@ -20757,7 +20860,7 @@
       <c r="AD828" s="14"/>
       <c r="AE828" s="14"/>
     </row>
-    <row r="829" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="829" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="6"/>
       <c r="O829" s="14"/>
       <c r="P829" s="14"/>
@@ -20777,7 +20880,7 @@
       <c r="AD829" s="14"/>
       <c r="AE829" s="14"/>
     </row>
-    <row r="830" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="830" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="6"/>
       <c r="O830" s="14"/>
       <c r="P830" s="14"/>
@@ -20797,7 +20900,7 @@
       <c r="AD830" s="14"/>
       <c r="AE830" s="14"/>
     </row>
-    <row r="831" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="831" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="6"/>
       <c r="O831" s="14"/>
       <c r="P831" s="14"/>
@@ -20817,7 +20920,7 @@
       <c r="AD831" s="14"/>
       <c r="AE831" s="14"/>
     </row>
-    <row r="832" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="832" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="6"/>
       <c r="O832" s="14"/>
       <c r="P832" s="14"/>
@@ -20837,7 +20940,7 @@
       <c r="AD832" s="14"/>
       <c r="AE832" s="14"/>
     </row>
-    <row r="833" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="833" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="6"/>
       <c r="O833" s="14"/>
       <c r="P833" s="14"/>
@@ -20857,7 +20960,7 @@
       <c r="AD833" s="14"/>
       <c r="AE833" s="14"/>
     </row>
-    <row r="834" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="834" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="6"/>
       <c r="O834" s="14"/>
       <c r="P834" s="14"/>
@@ -20877,7 +20980,7 @@
       <c r="AD834" s="14"/>
       <c r="AE834" s="14"/>
     </row>
-    <row r="835" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="835" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="6"/>
       <c r="O835" s="14"/>
       <c r="P835" s="14"/>
@@ -20897,7 +21000,7 @@
       <c r="AD835" s="14"/>
       <c r="AE835" s="14"/>
     </row>
-    <row r="836" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="836" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="6"/>
       <c r="O836" s="14"/>
       <c r="P836" s="14"/>
@@ -20917,7 +21020,7 @@
       <c r="AD836" s="14"/>
       <c r="AE836" s="14"/>
     </row>
-    <row r="837" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="837" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="6"/>
       <c r="O837" s="14"/>
       <c r="P837" s="14"/>
@@ -20937,7 +21040,7 @@
       <c r="AD837" s="14"/>
       <c r="AE837" s="14"/>
     </row>
-    <row r="838" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="838" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="6"/>
       <c r="O838" s="14"/>
       <c r="P838" s="14"/>
@@ -20957,7 +21060,7 @@
       <c r="AD838" s="14"/>
       <c r="AE838" s="14"/>
     </row>
-    <row r="839" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="839" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="6"/>
       <c r="O839" s="14"/>
       <c r="P839" s="14"/>
@@ -20977,7 +21080,7 @@
       <c r="AD839" s="14"/>
       <c r="AE839" s="14"/>
     </row>
-    <row r="840" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="840" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="6"/>
       <c r="O840" s="14"/>
       <c r="P840" s="14"/>
@@ -20997,7 +21100,7 @@
       <c r="AD840" s="14"/>
       <c r="AE840" s="14"/>
     </row>
-    <row r="841" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="841" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="6"/>
       <c r="O841" s="14"/>
       <c r="P841" s="14"/>
@@ -21017,7 +21120,7 @@
       <c r="AD841" s="14"/>
       <c r="AE841" s="14"/>
     </row>
-    <row r="842" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="842" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="6"/>
       <c r="O842" s="14"/>
       <c r="P842" s="14"/>
@@ -21037,7 +21140,7 @@
       <c r="AD842" s="14"/>
       <c r="AE842" s="14"/>
     </row>
-    <row r="843" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="843" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="6"/>
       <c r="O843" s="14"/>
       <c r="P843" s="14"/>
@@ -21057,7 +21160,7 @@
       <c r="AD843" s="14"/>
       <c r="AE843" s="14"/>
     </row>
-    <row r="844" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="844" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="6"/>
       <c r="O844" s="14"/>
       <c r="P844" s="14"/>
@@ -21077,7 +21180,7 @@
       <c r="AD844" s="14"/>
       <c r="AE844" s="14"/>
     </row>
-    <row r="845" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="845" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="6"/>
       <c r="O845" s="14"/>
       <c r="P845" s="14"/>
@@ -21097,7 +21200,7 @@
       <c r="AD845" s="14"/>
       <c r="AE845" s="14"/>
     </row>
-    <row r="846" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="846" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="6"/>
       <c r="O846" s="14"/>
       <c r="P846" s="14"/>
@@ -21117,7 +21220,7 @@
       <c r="AD846" s="14"/>
       <c r="AE846" s="14"/>
     </row>
-    <row r="847" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="847" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="6"/>
       <c r="O847" s="14"/>
       <c r="P847" s="14"/>
@@ -21137,7 +21240,7 @@
       <c r="AD847" s="14"/>
       <c r="AE847" s="14"/>
     </row>
-    <row r="848" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="848" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="6"/>
       <c r="O848" s="14"/>
       <c r="P848" s="14"/>
@@ -21157,7 +21260,7 @@
       <c r="AD848" s="14"/>
       <c r="AE848" s="14"/>
     </row>
-    <row r="849" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="849" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="6"/>
       <c r="O849" s="14"/>
       <c r="P849" s="14"/>
@@ -21177,7 +21280,7 @@
       <c r="AD849" s="14"/>
       <c r="AE849" s="14"/>
     </row>
-    <row r="850" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="850" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="6"/>
       <c r="O850" s="14"/>
       <c r="P850" s="14"/>
@@ -21197,7 +21300,7 @@
       <c r="AD850" s="14"/>
       <c r="AE850" s="14"/>
     </row>
-    <row r="851" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="851" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="6"/>
       <c r="O851" s="14"/>
       <c r="P851" s="14"/>
@@ -21217,7 +21320,7 @@
       <c r="AD851" s="14"/>
       <c r="AE851" s="14"/>
     </row>
-    <row r="852" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="852" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="6"/>
       <c r="O852" s="14"/>
       <c r="P852" s="14"/>
@@ -21237,7 +21340,7 @@
       <c r="AD852" s="14"/>
       <c r="AE852" s="14"/>
     </row>
-    <row r="853" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="853" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="6"/>
       <c r="O853" s="14"/>
       <c r="P853" s="14"/>
@@ -21257,7 +21360,7 @@
       <c r="AD853" s="14"/>
       <c r="AE853" s="14"/>
     </row>
-    <row r="854" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="854" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="6"/>
       <c r="O854" s="14"/>
       <c r="P854" s="14"/>
@@ -21277,7 +21380,7 @@
       <c r="AD854" s="14"/>
       <c r="AE854" s="14"/>
     </row>
-    <row r="855" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="855" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="6"/>
       <c r="O855" s="14"/>
       <c r="P855" s="14"/>
@@ -21297,7 +21400,7 @@
       <c r="AD855" s="14"/>
       <c r="AE855" s="14"/>
     </row>
-    <row r="856" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="856" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="6"/>
       <c r="O856" s="14"/>
       <c r="P856" s="14"/>
@@ -21317,7 +21420,7 @@
       <c r="AD856" s="14"/>
       <c r="AE856" s="14"/>
     </row>
-    <row r="857" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="857" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="6"/>
       <c r="O857" s="14"/>
       <c r="P857" s="14"/>
@@ -21337,7 +21440,7 @@
       <c r="AD857" s="14"/>
       <c r="AE857" s="14"/>
     </row>
-    <row r="858" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="858" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="6"/>
       <c r="O858" s="14"/>
       <c r="P858" s="14"/>
@@ -21357,7 +21460,7 @@
       <c r="AD858" s="14"/>
       <c r="AE858" s="14"/>
     </row>
-    <row r="859" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="859" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="6"/>
       <c r="O859" s="14"/>
       <c r="P859" s="14"/>
@@ -21377,7 +21480,7 @@
       <c r="AD859" s="14"/>
       <c r="AE859" s="14"/>
     </row>
-    <row r="860" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="860" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="6"/>
       <c r="O860" s="14"/>
       <c r="P860" s="14"/>
@@ -21397,7 +21500,7 @@
       <c r="AD860" s="14"/>
       <c r="AE860" s="14"/>
     </row>
-    <row r="861" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="861" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="6"/>
       <c r="O861" s="14"/>
       <c r="P861" s="14"/>
@@ -21417,7 +21520,7 @@
       <c r="AD861" s="14"/>
       <c r="AE861" s="14"/>
     </row>
-    <row r="862" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="862" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="6"/>
       <c r="O862" s="14"/>
       <c r="P862" s="14"/>
@@ -21437,7 +21540,7 @@
       <c r="AD862" s="14"/>
       <c r="AE862" s="14"/>
     </row>
-    <row r="863" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="863" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="6"/>
       <c r="O863" s="14"/>
       <c r="P863" s="14"/>
@@ -21457,7 +21560,7 @@
       <c r="AD863" s="14"/>
       <c r="AE863" s="14"/>
     </row>
-    <row r="864" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="864" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="6"/>
       <c r="O864" s="14"/>
       <c r="P864" s="14"/>
@@ -21477,7 +21580,7 @@
       <c r="AD864" s="14"/>
       <c r="AE864" s="14"/>
     </row>
-    <row r="865" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="865" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="6"/>
       <c r="O865" s="14"/>
       <c r="P865" s="14"/>
@@ -21497,7 +21600,7 @@
       <c r="AD865" s="14"/>
       <c r="AE865" s="14"/>
     </row>
-    <row r="866" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="866" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="6"/>
       <c r="O866" s="14"/>
       <c r="P866" s="14"/>
@@ -21517,7 +21620,7 @@
       <c r="AD866" s="14"/>
       <c r="AE866" s="14"/>
     </row>
-    <row r="867" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="867" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="6"/>
       <c r="O867" s="14"/>
       <c r="P867" s="14"/>
@@ -21537,7 +21640,7 @@
       <c r="AD867" s="14"/>
       <c r="AE867" s="14"/>
     </row>
-    <row r="868" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="868" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="6"/>
       <c r="O868" s="14"/>
       <c r="P868" s="14"/>
@@ -21557,7 +21660,7 @@
       <c r="AD868" s="14"/>
       <c r="AE868" s="14"/>
     </row>
-    <row r="869" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="869" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="6"/>
       <c r="O869" s="14"/>
       <c r="P869" s="14"/>
@@ -21577,7 +21680,7 @@
       <c r="AD869" s="14"/>
       <c r="AE869" s="14"/>
     </row>
-    <row r="870" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="870" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="6"/>
       <c r="O870" s="14"/>
       <c r="P870" s="14"/>
@@ -21597,7 +21700,7 @@
       <c r="AD870" s="14"/>
       <c r="AE870" s="14"/>
     </row>
-    <row r="871" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="871" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="6"/>
       <c r="O871" s="14"/>
       <c r="P871" s="14"/>
@@ -21617,7 +21720,7 @@
       <c r="AD871" s="14"/>
       <c r="AE871" s="14"/>
     </row>
-    <row r="872" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="872" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="6"/>
       <c r="O872" s="14"/>
       <c r="P872" s="14"/>
@@ -21637,7 +21740,7 @@
       <c r="AD872" s="14"/>
       <c r="AE872" s="14"/>
     </row>
-    <row r="873" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="873" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="6"/>
       <c r="O873" s="14"/>
       <c r="P873" s="14"/>
@@ -21657,7 +21760,7 @@
       <c r="AD873" s="14"/>
       <c r="AE873" s="14"/>
     </row>
-    <row r="874" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="874" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="6"/>
       <c r="O874" s="14"/>
       <c r="P874" s="14"/>
@@ -21677,7 +21780,7 @@
       <c r="AD874" s="14"/>
       <c r="AE874" s="14"/>
     </row>
-    <row r="875" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="875" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="6"/>
       <c r="O875" s="14"/>
       <c r="P875" s="14"/>
@@ -21697,7 +21800,7 @@
       <c r="AD875" s="14"/>
       <c r="AE875" s="14"/>
     </row>
-    <row r="876" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="876" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="6"/>
       <c r="O876" s="14"/>
       <c r="P876" s="14"/>
@@ -21717,7 +21820,7 @@
       <c r="AD876" s="14"/>
       <c r="AE876" s="14"/>
     </row>
-    <row r="877" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="877" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="6"/>
       <c r="O877" s="14"/>
       <c r="P877" s="14"/>
@@ -21737,7 +21840,7 @@
       <c r="AD877" s="14"/>
       <c r="AE877" s="14"/>
     </row>
-    <row r="878" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="878" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="6"/>
       <c r="O878" s="14"/>
       <c r="P878" s="14"/>
@@ -21757,7 +21860,7 @@
       <c r="AD878" s="14"/>
       <c r="AE878" s="14"/>
     </row>
-    <row r="879" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="879" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="6"/>
       <c r="O879" s="14"/>
       <c r="P879" s="14"/>
@@ -21777,7 +21880,7 @@
       <c r="AD879" s="14"/>
       <c r="AE879" s="14"/>
     </row>
-    <row r="880" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="880" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="6"/>
       <c r="O880" s="14"/>
       <c r="P880" s="14"/>
@@ -21797,7 +21900,7 @@
       <c r="AD880" s="14"/>
       <c r="AE880" s="14"/>
     </row>
-    <row r="881" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="881" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="6"/>
       <c r="O881" s="14"/>
       <c r="P881" s="14"/>
@@ -21817,7 +21920,7 @@
       <c r="AD881" s="14"/>
       <c r="AE881" s="14"/>
     </row>
-    <row r="882" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="882" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="6"/>
       <c r="O882" s="14"/>
       <c r="P882" s="14"/>
@@ -21837,7 +21940,7 @@
       <c r="AD882" s="14"/>
       <c r="AE882" s="14"/>
     </row>
-    <row r="883" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="883" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="6"/>
       <c r="O883" s="14"/>
       <c r="P883" s="14"/>
@@ -21857,7 +21960,7 @@
       <c r="AD883" s="14"/>
       <c r="AE883" s="14"/>
     </row>
-    <row r="884" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="884" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="6"/>
       <c r="O884" s="14"/>
       <c r="P884" s="14"/>
@@ -21877,7 +21980,7 @@
       <c r="AD884" s="14"/>
       <c r="AE884" s="14"/>
     </row>
-    <row r="885" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="885" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="6"/>
       <c r="O885" s="14"/>
       <c r="P885" s="14"/>
@@ -21897,7 +22000,7 @@
       <c r="AD885" s="14"/>
       <c r="AE885" s="14"/>
     </row>
-    <row r="886" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="886" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="6"/>
       <c r="O886" s="14"/>
       <c r="P886" s="14"/>
@@ -21917,7 +22020,7 @@
       <c r="AD886" s="14"/>
       <c r="AE886" s="14"/>
     </row>
-    <row r="887" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="887" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="6"/>
       <c r="O887" s="14"/>
       <c r="P887" s="14"/>
@@ -21937,7 +22040,7 @@
       <c r="AD887" s="14"/>
       <c r="AE887" s="14"/>
     </row>
-    <row r="888" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="888" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="6"/>
       <c r="O888" s="14"/>
       <c r="P888" s="14"/>
@@ -21957,7 +22060,7 @@
       <c r="AD888" s="14"/>
       <c r="AE888" s="14"/>
     </row>
-    <row r="889" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="889" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="6"/>
       <c r="O889" s="14"/>
       <c r="P889" s="14"/>
@@ -21977,7 +22080,7 @@
       <c r="AD889" s="14"/>
       <c r="AE889" s="14"/>
     </row>
-    <row r="890" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="890" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="6"/>
       <c r="O890" s="14"/>
       <c r="P890" s="14"/>
@@ -21997,7 +22100,7 @@
       <c r="AD890" s="14"/>
       <c r="AE890" s="14"/>
     </row>
-    <row r="891" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="891" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="6"/>
       <c r="O891" s="14"/>
       <c r="P891" s="14"/>
@@ -22017,7 +22120,7 @@
       <c r="AD891" s="14"/>
       <c r="AE891" s="14"/>
     </row>
-    <row r="892" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="892" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="6"/>
       <c r="O892" s="14"/>
       <c r="P892" s="14"/>
@@ -22037,7 +22140,7 @@
       <c r="AD892" s="14"/>
       <c r="AE892" s="14"/>
     </row>
-    <row r="893" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="893" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="6"/>
       <c r="O893" s="14"/>
       <c r="P893" s="14"/>
@@ -22057,7 +22160,7 @@
       <c r="AD893" s="14"/>
       <c r="AE893" s="14"/>
     </row>
-    <row r="894" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="894" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="6"/>
       <c r="O894" s="14"/>
       <c r="P894" s="14"/>
@@ -22077,7 +22180,7 @@
       <c r="AD894" s="14"/>
       <c r="AE894" s="14"/>
     </row>
-    <row r="895" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="895" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="6"/>
       <c r="O895" s="14"/>
       <c r="P895" s="14"/>
@@ -22097,7 +22200,7 @@
       <c r="AD895" s="14"/>
       <c r="AE895" s="14"/>
     </row>
-    <row r="896" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="896" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="6"/>
       <c r="O896" s="14"/>
       <c r="P896" s="14"/>
@@ -22117,7 +22220,7 @@
       <c r="AD896" s="14"/>
       <c r="AE896" s="14"/>
     </row>
-    <row r="897" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="897" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="6"/>
       <c r="O897" s="14"/>
       <c r="P897" s="14"/>
@@ -22137,7 +22240,7 @@
       <c r="AD897" s="14"/>
       <c r="AE897" s="14"/>
     </row>
-    <row r="898" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="898" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="6"/>
       <c r="O898" s="14"/>
       <c r="P898" s="14"/>
@@ -22157,7 +22260,7 @@
       <c r="AD898" s="14"/>
       <c r="AE898" s="14"/>
     </row>
-    <row r="899" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="899" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="6"/>
       <c r="O899" s="14"/>
       <c r="P899" s="14"/>
@@ -22177,7 +22280,7 @@
       <c r="AD899" s="14"/>
       <c r="AE899" s="14"/>
     </row>
-    <row r="900" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="900" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="6"/>
       <c r="O900" s="14"/>
       <c r="P900" s="14"/>
@@ -22197,7 +22300,7 @@
       <c r="AD900" s="14"/>
       <c r="AE900" s="14"/>
     </row>
-    <row r="901" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="901" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="6"/>
       <c r="O901" s="14"/>
       <c r="P901" s="14"/>
@@ -22217,7 +22320,7 @@
       <c r="AD901" s="14"/>
       <c r="AE901" s="14"/>
     </row>
-    <row r="902" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="902" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="6"/>
       <c r="O902" s="14"/>
       <c r="P902" s="14"/>
@@ -22237,7 +22340,7 @@
       <c r="AD902" s="14"/>
       <c r="AE902" s="14"/>
     </row>
-    <row r="903" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="903" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="6"/>
       <c r="O903" s="14"/>
       <c r="P903" s="14"/>
@@ -22257,7 +22360,7 @@
       <c r="AD903" s="14"/>
       <c r="AE903" s="14"/>
     </row>
-    <row r="904" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="904" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="6"/>
       <c r="O904" s="14"/>
       <c r="P904" s="14"/>
@@ -22277,7 +22380,7 @@
       <c r="AD904" s="14"/>
       <c r="AE904" s="14"/>
     </row>
-    <row r="905" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="905" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="6"/>
       <c r="O905" s="14"/>
       <c r="P905" s="14"/>
@@ -22297,7 +22400,7 @@
       <c r="AD905" s="14"/>
       <c r="AE905" s="14"/>
     </row>
-    <row r="906" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="906" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="6"/>
       <c r="O906" s="14"/>
       <c r="P906" s="14"/>
@@ -22317,7 +22420,7 @@
       <c r="AD906" s="14"/>
       <c r="AE906" s="14"/>
     </row>
-    <row r="907" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="907" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="6"/>
       <c r="O907" s="14"/>
       <c r="P907" s="14"/>
@@ -22337,7 +22440,7 @@
       <c r="AD907" s="14"/>
       <c r="AE907" s="14"/>
     </row>
-    <row r="908" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="908" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="6"/>
       <c r="O908" s="14"/>
       <c r="P908" s="14"/>
@@ -22357,7 +22460,7 @@
       <c r="AD908" s="14"/>
       <c r="AE908" s="14"/>
     </row>
-    <row r="909" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="909" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="6"/>
       <c r="O909" s="14"/>
       <c r="P909" s="14"/>
@@ -22377,7 +22480,7 @@
       <c r="AD909" s="14"/>
       <c r="AE909" s="14"/>
     </row>
-    <row r="910" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="910" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="6"/>
       <c r="O910" s="14"/>
       <c r="P910" s="14"/>
@@ -22397,7 +22500,7 @@
       <c r="AD910" s="14"/>
       <c r="AE910" s="14"/>
     </row>
-    <row r="911" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="911" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="6"/>
       <c r="O911" s="14"/>
       <c r="P911" s="14"/>
@@ -22417,7 +22520,7 @@
       <c r="AD911" s="14"/>
       <c r="AE911" s="14"/>
     </row>
-    <row r="912" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="912" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="6"/>
       <c r="O912" s="14"/>
       <c r="P912" s="14"/>
@@ -22437,7 +22540,7 @@
       <c r="AD912" s="14"/>
       <c r="AE912" s="14"/>
     </row>
-    <row r="913" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="913" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="6"/>
       <c r="O913" s="14"/>
       <c r="P913" s="14"/>
@@ -22457,7 +22560,7 @@
       <c r="AD913" s="14"/>
       <c r="AE913" s="14"/>
     </row>
-    <row r="914" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="914" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="6"/>
       <c r="O914" s="14"/>
       <c r="P914" s="14"/>
@@ -22477,7 +22580,7 @@
       <c r="AD914" s="14"/>
       <c r="AE914" s="14"/>
     </row>
-    <row r="915" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="915" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="6"/>
       <c r="O915" s="14"/>
       <c r="P915" s="14"/>
@@ -22497,7 +22600,7 @@
       <c r="AD915" s="14"/>
       <c r="AE915" s="14"/>
     </row>
-    <row r="916" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="916" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="6"/>
       <c r="O916" s="14"/>
       <c r="P916" s="14"/>
@@ -22517,7 +22620,7 @@
       <c r="AD916" s="14"/>
       <c r="AE916" s="14"/>
     </row>
-    <row r="917" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="917" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="6"/>
       <c r="O917" s="14"/>
       <c r="P917" s="14"/>
@@ -22537,7 +22640,7 @@
       <c r="AD917" s="14"/>
       <c r="AE917" s="14"/>
     </row>
-    <row r="918" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="918" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="6"/>
       <c r="O918" s="14"/>
       <c r="P918" s="14"/>
@@ -22557,7 +22660,7 @@
       <c r="AD918" s="14"/>
       <c r="AE918" s="14"/>
     </row>
-    <row r="919" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="919" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="6"/>
       <c r="O919" s="14"/>
       <c r="P919" s="14"/>
@@ -22577,7 +22680,7 @@
       <c r="AD919" s="14"/>
       <c r="AE919" s="14"/>
     </row>
-    <row r="920" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="920" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="6"/>
       <c r="O920" s="14"/>
       <c r="P920" s="14"/>
@@ -22597,7 +22700,7 @@
       <c r="AD920" s="14"/>
       <c r="AE920" s="14"/>
     </row>
-    <row r="921" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="921" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="6"/>
       <c r="O921" s="14"/>
       <c r="P921" s="14"/>
@@ -22617,7 +22720,7 @@
       <c r="AD921" s="14"/>
       <c r="AE921" s="14"/>
     </row>
-    <row r="922" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="922" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="6"/>
       <c r="O922" s="14"/>
       <c r="P922" s="14"/>
@@ -22637,7 +22740,7 @@
       <c r="AD922" s="14"/>
       <c r="AE922" s="14"/>
     </row>
-    <row r="923" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="923" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="6"/>
       <c r="O923" s="14"/>
       <c r="P923" s="14"/>
@@ -22657,7 +22760,7 @@
       <c r="AD923" s="14"/>
       <c r="AE923" s="14"/>
     </row>
-    <row r="924" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="924" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="6"/>
       <c r="O924" s="14"/>
       <c r="P924" s="14"/>
@@ -22677,7 +22780,7 @@
       <c r="AD924" s="14"/>
       <c r="AE924" s="14"/>
     </row>
-    <row r="925" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="925" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="6"/>
       <c r="O925" s="14"/>
       <c r="P925" s="14"/>
@@ -22697,7 +22800,7 @@
       <c r="AD925" s="14"/>
       <c r="AE925" s="14"/>
     </row>
-    <row r="926" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="926" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="6"/>
       <c r="O926" s="14"/>
       <c r="P926" s="14"/>
@@ -22717,7 +22820,7 @@
       <c r="AD926" s="14"/>
       <c r="AE926" s="14"/>
     </row>
-    <row r="927" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="927" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="6"/>
       <c r="O927" s="14"/>
       <c r="P927" s="14"/>
@@ -22737,7 +22840,7 @@
       <c r="AD927" s="14"/>
       <c r="AE927" s="14"/>
     </row>
-    <row r="928" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="928" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="6"/>
       <c r="O928" s="14"/>
       <c r="P928" s="14"/>
@@ -22757,7 +22860,7 @@
       <c r="AD928" s="14"/>
       <c r="AE928" s="14"/>
     </row>
-    <row r="929" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="929" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="6"/>
       <c r="O929" s="14"/>
       <c r="P929" s="14"/>
@@ -22777,7 +22880,7 @@
       <c r="AD929" s="14"/>
       <c r="AE929" s="14"/>
     </row>
-    <row r="930" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="930" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="6"/>
       <c r="O930" s="14"/>
       <c r="P930" s="14"/>
@@ -22797,7 +22900,7 @@
       <c r="AD930" s="14"/>
       <c r="AE930" s="14"/>
     </row>
-    <row r="931" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="931" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="6"/>
       <c r="O931" s="14"/>
       <c r="P931" s="14"/>
@@ -22817,7 +22920,7 @@
       <c r="AD931" s="14"/>
       <c r="AE931" s="14"/>
     </row>
-    <row r="932" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="932" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="6"/>
       <c r="O932" s="14"/>
       <c r="P932" s="14"/>
@@ -22837,7 +22940,7 @@
       <c r="AD932" s="14"/>
       <c r="AE932" s="14"/>
     </row>
-    <row r="933" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="933" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="6"/>
       <c r="O933" s="14"/>
       <c r="P933" s="14"/>
@@ -22857,7 +22960,7 @@
       <c r="AD933" s="14"/>
       <c r="AE933" s="14"/>
     </row>
-    <row r="934" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="934" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="6"/>
       <c r="O934" s="14"/>
       <c r="P934" s="14"/>
@@ -22877,7 +22980,7 @@
       <c r="AD934" s="14"/>
       <c r="AE934" s="14"/>
     </row>
-    <row r="935" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="935" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="6"/>
       <c r="O935" s="14"/>
       <c r="P935" s="14"/>
@@ -22897,7 +23000,7 @@
       <c r="AD935" s="14"/>
       <c r="AE935" s="14"/>
     </row>
-    <row r="936" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="936" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="6"/>
       <c r="O936" s="14"/>
       <c r="P936" s="14"/>
@@ -22917,7 +23020,7 @@
       <c r="AD936" s="14"/>
       <c r="AE936" s="14"/>
     </row>
-    <row r="937" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="937" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="6"/>
       <c r="O937" s="14"/>
       <c r="P937" s="14"/>
@@ -22937,7 +23040,7 @@
       <c r="AD937" s="14"/>
       <c r="AE937" s="14"/>
     </row>
-    <row r="938" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="938" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="6"/>
       <c r="O938" s="14"/>
       <c r="P938" s="14"/>
@@ -22957,7 +23060,7 @@
       <c r="AD938" s="14"/>
       <c r="AE938" s="14"/>
     </row>
-    <row r="939" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="939" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="6"/>
       <c r="O939" s="14"/>
       <c r="P939" s="14"/>
@@ -22977,7 +23080,7 @@
       <c r="AD939" s="14"/>
       <c r="AE939" s="14"/>
     </row>
-    <row r="940" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="940" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="6"/>
       <c r="O940" s="14"/>
       <c r="P940" s="14"/>
@@ -22997,7 +23100,7 @@
       <c r="AD940" s="14"/>
       <c r="AE940" s="14"/>
     </row>
-    <row r="941" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="941" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="6"/>
       <c r="O941" s="14"/>
       <c r="P941" s="14"/>
@@ -23017,7 +23120,7 @@
       <c r="AD941" s="14"/>
       <c r="AE941" s="14"/>
     </row>
-    <row r="942" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="942" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="6"/>
       <c r="O942" s="14"/>
       <c r="P942" s="14"/>
@@ -23037,7 +23140,7 @@
       <c r="AD942" s="14"/>
       <c r="AE942" s="14"/>
     </row>
-    <row r="943" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="943" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="6"/>
       <c r="O943" s="14"/>
       <c r="P943" s="14"/>
@@ -23057,7 +23160,7 @@
       <c r="AD943" s="14"/>
       <c r="AE943" s="14"/>
     </row>
-    <row r="944" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="944" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="6"/>
       <c r="O944" s="14"/>
       <c r="P944" s="14"/>
@@ -23077,7 +23180,7 @@
       <c r="AD944" s="14"/>
       <c r="AE944" s="14"/>
     </row>
-    <row r="945" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="945" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="6"/>
       <c r="O945" s="14"/>
       <c r="P945" s="14"/>
@@ -23097,7 +23200,7 @@
       <c r="AD945" s="14"/>
       <c r="AE945" s="14"/>
     </row>
-    <row r="946" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="946" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="6"/>
       <c r="O946" s="14"/>
       <c r="P946" s="14"/>
@@ -23117,7 +23220,7 @@
       <c r="AD946" s="14"/>
       <c r="AE946" s="14"/>
     </row>
-    <row r="947" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="947" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="6"/>
       <c r="O947" s="14"/>
       <c r="P947" s="14"/>
@@ -23137,7 +23240,7 @@
       <c r="AD947" s="14"/>
       <c r="AE947" s="14"/>
     </row>
-    <row r="948" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="948" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="6"/>
       <c r="O948" s="14"/>
       <c r="P948" s="14"/>
@@ -23157,7 +23260,7 @@
       <c r="AD948" s="14"/>
       <c r="AE948" s="14"/>
     </row>
-    <row r="949" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="949" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="6"/>
       <c r="O949" s="14"/>
       <c r="P949" s="14"/>
@@ -23177,7 +23280,7 @@
       <c r="AD949" s="14"/>
       <c r="AE949" s="14"/>
     </row>
-    <row r="950" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="950" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="6"/>
       <c r="O950" s="14"/>
       <c r="P950" s="14"/>
@@ -23197,7 +23300,7 @@
       <c r="AD950" s="14"/>
       <c r="AE950" s="14"/>
     </row>
-    <row r="951" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="951" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="6"/>
       <c r="O951" s="14"/>
       <c r="P951" s="14"/>
@@ -23217,7 +23320,7 @@
       <c r="AD951" s="14"/>
       <c r="AE951" s="14"/>
     </row>
-    <row r="952" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="952" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="6"/>
       <c r="O952" s="14"/>
       <c r="P952" s="14"/>
@@ -23237,7 +23340,7 @@
       <c r="AD952" s="14"/>
       <c r="AE952" s="14"/>
     </row>
-    <row r="953" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="953" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="6"/>
       <c r="O953" s="14"/>
       <c r="P953" s="14"/>
@@ -23257,7 +23360,7 @@
       <c r="AD953" s="14"/>
       <c r="AE953" s="14"/>
     </row>
-    <row r="954" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="954" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="6"/>
       <c r="O954" s="14"/>
       <c r="P954" s="14"/>
@@ -23277,7 +23380,7 @@
       <c r="AD954" s="14"/>
       <c r="AE954" s="14"/>
     </row>
-    <row r="955" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="955" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="6"/>
       <c r="O955" s="14"/>
       <c r="P955" s="14"/>
@@ -23297,7 +23400,7 @@
       <c r="AD955" s="14"/>
       <c r="AE955" s="14"/>
     </row>
-    <row r="956" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="956" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="6"/>
       <c r="O956" s="14"/>
       <c r="P956" s="14"/>
@@ -23317,7 +23420,7 @@
       <c r="AD956" s="14"/>
       <c r="AE956" s="14"/>
     </row>
-    <row r="957" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="957" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="6"/>
       <c r="O957" s="14"/>
       <c r="P957" s="14"/>
@@ -23337,7 +23440,7 @@
       <c r="AD957" s="14"/>
       <c r="AE957" s="14"/>
     </row>
-    <row r="958" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="958" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="6"/>
       <c r="O958" s="14"/>
       <c r="P958" s="14"/>
@@ -23357,7 +23460,7 @@
       <c r="AD958" s="14"/>
       <c r="AE958" s="14"/>
     </row>
-    <row r="959" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="959" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="6"/>
       <c r="O959" s="14"/>
       <c r="P959" s="14"/>
@@ -23377,7 +23480,7 @@
       <c r="AD959" s="14"/>
       <c r="AE959" s="14"/>
     </row>
-    <row r="960" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="960" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="6"/>
       <c r="O960" s="14"/>
       <c r="P960" s="14"/>
@@ -23397,7 +23500,7 @@
       <c r="AD960" s="14"/>
       <c r="AE960" s="14"/>
     </row>
-    <row r="961" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="961" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="6"/>
       <c r="O961" s="14"/>
       <c r="P961" s="14"/>
@@ -23417,7 +23520,7 @@
       <c r="AD961" s="14"/>
       <c r="AE961" s="14"/>
     </row>
-    <row r="962" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="962" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="6"/>
       <c r="O962" s="14"/>
       <c r="P962" s="14"/>
@@ -23437,7 +23540,7 @@
       <c r="AD962" s="14"/>
       <c r="AE962" s="14"/>
     </row>
-    <row r="963" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="963" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="6"/>
       <c r="O963" s="14"/>
       <c r="P963" s="14"/>
@@ -23457,7 +23560,7 @@
       <c r="AD963" s="14"/>
       <c r="AE963" s="14"/>
     </row>
-    <row r="964" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="964" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="6"/>
       <c r="O964" s="14"/>
       <c r="P964" s="14"/>
@@ -23477,7 +23580,7 @@
       <c r="AD964" s="14"/>
       <c r="AE964" s="14"/>
     </row>
-    <row r="965" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="965" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="6"/>
       <c r="O965" s="14"/>
       <c r="P965" s="14"/>
@@ -23497,7 +23600,7 @@
       <c r="AD965" s="14"/>
       <c r="AE965" s="14"/>
     </row>
-    <row r="966" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="966" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="6"/>
       <c r="O966" s="14"/>
       <c r="P966" s="14"/>
@@ -23517,7 +23620,7 @@
       <c r="AD966" s="14"/>
       <c r="AE966" s="14"/>
     </row>
-    <row r="967" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="967" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="6"/>
       <c r="O967" s="14"/>
       <c r="P967" s="14"/>
@@ -23537,7 +23640,7 @@
       <c r="AD967" s="14"/>
       <c r="AE967" s="14"/>
     </row>
-    <row r="968" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="968" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="6"/>
       <c r="O968" s="14"/>
       <c r="P968" s="14"/>
@@ -23557,7 +23660,7 @@
       <c r="AD968" s="14"/>
       <c r="AE968" s="14"/>
     </row>
-    <row r="969" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="969" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="6"/>
       <c r="O969" s="14"/>
       <c r="P969" s="14"/>
@@ -23577,7 +23680,7 @@
       <c r="AD969" s="14"/>
       <c r="AE969" s="14"/>
     </row>
-    <row r="970" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="970" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="6"/>
       <c r="O970" s="14"/>
       <c r="P970" s="14"/>
@@ -23597,7 +23700,7 @@
       <c r="AD970" s="14"/>
       <c r="AE970" s="14"/>
     </row>
-    <row r="971" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="971" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="6"/>
       <c r="O971" s="14"/>
       <c r="P971" s="14"/>
@@ -23617,7 +23720,7 @@
       <c r="AD971" s="14"/>
       <c r="AE971" s="14"/>
     </row>
-    <row r="972" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="972" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="6"/>
       <c r="O972" s="14"/>
       <c r="P972" s="14"/>
@@ -23637,7 +23740,7 @@
       <c r="AD972" s="14"/>
       <c r="AE972" s="14"/>
     </row>
-    <row r="973" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="973" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="6"/>
       <c r="O973" s="14"/>
       <c r="P973" s="14"/>
@@ -23657,7 +23760,7 @@
       <c r="AD973" s="14"/>
       <c r="AE973" s="14"/>
     </row>
-    <row r="974" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="974" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="6"/>
       <c r="O974" s="14"/>
       <c r="P974" s="14"/>
@@ -23677,7 +23780,7 @@
       <c r="AD974" s="14"/>
       <c r="AE974" s="14"/>
     </row>
-    <row r="975" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="975" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="6"/>
       <c r="O975" s="14"/>
       <c r="P975" s="14"/>
@@ -23697,7 +23800,7 @@
       <c r="AD975" s="14"/>
       <c r="AE975" s="14"/>
     </row>
-    <row r="976" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="976" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="6"/>
       <c r="O976" s="14"/>
       <c r="P976" s="14"/>
@@ -23717,7 +23820,7 @@
       <c r="AD976" s="14"/>
       <c r="AE976" s="14"/>
     </row>
-    <row r="977" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="977" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="6"/>
       <c r="O977" s="14"/>
       <c r="P977" s="14"/>
@@ -23737,7 +23840,7 @@
       <c r="AD977" s="14"/>
       <c r="AE977" s="14"/>
     </row>
-    <row r="978" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="978" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="6"/>
       <c r="O978" s="14"/>
       <c r="P978" s="14"/>
@@ -23757,7 +23860,7 @@
       <c r="AD978" s="14"/>
       <c r="AE978" s="14"/>
     </row>
-    <row r="979" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="979" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="6"/>
       <c r="O979" s="14"/>
       <c r="P979" s="14"/>
@@ -23777,7 +23880,7 @@
       <c r="AD979" s="14"/>
       <c r="AE979" s="14"/>
     </row>
-    <row r="980" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="980" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="6"/>
       <c r="O980" s="14"/>
       <c r="P980" s="14"/>
@@ -23797,7 +23900,7 @@
       <c r="AD980" s="14"/>
       <c r="AE980" s="14"/>
     </row>
-    <row r="981" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="981" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="6"/>
       <c r="O981" s="14"/>
       <c r="P981" s="14"/>
@@ -23817,7 +23920,7 @@
       <c r="AD981" s="14"/>
       <c r="AE981" s="14"/>
     </row>
-    <row r="982" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="982" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="6"/>
       <c r="O982" s="14"/>
       <c r="P982" s="14"/>
@@ -23837,7 +23940,7 @@
       <c r="AD982" s="14"/>
       <c r="AE982" s="14"/>
     </row>
-    <row r="983" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="983" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="6"/>
       <c r="O983" s="14"/>
       <c r="P983" s="14"/>
@@ -23857,7 +23960,7 @@
       <c r="AD983" s="14"/>
       <c r="AE983" s="14"/>
     </row>
-    <row r="984" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="984" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="6"/>
       <c r="O984" s="14"/>
       <c r="P984" s="14"/>
@@ -23877,7 +23980,7 @@
       <c r="AD984" s="14"/>
       <c r="AE984" s="14"/>
     </row>
-    <row r="985" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="985" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="6"/>
       <c r="O985" s="14"/>
       <c r="P985" s="14"/>
@@ -23897,7 +24000,7 @@
       <c r="AD985" s="14"/>
       <c r="AE985" s="14"/>
     </row>
-    <row r="986" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="986" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="6"/>
       <c r="O986" s="14"/>
       <c r="P986" s="14"/>
@@ -23917,7 +24020,7 @@
       <c r="AD986" s="14"/>
       <c r="AE986" s="14"/>
     </row>
-    <row r="987" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="987" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="6"/>
       <c r="O987" s="14"/>
       <c r="P987" s="14"/>
@@ -23937,7 +24040,7 @@
       <c r="AD987" s="14"/>
       <c r="AE987" s="14"/>
     </row>
-    <row r="988" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="988" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="6"/>
       <c r="O988" s="14"/>
       <c r="P988" s="14"/>
@@ -23957,7 +24060,7 @@
       <c r="AD988" s="14"/>
       <c r="AE988" s="14"/>
     </row>
-    <row r="989" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="989" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="6"/>
       <c r="O989" s="14"/>
       <c r="P989" s="14"/>
@@ -23977,7 +24080,7 @@
       <c r="AD989" s="14"/>
       <c r="AE989" s="14"/>
     </row>
-    <row r="990" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="990" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="6"/>
       <c r="O990" s="14"/>
       <c r="P990" s="14"/>
@@ -23997,7 +24100,7 @@
       <c r="AD990" s="14"/>
       <c r="AE990" s="14"/>
     </row>
-    <row r="991" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="991" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="6"/>
       <c r="O991" s="14"/>
       <c r="P991" s="14"/>
@@ -24017,7 +24120,7 @@
       <c r="AD991" s="14"/>
       <c r="AE991" s="14"/>
     </row>
-    <row r="992" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="992" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="6"/>
       <c r="O992" s="14"/>
       <c r="P992" s="14"/>
@@ -24037,7 +24140,7 @@
       <c r="AD992" s="14"/>
       <c r="AE992" s="14"/>
     </row>
-    <row r="993" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="993" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="6"/>
       <c r="O993" s="14"/>
       <c r="P993" s="14"/>
@@ -24057,7 +24160,7 @@
       <c r="AD993" s="14"/>
       <c r="AE993" s="14"/>
     </row>
-    <row r="994" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="994" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="6"/>
       <c r="O994" s="14"/>
       <c r="P994" s="14"/>
@@ -24077,7 +24180,7 @@
       <c r="AD994" s="14"/>
       <c r="AE994" s="14"/>
     </row>
-    <row r="995" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="995" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="6"/>
       <c r="O995" s="14"/>
       <c r="P995" s="14"/>
@@ -24097,7 +24200,7 @@
       <c r="AD995" s="14"/>
       <c r="AE995" s="14"/>
     </row>
-    <row r="996" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="996" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="6"/>
       <c r="O996" s="14"/>
       <c r="P996" s="14"/>
@@ -24117,7 +24220,7 @@
       <c r="AD996" s="14"/>
       <c r="AE996" s="14"/>
     </row>
-    <row r="997" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="997" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="6"/>
       <c r="O997" s="14"/>
       <c r="P997" s="14"/>
@@ -24137,7 +24240,7 @@
       <c r="AD997" s="14"/>
       <c r="AE997" s="14"/>
     </row>
-    <row r="998" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="998" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="6"/>
       <c r="O998" s="14"/>
       <c r="P998" s="14"/>
@@ -24157,7 +24260,7 @@
       <c r="AD998" s="14"/>
       <c r="AE998" s="14"/>
     </row>
-    <row r="999" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="999" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="6"/>
       <c r="O999" s="14"/>
       <c r="P999" s="14"/>
@@ -24177,7 +24280,7 @@
       <c r="AD999" s="14"/>
       <c r="AE999" s="14"/>
     </row>
-    <row r="1000" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1000" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="6"/>
       <c r="O1000" s="14"/>
       <c r="P1000" s="14"/>
@@ -24197,7 +24300,7 @@
       <c r="AD1000" s="14"/>
       <c r="AE1000" s="14"/>
     </row>
-    <row r="1001" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1001" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="6"/>
       <c r="O1001" s="14"/>
       <c r="P1001" s="14"/>
@@ -24217,7 +24320,7 @@
       <c r="AD1001" s="14"/>
       <c r="AE1001" s="14"/>
     </row>
-    <row r="1002" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1002" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="6"/>
       <c r="O1002" s="14"/>
       <c r="P1002" s="14"/>
@@ -24237,7 +24340,7 @@
       <c r="AD1002" s="14"/>
       <c r="AE1002" s="14"/>
     </row>
-    <row r="1003" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1003" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1003" s="6"/>
       <c r="O1003" s="14"/>
       <c r="P1003" s="14"/>
@@ -24257,7 +24360,7 @@
       <c r="AD1003" s="14"/>
       <c r="AE1003" s="14"/>
     </row>
-    <row r="1004" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1004" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1004" s="6"/>
       <c r="O1004" s="14"/>
       <c r="P1004" s="14"/>
@@ -24277,7 +24380,7 @@
       <c r="AD1004" s="14"/>
       <c r="AE1004" s="14"/>
     </row>
-    <row r="1005" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1005" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1005" s="6"/>
       <c r="O1005" s="14"/>
       <c r="P1005" s="14"/>
@@ -24297,7 +24400,7 @@
       <c r="AD1005" s="14"/>
       <c r="AE1005" s="14"/>
     </row>
-    <row r="1006" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1006" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1006" s="6"/>
       <c r="O1006" s="14"/>
       <c r="P1006" s="14"/>
@@ -24317,7 +24420,7 @@
       <c r="AD1006" s="14"/>
       <c r="AE1006" s="14"/>
     </row>
-    <row r="1007" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1007" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1007" s="6"/>
       <c r="O1007" s="14"/>
       <c r="P1007" s="14"/>
@@ -24337,17 +24440,37 @@
       <c r="AD1007" s="14"/>
       <c r="AE1007" s="14"/>
     </row>
+    <row r="1008" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="6"/>
+      <c r="O1008" s="14"/>
+      <c r="P1008" s="14"/>
+      <c r="Q1008" s="14"/>
+      <c r="R1008" s="14"/>
+      <c r="S1008" s="14"/>
+      <c r="T1008" s="14"/>
+      <c r="U1008" s="14"/>
+      <c r="V1008" s="14"/>
+      <c r="W1008" s="14"/>
+      <c r="X1008" s="14"/>
+      <c r="Y1008" s="14"/>
+      <c r="Z1008" s="14"/>
+      <c r="AA1008" s="14"/>
+      <c r="AB1008" s="14"/>
+      <c r="AC1008" s="14"/>
+      <c r="AD1008" s="14"/>
+      <c r="AE1008" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="68" man="1"/>
-    <brk id="25" man="1"/>
-    <brk id="47" man="1"/>
+    <brk id="69" man="1"/>
+    <brk id="26" man="1"/>
+    <brk id="48" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" man="1"/>
   </colBreaks>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>